--- a/GL_LINE_STRIP.xlsx
+++ b/GL_LINE_STRIP.xlsx
@@ -5,15 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoName\Documents\RadarClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RazumovSa\Documents\Visual Studio 2015\Projects\RadarClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4755" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="H">Лист1!$B$5</definedName>
+    <definedName name="W">Лист1!$B$4</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,9 +27,125 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="36">
+  <si>
+    <t>left turn</t>
+  </si>
+  <si>
+    <t>right turn</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>sign=1</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>H=</t>
+  </si>
+  <si>
+    <t>W=</t>
+  </si>
+  <si>
+    <t>(W-3)*2</t>
+  </si>
+  <si>
+    <t>N=</t>
+  </si>
+  <si>
+    <t>blockstart</t>
+  </si>
+  <si>
+    <t>cycle</t>
+  </si>
+  <si>
+    <t>blockend</t>
+  </si>
+  <si>
+    <t>next step</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>block start</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>block end</t>
+  </si>
+  <si>
+    <t>mode id</t>
+  </si>
+  <si>
+    <t>magic arrays</t>
+  </si>
+  <si>
+    <t>mode index</t>
+  </si>
+  <si>
+    <t>step_length</t>
+  </si>
+  <si>
+    <t>special mode id</t>
+  </si>
+  <si>
+    <t>change_mode?</t>
+  </si>
+  <si>
+    <t>next_big_length</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>dX tone</t>
+  </si>
+  <si>
+    <t>X+dX</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +154,106 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFAFE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -51,18 +261,280 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="mediumDashed">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="9" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="mediumDashed">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="mediumDashed">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCFAFE7"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -79,15 +551,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>52389</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>319089</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>80964</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -98,9 +570,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="2490789" y="5448300"/>
-          <a:ext cx="28575" cy="1381125"/>
+        <a:xfrm flipV="1">
+          <a:off x="2757489" y="8656493"/>
+          <a:ext cx="9525" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -141,16 +613,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>438152</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -159,7 +631,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2266952" y="5219700"/>
+          <a:off x="2543177" y="8427893"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -213,16 +685,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466727</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95252</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -231,7 +703,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2295527" y="6600825"/>
+          <a:off x="2533652" y="9570893"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -287,14 +759,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>104777</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>169718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -303,7 +775,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3762377" y="6657975"/>
+          <a:off x="3762377" y="9618518"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -359,14 +831,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>123827</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -375,7 +847,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3781427" y="5257800"/>
+          <a:off x="3781427" y="8437418"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -430,15 +902,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>476252</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>314326</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>150668</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -447,7 +919,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5353052" y="6534150"/>
+          <a:off x="4953002" y="9599468"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -502,15 +974,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>457202</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -519,7 +991,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5334002" y="5210175"/>
+          <a:off x="4981577" y="8427893"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -574,15 +1046,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>52389</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>328614</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -594,8 +1066,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2490789" y="5448300"/>
-          <a:ext cx="1495425" cy="1438275"/>
+          <a:off x="2767014" y="8656493"/>
+          <a:ext cx="1219200" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -638,14 +1110,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>328614</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>347664</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -657,8 +1129,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3986214" y="5486400"/>
-          <a:ext cx="19050" cy="1400175"/>
+          <a:off x="3986214" y="8666018"/>
+          <a:ext cx="19050" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -701,14 +1173,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>347664</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>90489</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -720,8 +1192,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4005264" y="5486400"/>
-          <a:ext cx="1571625" cy="1276350"/>
+          <a:off x="4005264" y="8666018"/>
+          <a:ext cx="1171575" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -762,16 +1234,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>71439</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>90489</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -782,9 +1254,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5557839" y="5438775"/>
-          <a:ext cx="19050" cy="1323975"/>
+        <a:xfrm flipV="1">
+          <a:off x="5176839" y="8656493"/>
+          <a:ext cx="28575" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -826,15 +1298,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>80964</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>319089</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>328614</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -846,8 +1318,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2519364" y="6829425"/>
-          <a:ext cx="1466850" cy="57150"/>
+          <a:off x="2757489" y="9799493"/>
+          <a:ext cx="1228725" cy="47625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -889,15 +1361,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>52389</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>347664</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -909,8 +1381,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2490789" y="5448300"/>
-          <a:ext cx="1514475" cy="38100"/>
+          <a:off x="2767014" y="8656493"/>
+          <a:ext cx="1238250" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -953,14 +1425,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>328614</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>90489</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -972,8 +1444,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3986214" y="6762750"/>
-          <a:ext cx="1590675" cy="123825"/>
+          <a:off x="3986214" y="9828068"/>
+          <a:ext cx="1190625" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1016,14 +1488,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>347664</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>71439</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1035,8 +1507,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4005264" y="5438775"/>
-          <a:ext cx="1552575" cy="47625"/>
+          <a:off x="4005264" y="8656493"/>
+          <a:ext cx="1200150" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1078,15 +1550,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>42864</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>309564</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1098,8 +1570,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5853114" y="5429250"/>
-          <a:ext cx="1162050" cy="1371600"/>
+          <a:off x="5529264" y="8656493"/>
+          <a:ext cx="876300" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1140,16 +1612,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>142877</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428627</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1158,7 +1630,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5629277" y="5200650"/>
+          <a:off x="5305427" y="8427893"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -1212,16 +1684,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>85727</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>150668</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1230,7 +1702,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6791327" y="6572250"/>
+          <a:off x="6181727" y="9599468"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -1284,16 +1756,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>95252</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>7793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1302,7 +1774,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6800852" y="5019675"/>
+          <a:off x="6172202" y="8199293"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -1356,16 +1828,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>447677</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1374,7 +1846,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5638802" y="4876800"/>
+          <a:off x="5324477" y="8123093"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -1428,16 +1900,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>64943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>141143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1446,7 +1918,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6762752" y="3267075"/>
+          <a:off x="6162677" y="7113443"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -1501,15 +1973,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>447677</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>123827</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1518,7 +1990,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5324477" y="4876800"/>
+          <a:off x="5000627" y="8123093"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -1528,6 +2000,9 @@
             <a:gd name="adj3" fmla="val 8448"/>
           </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
@@ -1573,15 +2048,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>42864</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>319089</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1593,8 +2068,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5853114" y="5248275"/>
-          <a:ext cx="1171575" cy="180975"/>
+          <a:off x="5529264" y="8427893"/>
+          <a:ext cx="866775" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1636,15 +2111,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>376239</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>61914</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>319089</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1656,8 +2131,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5862639" y="5105400"/>
-          <a:ext cx="1162050" cy="142875"/>
+          <a:off x="5548314" y="8351693"/>
+          <a:ext cx="847725" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1699,15 +2174,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>376239</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>61914</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290514</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1719,8 +2194,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5862639" y="3495675"/>
-          <a:ext cx="1123950" cy="1609725"/>
+          <a:off x="5548314" y="7342043"/>
+          <a:ext cx="838200" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1761,16 +2236,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>61914</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347664</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290514</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1782,8 +2257,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5548314" y="3495675"/>
-          <a:ext cx="1438275" cy="1609725"/>
+          <a:off x="5224464" y="7342043"/>
+          <a:ext cx="1162050" cy="1009650"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1824,16 +2299,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>309564</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>319089</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309564</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1844,9 +2319,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7015164" y="5248275"/>
-          <a:ext cx="9525" cy="1552575"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6396039" y="8427893"/>
+          <a:ext cx="9525" cy="1400175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1888,15 +2363,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>42864</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>376239</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>61914</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1908,8 +2383,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5853114" y="5105400"/>
-          <a:ext cx="9525" cy="323850"/>
+          <a:off x="5529264" y="8351693"/>
+          <a:ext cx="19050" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1950,16 +2425,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290514</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>319089</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1971,8 +2446,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="6986589" y="3495675"/>
-          <a:ext cx="38100" cy="1752600"/>
+          <a:off x="6386514" y="7342043"/>
+          <a:ext cx="9525" cy="1085850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2013,16 +2488,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>61914</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347664</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>376239</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>61914</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2034,8 +2509,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5548314" y="5105400"/>
-          <a:ext cx="314325" cy="0"/>
+          <a:off x="5224464" y="8351693"/>
+          <a:ext cx="323850" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2077,15 +2552,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>357189</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>347664</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>595314</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>423864</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2097,8 +2572,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4014789" y="3562350"/>
-          <a:ext cx="1457325" cy="1590675"/>
+          <a:off x="4005264" y="7265843"/>
+          <a:ext cx="1295400" cy="1085850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2140,15 +2615,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>133352</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>123827</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2157,7 +2632,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3790952" y="4924425"/>
+          <a:off x="3781427" y="8123093"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -2167,6 +2642,9 @@
             <a:gd name="adj3" fmla="val 8448"/>
           </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
@@ -2212,15 +2690,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>371477</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>200027</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179243</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>64943</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2229,7 +2707,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5248277" y="3333750"/>
+          <a:off x="5076827" y="7037243"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -2239,6 +2717,9 @@
             <a:gd name="adj3" fmla="val 8448"/>
           </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
@@ -2284,15 +2765,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>209552</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2301,7 +2782,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3810002" y="3467100"/>
+          <a:off x="3867152" y="7056293"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -2311,6 +2792,9 @@
             <a:gd name="adj3" fmla="val 8448"/>
           </a:avLst>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
         <a:effectLst>
           <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
             <a:prstClr val="black">
@@ -2355,16 +2839,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485777</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>7793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2373,7 +2857,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2314577" y="4933950"/>
+          <a:off x="2552702" y="8123093"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -2428,15 +2912,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>495302</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>552452</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2445,7 +2929,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3543302" y="3505200"/>
+          <a:off x="3600452" y="7094393"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -2499,16 +2983,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485777</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2517,7 +3001,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2314577" y="3543300"/>
+          <a:off x="2552702" y="6980093"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -2572,15 +3056,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>357189</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>347664</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>376239</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2592,8 +3076,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4014789" y="3695700"/>
-          <a:ext cx="19050" cy="1457325"/>
+          <a:off x="4005264" y="7284893"/>
+          <a:ext cx="85725" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2635,15 +3119,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>376239</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2655,8 +3139,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2538414" y="3695700"/>
-          <a:ext cx="1495425" cy="1466850"/>
+          <a:off x="2776539" y="7284893"/>
+          <a:ext cx="1314450" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2698,15 +3182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>109539</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2718,8 +3202,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2538414" y="3733800"/>
-          <a:ext cx="1228725" cy="1428750"/>
+          <a:off x="2776539" y="7322993"/>
+          <a:ext cx="1047750" cy="1028700"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2761,15 +3245,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>109539</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2780,9 +3264,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2538414" y="3733800"/>
-          <a:ext cx="1228725" cy="38100"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2776539" y="7208693"/>
+          <a:ext cx="1047750" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2824,15 +3308,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>376239</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>595314</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>423864</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2844,8 +3328,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4033839" y="3562350"/>
-          <a:ext cx="1438275" cy="133350"/>
+          <a:off x="4090989" y="7265843"/>
+          <a:ext cx="1209675" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2887,15 +3371,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>357189</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>347664</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2907,8 +3391,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2538414" y="5153025"/>
-          <a:ext cx="1476375" cy="9525"/>
+          <a:off x="2776539" y="8351693"/>
+          <a:ext cx="1228725" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2950,15 +3434,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>109539</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>376239</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2970,7 +3454,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3767139" y="3695700"/>
+          <a:off x="3824289" y="7284893"/>
           <a:ext cx="266700" cy="38100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3013,15 +3497,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3033,8 +3517,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2538414" y="3771900"/>
-          <a:ext cx="0" cy="1390650"/>
+          <a:off x="2776539" y="7208693"/>
+          <a:ext cx="0" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3075,16 +3559,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>71439</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>42864</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3095,9 +3579,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5557839" y="5429250"/>
-          <a:ext cx="295275" cy="9525"/>
+        <a:xfrm>
+          <a:off x="5205414" y="8656493"/>
+          <a:ext cx="323850" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3138,16 +3622,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>71439</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>309564</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3159,8 +3643,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5557839" y="5438775"/>
-          <a:ext cx="1457325" cy="1362075"/>
+          <a:off x="5205414" y="8656493"/>
+          <a:ext cx="1200150" cy="1171575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3201,16 +3685,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>90489</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>309564</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3222,8 +3706,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5576889" y="6762750"/>
-          <a:ext cx="1438275" cy="38100"/>
+          <a:off x="5176839" y="9828068"/>
+          <a:ext cx="1228725" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3265,15 +3749,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>357189</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>347664</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>61914</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>347664</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3285,8 +3769,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4014789" y="5105400"/>
-          <a:ext cx="1533525" cy="47625"/>
+          <a:off x="4005264" y="8351693"/>
+          <a:ext cx="1219200" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3328,15 +3812,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>595314</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>347664</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>61914</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>423864</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3347,9 +3831,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5472114" y="3562350"/>
-          <a:ext cx="76200" cy="1543050"/>
+        <a:xfrm flipV="1">
+          <a:off x="5224464" y="7265843"/>
+          <a:ext cx="76200" cy="1085850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3391,15 +3875,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>595314</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>423864</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290514</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>103043</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3410,9 +3894,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5472114" y="3495675"/>
-          <a:ext cx="1514475" cy="66675"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5300664" y="7265843"/>
+          <a:ext cx="1085850" cy="76200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3454,15 +3938,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>466727</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>523877</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>304801</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>169718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3471,7 +3955,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3514727" y="3171825"/>
+          <a:off x="3571877" y="6761018"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -3525,16 +4009,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>495302</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>150668</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3543,7 +4027,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2324102" y="1914525"/>
+          <a:off x="2552702" y="5598968"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -3603,15 +4087,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>152402</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>209552</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>64943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>141143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3620,7 +4104,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3810002" y="3143250"/>
+          <a:off x="3867152" y="6732443"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -3680,15 +4164,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>209552</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>26843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>103043</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3697,7 +4181,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848102" y="1800225"/>
+          <a:off x="3867152" y="5741843"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -3757,15 +4241,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>80964</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>138114</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3777,8 +4261,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2538414" y="3400425"/>
-          <a:ext cx="1200150" cy="371475"/>
+          <a:off x="2776539" y="6989618"/>
+          <a:ext cx="1019175" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3820,15 +4304,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>414339</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3839,9 +4323,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2538414" y="1743075"/>
-          <a:ext cx="1533525" cy="104775"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2805114" y="5541818"/>
+          <a:ext cx="1285875" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3883,15 +4367,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>414339</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>64943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>595314</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>423864</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3903,8 +4387,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4071939" y="2028825"/>
-          <a:ext cx="1400175" cy="1257300"/>
+          <a:off x="4090989" y="5970443"/>
+          <a:ext cx="1209675" cy="1019175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3946,15 +4430,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>376239</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>103043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>595314</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>423864</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3965,9 +4449,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4033839" y="3286125"/>
-          <a:ext cx="1438275" cy="85725"/>
+        <a:xfrm>
+          <a:off x="4090989" y="6961043"/>
+          <a:ext cx="1209675" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4009,15 +4493,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>585789</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>423864</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>36368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>595314</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>442914</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4028,9 +4512,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5462589" y="1781175"/>
-          <a:ext cx="9525" cy="1504950"/>
+        <a:xfrm flipV="1">
+          <a:off x="5300664" y="5941868"/>
+          <a:ext cx="19050" cy="1047750"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4072,15 +4556,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>361952</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>219077</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>188768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4089,7 +4573,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5238752" y="1552575"/>
+          <a:off x="5095877" y="5713268"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -4149,15 +4633,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>371477</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>200027</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>169718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4166,7 +4650,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5248277" y="3057525"/>
+          <a:off x="5076827" y="6761018"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -4225,16 +4709,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47627</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552452</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>36368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4243,7 +4727,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5534027" y="1552575"/>
+          <a:off x="5429252" y="5751368"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -4302,16 +4786,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104777</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4320,7 +4804,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6762752" y="1543050"/>
+          <a:off x="6200777" y="5579918"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -4379,16 +4863,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47627</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571502</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>83993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>409576</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4397,7 +4881,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5534027" y="1257300"/>
+          <a:off x="5448302" y="5417993"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -4457,15 +4941,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>585789</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>442914</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>36368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290514</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7793</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4477,8 +4961,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5462589" y="1781175"/>
-          <a:ext cx="1524000" cy="1428750"/>
+          <a:off x="5319714" y="5941868"/>
+          <a:ext cx="1066800" cy="1114425"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4520,15 +5004,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>271464</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290514</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7793</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4540,8 +5024,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5757864" y="1781175"/>
-          <a:ext cx="1228725" cy="1428750"/>
+          <a:off x="5653089" y="5979968"/>
+          <a:ext cx="733425" cy="1076325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4583,15 +5067,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>271464</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4603,8 +5087,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5757864" y="1771650"/>
-          <a:ext cx="1228725" cy="9525"/>
+          <a:off x="5653089" y="5808518"/>
+          <a:ext cx="771525" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4646,15 +5130,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>271464</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>185739</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4666,8 +5150,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="5757864" y="1485900"/>
-          <a:ext cx="1228725" cy="285750"/>
+          <a:off x="5672139" y="5646593"/>
+          <a:ext cx="752475" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4709,15 +5193,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>595314</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>423864</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290514</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7793</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4728,9 +5212,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5472114" y="3209925"/>
-          <a:ext cx="1514475" cy="76200"/>
+        <a:xfrm>
+          <a:off x="5300664" y="6989618"/>
+          <a:ext cx="1085850" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4772,15 +5256,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>585789</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>442914</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>36368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>271464</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4792,8 +5276,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5462589" y="1781175"/>
-          <a:ext cx="295275" cy="0"/>
+          <a:off x="5319714" y="5941868"/>
+          <a:ext cx="333375" cy="38100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4834,16 +5318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290514</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7793</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4855,8 +5339,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6986589" y="1771650"/>
-          <a:ext cx="0" cy="1438275"/>
+          <a:off x="6386514" y="5808518"/>
+          <a:ext cx="38100" cy="1247775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4898,15 +5382,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>271464</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>271464</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>185739</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4918,8 +5402,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5757864" y="1485900"/>
-          <a:ext cx="0" cy="295275"/>
+          <a:off x="5653089" y="5646593"/>
+          <a:ext cx="19050" cy="333375"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4960,16 +5444,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4978,7 +5462,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6762752" y="2981325"/>
+          <a:off x="6162677" y="6827693"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -5037,16 +5521,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>14289</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452439</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290514</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5058,8 +5542,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5500689" y="428625"/>
-          <a:ext cx="1485900" cy="1057275"/>
+          <a:off x="5329239" y="4113068"/>
+          <a:ext cx="1057275" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5101,15 +5585,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>400052</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>228602</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>169718</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5118,7 +5602,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276852" y="1257300"/>
+          <a:off x="5105402" y="5427518"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -5177,16 +5661,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57152</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>66677</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>150668</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5195,7 +5679,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6762752" y="200025"/>
+          <a:off x="6162677" y="3884468"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -5255,15 +5739,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>209552</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>7793</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5272,7 +5756,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3848102" y="1514475"/>
+          <a:off x="3867152" y="5456093"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -5331,16 +5815,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485777</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142877</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>169718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5349,7 +5833,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2314577" y="1619250"/>
+          <a:off x="2581277" y="5313218"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -5409,15 +5893,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142877</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>257177</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>590551</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5426,7 +5910,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3800477" y="238125"/>
+          <a:off x="3914777" y="3827318"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -5485,16 +5969,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>14289</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>14289</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452439</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5505,9 +5989,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5500689" y="419100"/>
-          <a:ext cx="0" cy="1066800"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5176839" y="4113068"/>
+          <a:ext cx="152400" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5549,15 +6033,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>414339</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>14289</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5569,8 +6053,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4071939" y="419100"/>
-          <a:ext cx="1428750" cy="1323975"/>
+          <a:off x="4090989" y="4113068"/>
+          <a:ext cx="1085850" cy="1571625"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5612,15 +6096,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>481014</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5632,8 +6116,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2538414" y="466725"/>
-          <a:ext cx="1485900" cy="1381125"/>
+          <a:off x="2805114" y="4055918"/>
+          <a:ext cx="1333500" cy="1485900"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5674,16 +6158,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>14289</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290514</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5694,9 +6178,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5500689" y="419100"/>
-          <a:ext cx="1485900" cy="9525"/>
+        <a:xfrm flipH="1">
+          <a:off x="5176839" y="4113068"/>
+          <a:ext cx="1209675" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5738,15 +6222,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>414339</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>14289</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452439</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5758,8 +6242,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4071939" y="1485900"/>
-          <a:ext cx="1428750" cy="257175"/>
+          <a:off x="4090989" y="5656118"/>
+          <a:ext cx="1238250" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5801,15 +6285,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>481014</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>14289</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>300039</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5820,9 +6304,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4024314" y="419100"/>
-          <a:ext cx="1476375" cy="47625"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4138614" y="4055918"/>
+          <a:ext cx="1038225" cy="57150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5864,15 +6348,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>414339</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>481014</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5883,9 +6367,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4024314" y="466725"/>
-          <a:ext cx="47625" cy="1276350"/>
+        <a:xfrm flipV="1">
+          <a:off x="4090989" y="4055918"/>
+          <a:ext cx="47625" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -5927,15 +6411,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>400052</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>150668</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5944,7 +6428,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276852" y="190500"/>
+          <a:off x="4953002" y="3884468"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -6003,16 +6487,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290514</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>328614</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6023,9 +6507,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6986589" y="428625"/>
-          <a:ext cx="0" cy="1343025"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6386514" y="4113068"/>
+          <a:ext cx="38100" cy="1695450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6067,15 +6551,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>271464</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>185739</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>280989</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>290514</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6087,8 +6571,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5757864" y="428625"/>
-          <a:ext cx="1228725" cy="1057275"/>
+          <a:off x="5672139" y="4113068"/>
+          <a:ext cx="714375" cy="1533525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6129,16 +6613,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>14289</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>452439</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>271464</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>185739</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6150,8 +6634,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="5500689" y="1485900"/>
-          <a:ext cx="257175" cy="0"/>
+          <a:off x="5329239" y="5646593"/>
+          <a:ext cx="342900" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6193,15 +6677,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>109539</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>160193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6213,8 +6697,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2538414" y="2143125"/>
-          <a:ext cx="9525" cy="1628775"/>
+          <a:off x="2776539" y="5827568"/>
+          <a:ext cx="0" cy="1381125"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6256,15 +6740,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>109539</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>80964</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>138114</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6276,8 +6760,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="2547939" y="2143125"/>
-          <a:ext cx="1190625" cy="1257300"/>
+          <a:off x="2776539" y="5827568"/>
+          <a:ext cx="1019175" cy="1162050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6319,15 +6803,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>109539</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>376239</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>103043</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6339,8 +6823,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2547939" y="2143125"/>
-          <a:ext cx="1485900" cy="1228725"/>
+          <a:off x="2776539" y="5827568"/>
+          <a:ext cx="1314450" cy="1133475"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6382,15 +6866,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>376239</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>64943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>414339</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>103043</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6402,8 +6886,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4033839" y="2028825"/>
-          <a:ext cx="38100" cy="1343025"/>
+          <a:off x="4090989" y="5970443"/>
+          <a:ext cx="0" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6445,15 +6929,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>109539</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>414339</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>64943</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6464,9 +6948,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2547939" y="2028825"/>
-          <a:ext cx="1524000" cy="114300"/>
+        <a:xfrm>
+          <a:off x="2776539" y="5827568"/>
+          <a:ext cx="1314450" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6508,15 +6992,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>414339</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>36368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>585789</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>442914</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>64943</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6528,8 +7012,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4071939" y="1781175"/>
-          <a:ext cx="1390650" cy="247650"/>
+          <a:off x="4090989" y="5941868"/>
+          <a:ext cx="1228725" cy="28575"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6570,16 +7054,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>485777</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>542927</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>36368</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>323851</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6588,7 +7072,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2314577" y="323850"/>
+          <a:off x="4124327" y="3846368"/>
           <a:ext cx="447674" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="blockArc">
@@ -6648,15 +7132,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>366714</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>157164</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6668,8 +7152,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="2538414" y="552450"/>
-          <a:ext cx="0" cy="1295400"/>
+          <a:off x="3338514" y="4074968"/>
+          <a:ext cx="1009650" cy="1466850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6710,16 +7194,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>157164</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>366714</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>481014</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>74468</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6731,8 +7215,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2538414" y="466725"/>
-          <a:ext cx="1485900" cy="85725"/>
+          <a:off x="4348164" y="4055918"/>
+          <a:ext cx="323850" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6769,6 +7253,699 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152402</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="288" name="Арка 287"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3124202" y="3865418"/>
+          <a:ext cx="447674" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3980228"/>
+            <a:gd name="adj2" fmla="val 3546345"/>
+            <a:gd name="adj3" fmla="val 8448"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>35</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533402</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>169718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="289" name="Арка 288"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114802" y="3522518"/>
+          <a:ext cx="447674" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3980228"/>
+            <a:gd name="adj2" fmla="val 3546345"/>
+            <a:gd name="adj3" fmla="val 8448"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>36</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247652</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>169718</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="290" name="Арка 289"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438652" y="3522518"/>
+          <a:ext cx="447674" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3980228"/>
+            <a:gd name="adj2" fmla="val 3546345"/>
+            <a:gd name="adj3" fmla="val 8448"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>38</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323852</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>93518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="291" name="Арка 290"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295652" y="2493818"/>
+          <a:ext cx="447674" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3980228"/>
+            <a:gd name="adj2" fmla="val 3546345"/>
+            <a:gd name="adj3" fmla="val 8448"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>37</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161927</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="292" name="Арка 291"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352927" y="2531918"/>
+          <a:ext cx="447674" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3980228"/>
+            <a:gd name="adj2" fmla="val 3546345"/>
+            <a:gd name="adj3" fmla="val 8448"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>39</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76202</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="293" name="Арка 292"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486402" y="3560618"/>
+          <a:ext cx="447674" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3980228"/>
+            <a:gd name="adj2" fmla="val 3546345"/>
+            <a:gd name="adj3" fmla="val 8448"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>40</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>131618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="294" name="Арка 293"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524502" y="2531918"/>
+          <a:ext cx="447674" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3980228"/>
+            <a:gd name="adj2" fmla="val 3546345"/>
+            <a:gd name="adj3" fmla="val 8448"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>41</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95252</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>64943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>141143</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="295" name="Арка 294"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724652" y="3493943"/>
+          <a:ext cx="447674" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3980228"/>
+            <a:gd name="adj2" fmla="val 3546345"/>
+            <a:gd name="adj3" fmla="val 8448"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>42</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85727</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>45893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122093</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="296" name="Арка 295"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715127" y="2522393"/>
+          <a:ext cx="447674" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="blockArc">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3980228"/>
+            <a:gd name="adj2" fmla="val 3546345"/>
+            <a:gd name="adj3" fmla="val 8448"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:prstClr val="black">
+              <a:alpha val="40000"/>
+            </a:prstClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>43</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7037,28 +8214,5046 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:AP142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="V62" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="51"/>
+    <col min="17" max="17" width="11.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="24" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="24"/>
+    <col min="23" max="23" width="15" style="24" bestFit="1" customWidth="1"/>
+    <col min="24" max="29" width="16.42578125" style="24" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <f>33-18</f>
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>47-34</f>
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q37" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q39" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="R39" s="59" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" s="59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q40" s="56">
+        <v>0</v>
+      </c>
+      <c r="R40" s="54">
+        <v>1</v>
+      </c>
+      <c r="S40" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q41" s="56">
+        <v>1</v>
+      </c>
+      <c r="R41" s="54">
+        <v>2</v>
+      </c>
+      <c r="S41" s="54">
+        <f>(W-3)*2+2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q42" s="56">
+        <v>2</v>
+      </c>
+      <c r="R42" s="54">
+        <v>3</v>
+      </c>
+      <c r="S42" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q43" s="56">
+        <v>3</v>
+      </c>
+      <c r="R43" s="54">
+        <v>4</v>
+      </c>
+      <c r="S43" s="54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q44" s="56">
+        <v>4</v>
+      </c>
+      <c r="R44" s="54">
+        <v>1</v>
+      </c>
+      <c r="S44" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="56">
+        <v>5</v>
+      </c>
+      <c r="R45" s="54">
+        <v>2</v>
+      </c>
+      <c r="S45" s="54">
+        <f>(W-3)*2+2</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q46" s="56">
+        <v>6</v>
+      </c>
+      <c r="R46" s="54">
+        <v>3</v>
+      </c>
+      <c r="S46" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q47" s="57">
+        <v>7</v>
+      </c>
+      <c r="R47" s="55">
+        <v>5</v>
+      </c>
+      <c r="S47" s="55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:42" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="AN55" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO55" s="43">
+        <f>((W-3)*2+6+1)*(H-1)-1</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:42" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1"/>
+      <c r="G56" s="2">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="2">
+        <v>2</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y56" s="60"/>
+    </row>
+    <row r="57" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y57" s="60"/>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="11"/>
+      <c r="AL57" s="11"/>
+      <c r="AM57" s="11"/>
+      <c r="AN57" s="11"/>
+      <c r="AO57" s="11"/>
+    </row>
+    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="N58" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O58" s="11"/>
+      <c r="P58" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="R58" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="S58" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="T58" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="U58" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="V58" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="W58" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="X58" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y58" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z58" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA58" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB58" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI58" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="11"/>
+    </row>
+    <row r="59" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J59" s="19">
+        <v>0</v>
+      </c>
+      <c r="K59" s="19">
+        <v>1</v>
+      </c>
+      <c r="L59" s="19">
+        <v>2</v>
+      </c>
+      <c r="M59" s="19">
+        <v>3</v>
+      </c>
+      <c r="N59" s="20">
+        <v>4</v>
+      </c>
+      <c r="O59" s="40"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="5">
+        <v>1</v>
+      </c>
+      <c r="S59" s="5">
+        <v>0</v>
+      </c>
+      <c r="T59" s="39"/>
+      <c r="U59" s="39"/>
+      <c r="V59" s="38">
+        <v>0</v>
+      </c>
+      <c r="W59" s="38">
+        <v>4</v>
+      </c>
+      <c r="X59" s="38">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="39"/>
+      <c r="Z59" s="39"/>
+      <c r="AA59" s="39"/>
+      <c r="AB59" s="39"/>
+      <c r="AC59" s="39"/>
+      <c r="AD59" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="19">
+        <v>2</v>
+      </c>
+      <c r="AG59" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH59" s="19">
+        <v>4</v>
+      </c>
+      <c r="AI59" s="20">
+        <v>5</v>
+      </c>
+      <c r="AJ59" s="11"/>
+      <c r="AK59" s="11"/>
+      <c r="AL59" s="11"/>
+      <c r="AM59" s="11"/>
+      <c r="AN59" s="11"/>
+      <c r="AO59" s="11"/>
+    </row>
+    <row r="60" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>9</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="4">
+        <v>0</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0</v>
+      </c>
+      <c r="J60" s="21"/>
+      <c r="Q60" s="22">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R60" s="24">
+        <f>IF(OR(C60&lt;2,C60=$AO$55-1),1,IF(T60=1,IF(R59&gt;1,1,X60),R59))</f>
+        <v>1</v>
+      </c>
+      <c r="S60" s="24">
+        <f>S59+R60*T60</f>
+        <v>1</v>
+      </c>
+      <c r="T60" s="24">
+        <f>IF(S59=C60,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U60" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="24">
+        <f>IF(C60=0,0,IF(C60=$AO$55-1,6,IF(T60=1,IF(V59&lt;=2,V59+1,IF(V59=3,W60,1)),V59)))</f>
+        <v>0</v>
+      </c>
+      <c r="W60" s="24">
+        <f>IF(AND(V59=4,W59=4),5,IF(AND(V59=5,W59=5),4,W59))</f>
+        <v>4</v>
+      </c>
+      <c r="X60" s="24">
+        <f>IF(AND(R59=4,X59=4),3,IF(AND(R59=3,X59=3),4,X59))</f>
+        <v>4</v>
+      </c>
+      <c r="Y60" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="24">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="24">
+        <f>IF(V60=4,Y60+Z60-1,IF(V60=5,Y60+Z60,Y60))</f>
+        <v>0</v>
+      </c>
+      <c r="AB60" s="24" t="str">
+        <f>IF(AA60=Q60,"OK","!!!")</f>
+        <v>OK</v>
+      </c>
+      <c r="AD60" s="25"/>
+      <c r="AE60" s="26"/>
+      <c r="AJ60" s="11"/>
+      <c r="AK60" s="11"/>
+      <c r="AL60" s="11"/>
+      <c r="AM60" s="11"/>
+      <c r="AN60" s="11"/>
+      <c r="AO60" s="48"/>
+      <c r="AP60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="4">
+        <v>0</v>
+      </c>
+      <c r="G61" s="4">
+        <v>1</v>
+      </c>
+      <c r="J61" s="35"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="P61" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R61" s="24">
+        <f>IF(OR(C61&lt;2,C61=$AO$55-1),1,IF(T61=1,IF(R60&gt;1,1,X61),R60))</f>
+        <v>1</v>
+      </c>
+      <c r="S61" s="24">
+        <f t="shared" ref="S61:S93" si="0">S60+R61*T61</f>
+        <v>2</v>
+      </c>
+      <c r="T61" s="24">
+        <f>IF(S60=C61,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U61" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="V61" s="24">
+        <f t="shared" ref="V61:V94" si="1">IF(C61=0,0,IF(C61=$AO$55-1,6,IF(T61=1,IF(V60&lt;=2,V60+1,IF(V60=3,W61,1)),V60)))</f>
+        <v>1</v>
+      </c>
+      <c r="W61" s="24">
+        <f t="shared" ref="W61:W94" si="2">IF(AND(V60=4,W60=4),5,IF(AND(V60=5,W60=5),4,W60))</f>
+        <v>4</v>
+      </c>
+      <c r="X61" s="24">
+        <f t="shared" ref="X61:X94" si="3">IF(AND(R60=4,X60=4),3,IF(AND(R60=3,X60=3),4,X60))</f>
+        <v>4</v>
+      </c>
+      <c r="Y61" s="24">
+        <f>IF(V61=1,Y60,IF(V61=2,IF(Y60=Y59,Y60+P61,Y60),IF(V61=3,Y60+P61,Y60)))</f>
+        <v>0</v>
+      </c>
+      <c r="Z61" s="24">
+        <f>1*NOT(Z60)</f>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="24">
+        <f t="shared" ref="AA61:AA94" si="4">IF(V61=4,Y61+Z61-1,IF(V61=5,Y61+Z61,Y61))</f>
+        <v>0</v>
+      </c>
+      <c r="AB61" s="24" t="str">
+        <f t="shared" ref="AB61:AB94" si="5">IF(AA61=Q61,"OK","!!!")</f>
+        <v>OK</v>
+      </c>
+      <c r="AD61" s="23"/>
+      <c r="AE61" s="21"/>
+      <c r="AO61" s="50"/>
+    </row>
+    <row r="62" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="12">
+        <v>2</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12">
+        <v>1</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0</v>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="24">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="R62" s="24">
+        <f>IF(OR(C62&lt;2,C62=$AO$55-1),1,IF(T62=1,IF(R61&gt;1,1,X62),R61))</f>
+        <v>4</v>
+      </c>
+      <c r="S62" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="T62" s="24">
+        <f t="shared" ref="T62:T94" si="6">IF(S61=C62,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U62" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="V62" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W62" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X62" s="24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y62" s="24">
+        <f t="shared" ref="Y62:Y95" si="7">IF(V62=1,Y61,IF(V62=2,IF(Y61=Y60,Y61+P62,Y61),IF(V62=3,Y61+P62,Y61)))</f>
+        <v>1</v>
+      </c>
+      <c r="Z62" s="24">
+        <f t="shared" ref="Z62:Z95" si="8">1*NOT(Z61)</f>
+        <v>1</v>
+      </c>
+      <c r="AA62" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB62" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD62" s="21"/>
+      <c r="AE62" s="23"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="12"/>
+      <c r="AN62" s="12"/>
+      <c r="AO62" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A63" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="14">
+        <v>3</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14">
+        <v>1</v>
+      </c>
+      <c r="G63" s="14">
+        <v>1</v>
+      </c>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="15"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="46">
+        <v>1</v>
+      </c>
+      <c r="R63" s="24">
+        <f t="shared" ref="R63:R94" si="9">IF(OR(C63&lt;2,C63=$AO$55-1),1,IF(T63=1,IF(R62&gt;1,1,X63),R62))</f>
+        <v>4</v>
+      </c>
+      <c r="S63" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="T63" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="45"/>
+      <c r="V63" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W63" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X63" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y63" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Z63" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB63" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD63" s="16"/>
+      <c r="AE63" s="15"/>
+      <c r="AF63" s="16"/>
+      <c r="AG63" s="16"/>
+      <c r="AH63" s="14"/>
+      <c r="AI63" s="14"/>
+      <c r="AJ63" s="14"/>
+      <c r="AK63" s="14"/>
+      <c r="AL63" s="14"/>
+      <c r="AM63" s="14"/>
+      <c r="AN63" s="14"/>
+      <c r="AO63" s="48"/>
+      <c r="AP63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="14">
+        <v>4</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14">
+        <v>2</v>
+      </c>
+      <c r="G64" s="14">
+        <v>0</v>
+      </c>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="47">
+        <v>2</v>
+      </c>
+      <c r="R64" s="24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S64" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="T64" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="45"/>
+      <c r="V64" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W64" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X64" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y64" s="24">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z64" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA64" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB64" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD64" s="15"/>
+      <c r="AE64" s="16"/>
+      <c r="AF64" s="14"/>
+      <c r="AG64" s="14"/>
+      <c r="AH64" s="14"/>
+      <c r="AI64" s="14"/>
+      <c r="AJ64" s="14"/>
+      <c r="AK64" s="14"/>
+      <c r="AL64" s="14"/>
+      <c r="AM64" s="14"/>
+      <c r="AN64" s="14"/>
+      <c r="AO64" s="49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="12">
+        <v>5</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="6">
+        <v>2</v>
+      </c>
+      <c r="G65" s="7">
+        <v>1</v>
+      </c>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="24">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="R65" s="24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S65" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="T65" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W65" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X65" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y65" s="24">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z65" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB65" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD65" s="17"/>
+      <c r="AE65" s="13"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="12"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+      <c r="AM65" s="12"/>
+      <c r="AN65" s="12"/>
+      <c r="AO65" s="48"/>
+      <c r="AP65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="28"/>
+      <c r="P66" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="24">
+        <f>W-1</f>
+        <v>3</v>
+      </c>
+      <c r="R66" s="24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S66" s="24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="T66" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U66" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V66" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="W66" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X66" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y66" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Z66" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA66" s="24">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AB66" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="11"/>
+      <c r="AO66" s="50"/>
+    </row>
+    <row r="67" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="6">
+        <v>2</v>
+      </c>
+      <c r="G67" s="7">
+        <v>1</v>
+      </c>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="11"/>
+      <c r="P67" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="41">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="R67" s="24">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S67" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T67" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U67" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="V67" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W67" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X67" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y67" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Z67" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB67" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD67" s="27"/>
+      <c r="AE67" s="28"/>
+      <c r="AO67" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="10"/>
+      <c r="P68" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="41">
+        <f>W-1</f>
+        <v>3</v>
+      </c>
+      <c r="R68" s="24">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S68" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T68" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W68" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X68" s="24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y68" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Z68" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA68" s="24">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AB68" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD68" s="11"/>
+      <c r="AE68" s="10"/>
+    </row>
+    <row r="69" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="6">
+        <v>2</v>
+      </c>
+      <c r="G69" s="7">
+        <v>1</v>
+      </c>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="11"/>
+      <c r="P69" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="41">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="R69" s="24">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S69" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T69" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W69" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X69" s="24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y69" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Z69" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA69" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB69" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AE69" s="29"/>
+      <c r="AF69" s="30"/>
+    </row>
+    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="J70" s="36"/>
+      <c r="K70" s="36"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="35"/>
+      <c r="P70" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q70" s="24">
+        <f>W-1</f>
+        <v>3</v>
+      </c>
+      <c r="R70" s="24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S70" s="24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="T70" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U70" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="V70" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W70" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X70" s="24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y70" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Z70" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA70" s="24">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AB70" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AE70" s="31"/>
+      <c r="AF70" s="32"/>
+    </row>
+    <row r="71" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="12">
+        <v>11</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="6">
+        <v>2</v>
+      </c>
+      <c r="G71" s="7">
+        <v>1</v>
+      </c>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="17"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q71" s="24">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="R71" s="24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S71" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T71" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U71" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="V71" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W71" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X71" s="24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y71" s="24">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z71" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB71" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="13"/>
+      <c r="AF71" s="17"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+      <c r="AM71" s="12"/>
+      <c r="AN71" s="12"/>
+    </row>
+    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A72" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="14">
+        <v>12</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14">
+        <v>2</v>
+      </c>
+      <c r="G72" s="14">
+        <v>2</v>
+      </c>
+      <c r="H72" s="14"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="16"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="16"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q72" s="46">
+        <v>2</v>
+      </c>
+      <c r="R72" s="24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S72" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T72" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="45"/>
+      <c r="V72" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W72" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X72" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y72" s="24">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z72" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA72" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB72" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD72" s="14"/>
+      <c r="AE72" s="16"/>
+      <c r="AF72" s="15"/>
+      <c r="AG72" s="14"/>
+      <c r="AH72" s="14"/>
+      <c r="AI72" s="14"/>
+      <c r="AJ72" s="14"/>
+      <c r="AK72" s="14"/>
+      <c r="AL72" s="14"/>
+      <c r="AM72" s="14"/>
+      <c r="AN72" s="14"/>
+    </row>
+    <row r="73" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="14">
+        <v>13</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14">
+        <v>1</v>
+      </c>
+      <c r="G73" s="14">
+        <v>1</v>
+      </c>
+      <c r="H73" s="14"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="15"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q73" s="47">
+        <v>1</v>
+      </c>
+      <c r="R73" s="24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S73" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T73" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="45"/>
+      <c r="V73" s="24">
+        <f>IF(C73=0,0,IF(C73=$AO$55-1,6,IF(T73=1,IF(V72&lt;=2,V72+1,IF(V72=3,W73,1)),V72)))</f>
+        <v>2</v>
+      </c>
+      <c r="W73" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X73" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y73" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Z73" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB73" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD73" s="14"/>
+      <c r="AE73" s="15"/>
+      <c r="AF73" s="16"/>
+      <c r="AG73" s="14"/>
+      <c r="AH73" s="14"/>
+      <c r="AI73" s="14"/>
+      <c r="AJ73" s="14"/>
+      <c r="AK73" s="14"/>
+      <c r="AL73" s="14"/>
+      <c r="AM73" s="14"/>
+      <c r="AN73" s="14"/>
+    </row>
+    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="12">
+        <v>14</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="12"/>
+      <c r="F74" s="8">
+        <v>1</v>
+      </c>
+      <c r="G74" s="9">
+        <v>2</v>
+      </c>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="17"/>
+      <c r="M74" s="17"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q74" s="24">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="R74" s="24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S74" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="T74" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W74" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X74" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y74" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Z74" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA74" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB74" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="17"/>
+      <c r="AF74" s="13"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="12"/>
+      <c r="AN74" s="12"/>
+    </row>
+    <row r="75" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="J75" s="28"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="27"/>
+      <c r="P75" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q75" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S75" s="24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="T75" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U75" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V75" s="24">
+        <f>IF(C75=0,0,IF(C75=$AO$55-1,6,IF(T75=1,IF(V74&lt;=2,V74+1,IF(V74=3,W75,1)),V74)))</f>
+        <v>3</v>
+      </c>
+      <c r="W75" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X75" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y75" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AE75" s="10"/>
+      <c r="AF75" s="11"/>
+      <c r="AG75" s="11"/>
+    </row>
+    <row r="76" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="8">
+        <v>1</v>
+      </c>
+      <c r="G76" s="9">
+        <v>2</v>
+      </c>
+      <c r="K76" s="10"/>
+      <c r="P76" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q76" s="42">
+        <v>1</v>
+      </c>
+      <c r="R76" s="24">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S76" s="24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="T76" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U76" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="V76" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W76" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X76" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y76" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA76" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB76" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AE76" s="27"/>
+      <c r="AF76" s="28"/>
+    </row>
+    <row r="77" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="J77" s="10"/>
+      <c r="K77" s="37"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="P77" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q77" s="42">
+        <v>0</v>
+      </c>
+      <c r="R77" s="24">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S77" s="24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="T77" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W77" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X77" s="24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y77" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AF77" s="10"/>
+    </row>
+    <row r="78" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="8">
+        <v>1</v>
+      </c>
+      <c r="G78" s="9">
+        <v>2</v>
+      </c>
+      <c r="J78" s="11"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="37"/>
+      <c r="M78" s="11"/>
+      <c r="P78" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q78" s="42">
+        <v>1</v>
+      </c>
+      <c r="R78" s="24">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S78" s="24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="T78" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="24">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W78" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X78" s="24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y78" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA78" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB78" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AF78" s="29"/>
+      <c r="AG78" s="30"/>
+    </row>
+    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>19</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>3</v>
+      </c>
+      <c r="J79" s="35"/>
+      <c r="K79" s="36"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="36"/>
+      <c r="P79" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R79" s="24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S79" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="T79" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U79" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="V79" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W79" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X79" s="24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y79" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA79" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB79" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AF79" s="31"/>
+      <c r="AG79" s="32"/>
+    </row>
+    <row r="80" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="12">
+        <v>20</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="8">
+        <v>1</v>
+      </c>
+      <c r="G80" s="9">
+        <v>2</v>
+      </c>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="24">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="R80" s="24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S80" s="24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="T80" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U80" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="V80" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W80" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X80" s="24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y80" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Z80" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA80" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB80" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD80" s="12"/>
+      <c r="AE80" s="12"/>
+      <c r="AF80" s="13"/>
+      <c r="AG80" s="17"/>
+      <c r="AH80" s="12"/>
+      <c r="AI80" s="12"/>
+      <c r="AJ80" s="12"/>
+      <c r="AK80" s="12"/>
+      <c r="AL80" s="12"/>
+      <c r="AM80" s="12"/>
+      <c r="AN80" s="12"/>
+    </row>
+    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A81" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="14">
+        <v>21</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14">
+        <v>1</v>
+      </c>
+      <c r="G81" s="14">
+        <v>3</v>
+      </c>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="46">
+        <v>1</v>
+      </c>
+      <c r="R81" s="24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S81" s="24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="T81" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U81" s="45"/>
+      <c r="V81" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W81" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X81" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y81" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Z81" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA81" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB81" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD81" s="14"/>
+      <c r="AE81" s="14"/>
+      <c r="AF81" s="16"/>
+      <c r="AG81" s="15"/>
+      <c r="AH81" s="14"/>
+      <c r="AI81" s="14"/>
+      <c r="AJ81" s="14"/>
+      <c r="AK81" s="14"/>
+      <c r="AL81" s="14"/>
+      <c r="AM81" s="14"/>
+      <c r="AN81" s="14"/>
+    </row>
+    <row r="82" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="14">
+        <v>22</v>
+      </c>
+      <c r="D82" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14">
+        <v>2</v>
+      </c>
+      <c r="G82" s="14">
+        <v>2</v>
+      </c>
+      <c r="H82" s="14"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="47">
+        <v>2</v>
+      </c>
+      <c r="R82" s="24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S82" s="24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="T82" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U82" s="45"/>
+      <c r="V82" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W82" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X82" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y82" s="24">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z82" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA82" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB82" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD82" s="14"/>
+      <c r="AE82" s="14"/>
+      <c r="AF82" s="15"/>
+      <c r="AG82" s="16"/>
+      <c r="AH82" s="14"/>
+      <c r="AI82" s="14"/>
+      <c r="AJ82" s="14"/>
+      <c r="AK82" s="14"/>
+      <c r="AL82" s="14"/>
+      <c r="AM82" s="14"/>
+      <c r="AN82" s="14"/>
+    </row>
+    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="12">
+        <v>23</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="6">
+        <v>2</v>
+      </c>
+      <c r="G83" s="7">
+        <v>3</v>
+      </c>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="24">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="R83" s="24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S83" s="24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="T83" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W83" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X83" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y83" s="24">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z83" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA83" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB83" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD83" s="12"/>
+      <c r="AE83" s="12"/>
+      <c r="AF83" s="17"/>
+      <c r="AG83" s="13"/>
+      <c r="AH83" s="12"/>
+      <c r="AI83" s="12"/>
+      <c r="AJ83" s="12"/>
+      <c r="AK83" s="12"/>
+      <c r="AL83" s="12"/>
+      <c r="AM83" s="12"/>
+      <c r="AN83" s="12"/>
+    </row>
+    <row r="84" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>24</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="J84" s="27"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="28"/>
+      <c r="P84" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="24">
+        <f>W-1</f>
+        <v>3</v>
+      </c>
+      <c r="R84" s="24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S84" s="24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="T84" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U84" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V84" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="W84" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X84" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y84" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Z84" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA84" s="24">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AB84" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AF84" s="10"/>
+      <c r="AG84" s="11"/>
+    </row>
+    <row r="85" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>25</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="6">
+        <v>2</v>
+      </c>
+      <c r="G85" s="7">
+        <v>3</v>
+      </c>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="11"/>
+      <c r="P85" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="41">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="R85" s="24">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S85" s="24">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="T85" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U85" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="V85" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W85" s="24">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="X85" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y85" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Z85" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA85" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB85" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AF85" s="27"/>
+      <c r="AG85" s="28"/>
+    </row>
+    <row r="86" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>26</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="10"/>
+      <c r="P86" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="41">
+        <f>W-1</f>
+        <v>3</v>
+      </c>
+      <c r="R86" s="24">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S86" s="24">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="T86" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W86" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X86" s="24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y86" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Z86" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA86" s="24">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AB86" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AG86" s="10"/>
+    </row>
+    <row r="87" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>27</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="6">
+        <v>2</v>
+      </c>
+      <c r="G87" s="7">
+        <v>3</v>
+      </c>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="11"/>
+      <c r="P87" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="41">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="R87" s="24">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="S87" s="24">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="T87" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V87" s="24">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="W87" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X87" s="24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y87" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Z87" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA87" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB87" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AG87" s="29"/>
+      <c r="AH87" s="30"/>
+    </row>
+    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>28</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88">
+        <v>3</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="35"/>
+      <c r="P88" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q88" s="24">
+        <f>W-1</f>
+        <v>3</v>
+      </c>
+      <c r="R88" s="24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S88" s="24">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="T88" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U88" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="V88" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="W88" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X88" s="24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y88" s="24">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Z88" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA88" s="24">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AB88" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AG88" s="31"/>
+      <c r="AH88" s="32"/>
+    </row>
+    <row r="89" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="12">
+        <v>29</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="6">
+        <v>2</v>
+      </c>
+      <c r="G89" s="7">
+        <v>3</v>
+      </c>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q89" s="24">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="R89" s="24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S89" s="24">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="T89" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U89" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="V89" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W89" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X89" s="24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="Y89" s="24">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z89" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA89" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB89" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD89" s="12"/>
+      <c r="AE89" s="12"/>
+      <c r="AF89" s="12"/>
+      <c r="AG89" s="13"/>
+      <c r="AH89" s="17"/>
+      <c r="AI89" s="12"/>
+      <c r="AJ89" s="12"/>
+      <c r="AK89" s="12"/>
+      <c r="AL89" s="12"/>
+      <c r="AM89" s="12"/>
+      <c r="AN89" s="12"/>
+    </row>
+    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A90" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="14">
+        <v>30</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14">
+        <v>2</v>
+      </c>
+      <c r="G90" s="14">
+        <v>4</v>
+      </c>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="16"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="16"/>
+      <c r="O90" s="16"/>
+      <c r="P90" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q90" s="46">
+        <v>2</v>
+      </c>
+      <c r="R90" s="24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S90" s="24">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="T90" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="45"/>
+      <c r="V90" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W90" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X90" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y90" s="24">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Z90" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA90" s="24">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB90" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD90" s="14"/>
+      <c r="AE90" s="14"/>
+      <c r="AF90" s="14"/>
+      <c r="AG90" s="16"/>
+      <c r="AH90" s="15"/>
+      <c r="AI90" s="14"/>
+      <c r="AJ90" s="14"/>
+      <c r="AK90" s="14"/>
+      <c r="AL90" s="14"/>
+      <c r="AM90" s="14"/>
+      <c r="AN90" s="14"/>
+    </row>
+    <row r="91" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="14">
+        <v>31</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14">
+        <v>1</v>
+      </c>
+      <c r="G91" s="14">
+        <v>3</v>
+      </c>
+      <c r="H91" s="14"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q91" s="47">
+        <v>1</v>
+      </c>
+      <c r="R91" s="24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S91" s="24">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="T91" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U91" s="45"/>
+      <c r="V91" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W91" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X91" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y91" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Z91" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA91" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB91" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD91" s="14"/>
+      <c r="AE91" s="14"/>
+      <c r="AF91" s="14"/>
+      <c r="AG91" s="15"/>
+      <c r="AH91" s="16"/>
+      <c r="AI91" s="14"/>
+      <c r="AJ91" s="14"/>
+      <c r="AK91" s="14"/>
+      <c r="AL91" s="14"/>
+      <c r="AM91" s="14"/>
+      <c r="AN91" s="14"/>
+    </row>
+    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A92" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="12">
+        <v>32</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12">
+        <v>1</v>
+      </c>
+      <c r="G92" s="12">
+        <v>4</v>
+      </c>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q92" s="24">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="R92" s="24">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="S92" s="24">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="T92" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="24">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="W92" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X92" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y92" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Z92" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA92" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB92" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD92" s="12"/>
+      <c r="AE92" s="12"/>
+      <c r="AF92" s="12"/>
+      <c r="AG92" s="23"/>
+      <c r="AH92" s="21"/>
+      <c r="AI92" s="12"/>
+      <c r="AJ92" s="12"/>
+      <c r="AK92" s="12"/>
+      <c r="AL92" s="12"/>
+      <c r="AM92" s="12"/>
+      <c r="AN92" s="12"/>
+    </row>
+    <row r="93" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>33</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" s="4">
+        <v>0</v>
+      </c>
+      <c r="G93" s="4">
+        <v>3</v>
+      </c>
+      <c r="J93" s="28"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="27"/>
+      <c r="M93" s="27"/>
+      <c r="P93" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q93" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R93" s="24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="S93" s="24">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="T93" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U93" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V93" s="24">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="W93" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X93" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y93" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z93" s="24">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA93" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB93" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AG93" s="21"/>
+      <c r="AH93" s="23"/>
+    </row>
+    <row r="94" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>34</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0</v>
+      </c>
+      <c r="G94" s="4">
+        <v>4</v>
+      </c>
+      <c r="J94" s="10"/>
+      <c r="Q94" s="44">
+        <f>Q93</f>
+        <v>0</v>
+      </c>
+      <c r="R94" s="24">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="T94" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="U94" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="24">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="W94" s="24">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="X94" s="24">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="Y94" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="24">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AA94" s="24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB94" s="24" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AG94" s="33"/>
+      <c r="AH94" s="34"/>
+    </row>
+    <row r="96" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="N97" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="O97" s="11"/>
+      <c r="P97" s="52"/>
+      <c r="AJ97" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J98" s="19">
+        <v>0</v>
+      </c>
+      <c r="K98" s="19">
+        <v>1</v>
+      </c>
+      <c r="L98" s="19">
+        <v>2</v>
+      </c>
+      <c r="M98" s="19">
+        <v>3</v>
+      </c>
+      <c r="N98" s="20">
+        <v>4</v>
+      </c>
+      <c r="O98" s="40"/>
+      <c r="P98" s="53"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39"/>
+      <c r="S98" s="39"/>
+      <c r="T98" s="39"/>
+      <c r="U98" s="39"/>
+      <c r="V98" s="39"/>
+      <c r="W98" s="39"/>
+      <c r="X98" s="39"/>
+      <c r="Y98" s="39"/>
+      <c r="Z98" s="39"/>
+      <c r="AA98" s="39"/>
+      <c r="AB98" s="39"/>
+      <c r="AC98" s="39"/>
+      <c r="AD98" s="19">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="19">
+        <v>1</v>
+      </c>
+      <c r="AF98" s="19">
+        <v>2</v>
+      </c>
+      <c r="AG98" s="19">
+        <v>3</v>
+      </c>
+      <c r="AH98" s="19">
+        <v>4</v>
+      </c>
+      <c r="AI98" s="19">
+        <v>5</v>
+      </c>
+      <c r="AJ98" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="4">
+        <v>0</v>
+      </c>
+      <c r="G99" s="4">
+        <v>0</v>
+      </c>
+      <c r="J99" s="10"/>
+      <c r="Q99" s="22">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD99" s="25"/>
+      <c r="AE99" s="26"/>
+    </row>
+    <row r="100" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0</v>
+      </c>
+      <c r="G100" s="4">
+        <v>1</v>
+      </c>
+      <c r="J100" s="10"/>
+      <c r="P100" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AD100" s="23"/>
+      <c r="AE100" s="21"/>
+    </row>
+    <row r="101" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="12">
+        <v>2</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12">
+        <v>1</v>
+      </c>
+      <c r="G101" s="12">
+        <v>0</v>
+      </c>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="24">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AD101" s="21"/>
+      <c r="AE101" s="23"/>
+      <c r="AF101" s="12"/>
+      <c r="AG101" s="12"/>
+      <c r="AH101" s="12"/>
+      <c r="AI101" s="12"/>
+      <c r="AJ101" s="12"/>
+      <c r="AK101" s="12"/>
+      <c r="AL101" s="12"/>
+      <c r="AM101" s="12"/>
+      <c r="AN101" s="12"/>
+    </row>
+    <row r="102" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A102" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="14">
+        <v>3</v>
+      </c>
+      <c r="D102" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14">
+        <v>1</v>
+      </c>
+      <c r="G102" s="14">
+        <v>1</v>
+      </c>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="14"/>
+      <c r="K102" s="15"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="46">
+        <v>1</v>
+      </c>
+      <c r="R102" s="45"/>
+      <c r="S102" s="45"/>
+      <c r="T102" s="45"/>
+      <c r="U102" s="45"/>
+      <c r="V102" s="45"/>
+      <c r="W102" s="31"/>
+      <c r="X102" s="31"/>
+      <c r="Y102" s="31"/>
+      <c r="Z102" s="31"/>
+      <c r="AA102" s="31"/>
+      <c r="AB102" s="31"/>
+      <c r="AC102" s="31"/>
+      <c r="AD102" s="16"/>
+      <c r="AE102" s="15"/>
+      <c r="AF102" s="16"/>
+      <c r="AG102" s="16"/>
+      <c r="AH102" s="14"/>
+      <c r="AI102" s="14"/>
+      <c r="AJ102" s="14"/>
+      <c r="AK102" s="14"/>
+      <c r="AL102" s="14"/>
+      <c r="AM102" s="14"/>
+      <c r="AN102" s="14"/>
+    </row>
+    <row r="103" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="14">
+        <v>4</v>
+      </c>
+      <c r="D103" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14">
+        <v>2</v>
+      </c>
+      <c r="G103" s="14">
+        <v>0</v>
+      </c>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="14"/>
+      <c r="K103" s="16"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="47">
+        <v>2</v>
+      </c>
+      <c r="R103" s="45"/>
+      <c r="S103" s="45"/>
+      <c r="T103" s="45"/>
+      <c r="U103" s="45"/>
+      <c r="V103" s="45"/>
+      <c r="W103" s="31"/>
+      <c r="X103" s="31"/>
+      <c r="Y103" s="31"/>
+      <c r="Z103" s="31"/>
+      <c r="AA103" s="31"/>
+      <c r="AB103" s="31"/>
+      <c r="AC103" s="31"/>
+      <c r="AD103" s="15"/>
+      <c r="AE103" s="16"/>
+      <c r="AF103" s="14"/>
+      <c r="AG103" s="14"/>
+      <c r="AH103" s="14"/>
+      <c r="AI103" s="14"/>
+      <c r="AJ103" s="14"/>
+      <c r="AK103" s="14"/>
+      <c r="AL103" s="14"/>
+      <c r="AM103" s="14"/>
+      <c r="AN103" s="14"/>
+    </row>
+    <row r="104" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A104" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="12">
+        <v>5</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="12"/>
+      <c r="F104" s="6">
+        <v>2</v>
+      </c>
+      <c r="G104" s="7">
+        <v>1</v>
+      </c>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="24">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="AD104" s="17"/>
+      <c r="AE104" s="13"/>
+      <c r="AF104" s="12"/>
+      <c r="AG104" s="12"/>
+      <c r="AH104" s="12"/>
+      <c r="AI104" s="12"/>
+      <c r="AJ104" s="12"/>
+      <c r="AK104" s="12"/>
+      <c r="AL104" s="12"/>
+      <c r="AM104" s="12"/>
+      <c r="AN104" s="12"/>
+    </row>
+    <row r="105" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c r="P105" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="24">
+        <f>W-1</f>
+        <v>3</v>
+      </c>
+      <c r="AD105" s="10"/>
+      <c r="AE105" s="11"/>
+    </row>
+    <row r="106" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" s="6">
+        <v>2</v>
+      </c>
+      <c r="G106" s="7">
+        <v>1</v>
+      </c>
+      <c r="L106" s="10"/>
+      <c r="P106" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="41">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="AD106" s="27"/>
+      <c r="AE106" s="28"/>
+    </row>
+    <row r="107" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="F107">
+        <v>3</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c r="P107" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="41">
+        <f>W-1</f>
+        <v>3</v>
+      </c>
+      <c r="AD107" s="11"/>
+      <c r="AE107" s="10"/>
+    </row>
+    <row r="108" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>9</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="6">
+        <v>2</v>
+      </c>
+      <c r="G108" s="7">
+        <v>1</v>
+      </c>
+      <c r="L108" s="10"/>
+      <c r="P108" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="41">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="AE108" s="29"/>
+      <c r="AF108" s="30"/>
+    </row>
+    <row r="109" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109">
+        <v>3</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c r="P109" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q109" s="24">
+        <f>W-1</f>
+        <v>3</v>
+      </c>
+      <c r="AE109" s="31"/>
+      <c r="AF109" s="32"/>
+    </row>
+    <row r="110" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="12">
+        <v>11</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="12"/>
+      <c r="F110" s="6">
+        <v>2</v>
+      </c>
+      <c r="G110" s="7">
+        <v>1</v>
+      </c>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q110" s="24">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="AD110" s="12"/>
+      <c r="AE110" s="13"/>
+      <c r="AF110" s="17"/>
+      <c r="AG110" s="12"/>
+      <c r="AH110" s="12"/>
+      <c r="AI110" s="12"/>
+      <c r="AJ110" s="12"/>
+      <c r="AK110" s="12"/>
+      <c r="AL110" s="12"/>
+      <c r="AM110" s="12"/>
+      <c r="AN110" s="12"/>
+    </row>
+    <row r="111" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A111" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="14">
+        <v>12</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14">
+        <v>2</v>
+      </c>
+      <c r="G111" s="14">
+        <v>2</v>
+      </c>
+      <c r="H111" s="14"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q111" s="46">
+        <v>2</v>
+      </c>
+      <c r="R111" s="45"/>
+      <c r="S111" s="45"/>
+      <c r="T111" s="45"/>
+      <c r="U111" s="45"/>
+      <c r="V111" s="45"/>
+      <c r="W111" s="31"/>
+      <c r="X111" s="31"/>
+      <c r="Y111" s="31"/>
+      <c r="Z111" s="31"/>
+      <c r="AA111" s="31"/>
+      <c r="AB111" s="31"/>
+      <c r="AC111" s="31"/>
+      <c r="AD111" s="14"/>
+      <c r="AE111" s="16"/>
+      <c r="AF111" s="15"/>
+      <c r="AG111" s="14"/>
+      <c r="AH111" s="14"/>
+      <c r="AI111" s="14"/>
+      <c r="AJ111" s="14"/>
+      <c r="AK111" s="14"/>
+      <c r="AL111" s="14"/>
+      <c r="AM111" s="14"/>
+      <c r="AN111" s="14"/>
+    </row>
+    <row r="112" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="14">
+        <v>13</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14">
+        <v>1</v>
+      </c>
+      <c r="G112" s="14">
+        <v>1</v>
+      </c>
+      <c r="H112" s="14"/>
+      <c r="I112" s="14"/>
+      <c r="J112" s="14"/>
+      <c r="K112" s="15"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="14"/>
+      <c r="N112" s="14"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q112" s="47">
+        <v>1</v>
+      </c>
+      <c r="R112" s="45"/>
+      <c r="S112" s="45"/>
+      <c r="T112" s="45"/>
+      <c r="U112" s="45"/>
+      <c r="V112" s="45"/>
+      <c r="W112" s="31"/>
+      <c r="X112" s="31"/>
+      <c r="Y112" s="31"/>
+      <c r="Z112" s="31"/>
+      <c r="AA112" s="31"/>
+      <c r="AB112" s="31"/>
+      <c r="AC112" s="31"/>
+      <c r="AD112" s="14"/>
+      <c r="AE112" s="15"/>
+      <c r="AF112" s="16"/>
+      <c r="AG112" s="14"/>
+      <c r="AH112" s="14"/>
+      <c r="AI112" s="14"/>
+      <c r="AJ112" s="14"/>
+      <c r="AK112" s="14"/>
+      <c r="AL112" s="14"/>
+      <c r="AM112" s="14"/>
+      <c r="AN112" s="14"/>
+    </row>
+    <row r="113" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="12">
+        <v>14</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" s="12"/>
+      <c r="F113" s="8">
+        <v>1</v>
+      </c>
+      <c r="G113" s="9">
+        <v>2</v>
+      </c>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q113" s="24">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AD113" s="12"/>
+      <c r="AE113" s="17"/>
+      <c r="AF113" s="13"/>
+      <c r="AG113" s="12"/>
+      <c r="AH113" s="12"/>
+      <c r="AI113" s="12"/>
+      <c r="AJ113" s="12"/>
+      <c r="AK113" s="12"/>
+      <c r="AL113" s="12"/>
+      <c r="AM113" s="12"/>
+      <c r="AN113" s="12"/>
+    </row>
+    <row r="114" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="J114" s="10"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="P114" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q114" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AE114" s="10"/>
+      <c r="AF114" s="11"/>
+      <c r="AG114" s="11"/>
+    </row>
+    <row r="115" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="F115" s="8">
+        <v>1</v>
+      </c>
+      <c r="G115" s="9">
+        <v>2</v>
+      </c>
+      <c r="K115" s="10"/>
+      <c r="P115" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q115" s="42">
+        <v>1</v>
+      </c>
+      <c r="AE115" s="27"/>
+      <c r="AF115" s="28"/>
+    </row>
+    <row r="116" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116">
+        <v>17</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+      <c r="J116" s="10"/>
+      <c r="P116" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q116" s="42">
+        <v>0</v>
+      </c>
+      <c r="AF116" s="10"/>
+    </row>
+    <row r="117" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117">
+        <v>18</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="F117" s="8">
+        <v>1</v>
+      </c>
+      <c r="G117" s="9">
+        <v>2</v>
+      </c>
+      <c r="K117" s="10"/>
+      <c r="P117" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q117" s="42">
+        <v>1</v>
+      </c>
+      <c r="AF117" s="29"/>
+      <c r="AG117" s="30"/>
+    </row>
+    <row r="118" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>19</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+      <c r="J118" s="10"/>
+      <c r="P118" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AF118" s="31"/>
+      <c r="AG118" s="32"/>
+    </row>
+    <row r="119" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="12">
+        <v>20</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" s="12"/>
+      <c r="F119" s="8">
+        <v>1</v>
+      </c>
+      <c r="G119" s="9">
+        <v>2</v>
+      </c>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="24">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AD119" s="12"/>
+      <c r="AE119" s="12"/>
+      <c r="AF119" s="13"/>
+      <c r="AG119" s="17"/>
+      <c r="AH119" s="12"/>
+      <c r="AI119" s="12"/>
+      <c r="AJ119" s="12"/>
+      <c r="AK119" s="12"/>
+      <c r="AL119" s="12"/>
+      <c r="AM119" s="12"/>
+      <c r="AN119" s="12"/>
+    </row>
+    <row r="120" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A120" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="14">
+        <v>21</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14">
+        <v>1</v>
+      </c>
+      <c r="G120" s="14">
+        <v>3</v>
+      </c>
+      <c r="H120" s="14"/>
+      <c r="I120" s="14"/>
+      <c r="J120" s="14"/>
+      <c r="K120" s="15"/>
+      <c r="L120" s="14"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="14"/>
+      <c r="P120" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="46">
+        <v>1</v>
+      </c>
+      <c r="R120" s="45"/>
+      <c r="S120" s="45"/>
+      <c r="T120" s="45"/>
+      <c r="U120" s="45"/>
+      <c r="V120" s="45"/>
+      <c r="W120" s="31"/>
+      <c r="X120" s="31"/>
+      <c r="Y120" s="31"/>
+      <c r="Z120" s="31"/>
+      <c r="AA120" s="31"/>
+      <c r="AB120" s="31"/>
+      <c r="AC120" s="31"/>
+      <c r="AD120" s="14"/>
+      <c r="AE120" s="14"/>
+      <c r="AF120" s="16"/>
+      <c r="AG120" s="15"/>
+      <c r="AH120" s="14"/>
+      <c r="AI120" s="14"/>
+      <c r="AJ120" s="14"/>
+      <c r="AK120" s="14"/>
+      <c r="AL120" s="14"/>
+      <c r="AM120" s="14"/>
+      <c r="AN120" s="14"/>
+    </row>
+    <row r="121" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="14">
+        <v>22</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14">
+        <v>2</v>
+      </c>
+      <c r="G121" s="14">
+        <v>2</v>
+      </c>
+      <c r="H121" s="14"/>
+      <c r="I121" s="14"/>
+      <c r="J121" s="14"/>
+      <c r="K121" s="14"/>
+      <c r="L121" s="15"/>
+      <c r="M121" s="14"/>
+      <c r="N121" s="14"/>
+      <c r="O121" s="14"/>
+      <c r="P121" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="47">
+        <v>2</v>
+      </c>
+      <c r="R121" s="45"/>
+      <c r="S121" s="45"/>
+      <c r="T121" s="45"/>
+      <c r="U121" s="45"/>
+      <c r="V121" s="45"/>
+      <c r="W121" s="31"/>
+      <c r="X121" s="31"/>
+      <c r="Y121" s="31"/>
+      <c r="Z121" s="31"/>
+      <c r="AA121" s="31"/>
+      <c r="AB121" s="31"/>
+      <c r="AC121" s="31"/>
+      <c r="AD121" s="14"/>
+      <c r="AE121" s="14"/>
+      <c r="AF121" s="15"/>
+      <c r="AG121" s="16"/>
+      <c r="AH121" s="14"/>
+      <c r="AI121" s="14"/>
+      <c r="AJ121" s="14"/>
+      <c r="AK121" s="14"/>
+      <c r="AL121" s="14"/>
+      <c r="AM121" s="14"/>
+      <c r="AN121" s="14"/>
+    </row>
+    <row r="122" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A122" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="12">
+        <v>23</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="12"/>
+      <c r="F122" s="6">
+        <v>2</v>
+      </c>
+      <c r="G122" s="7">
+        <v>3</v>
+      </c>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="13"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="24">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="AD122" s="12"/>
+      <c r="AE122" s="12"/>
+      <c r="AF122" s="17"/>
+      <c r="AG122" s="13"/>
+      <c r="AH122" s="12"/>
+      <c r="AI122" s="12"/>
+      <c r="AJ122" s="12"/>
+      <c r="AK122" s="12"/>
+      <c r="AL122" s="12"/>
+      <c r="AM122" s="12"/>
+      <c r="AN122" s="12"/>
+    </row>
+    <row r="123" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123">
+        <v>24</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>2</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c r="P123" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="24">
+        <f>W-1</f>
+        <v>3</v>
+      </c>
+      <c r="AF123" s="10"/>
+      <c r="AG123" s="11"/>
+    </row>
+    <row r="124" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124">
+        <v>25</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="6">
+        <v>2</v>
+      </c>
+      <c r="G124" s="7">
+        <v>3</v>
+      </c>
+      <c r="L124" s="10"/>
+      <c r="P124" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="41">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="AF124" s="27"/>
+      <c r="AG124" s="28"/>
+    </row>
+    <row r="125" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>26</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+      <c r="M125" s="10"/>
+      <c r="P125" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="41">
+        <f>W-1</f>
+        <v>3</v>
+      </c>
+      <c r="AG125" s="10"/>
+    </row>
+    <row r="126" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126">
+        <v>27</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="6">
+        <v>2</v>
+      </c>
+      <c r="G126" s="7">
+        <v>3</v>
+      </c>
+      <c r="L126" s="10"/>
+      <c r="P126" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="41">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="AG126" s="29"/>
+      <c r="AH126" s="30"/>
+    </row>
+    <row r="127" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="F127">
+        <v>3</v>
+      </c>
+      <c r="G127">
+        <v>4</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c r="P127" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q127" s="24">
+        <f>W-1</f>
+        <v>3</v>
+      </c>
+      <c r="AG127" s="31"/>
+      <c r="AH127" s="32"/>
+    </row>
+    <row r="128" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="12">
+        <v>29</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="12"/>
+      <c r="F128" s="6">
+        <v>2</v>
+      </c>
+      <c r="G128" s="7">
+        <v>3</v>
+      </c>
+      <c r="H128" s="12"/>
+      <c r="I128" s="12"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="12"/>
+      <c r="N128" s="12"/>
+      <c r="O128" s="12"/>
+      <c r="P128" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q128" s="24">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="AD128" s="12"/>
+      <c r="AE128" s="12"/>
+      <c r="AF128" s="12"/>
+      <c r="AG128" s="13"/>
+      <c r="AH128" s="17"/>
+      <c r="AI128" s="12"/>
+      <c r="AJ128" s="12"/>
+      <c r="AK128" s="12"/>
+      <c r="AL128" s="12"/>
+      <c r="AM128" s="12"/>
+      <c r="AN128" s="12"/>
+    </row>
+    <row r="129" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A129" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="14">
+        <v>30</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14">
+        <v>2</v>
+      </c>
+      <c r="G129" s="14">
+        <v>4</v>
+      </c>
+      <c r="H129" s="14"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="14"/>
+      <c r="K129" s="14"/>
+      <c r="L129" s="15"/>
+      <c r="M129" s="16"/>
+      <c r="N129" s="16"/>
+      <c r="O129" s="16"/>
+      <c r="P129" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q129" s="46">
+        <v>2</v>
+      </c>
+      <c r="R129" s="45"/>
+      <c r="S129" s="45"/>
+      <c r="T129" s="45"/>
+      <c r="U129" s="45"/>
+      <c r="V129" s="45"/>
+      <c r="W129" s="31"/>
+      <c r="X129" s="31"/>
+      <c r="Y129" s="31"/>
+      <c r="Z129" s="31"/>
+      <c r="AA129" s="31"/>
+      <c r="AB129" s="31"/>
+      <c r="AC129" s="31"/>
+      <c r="AD129" s="14"/>
+      <c r="AE129" s="14"/>
+      <c r="AF129" s="14"/>
+      <c r="AG129" s="16"/>
+      <c r="AH129" s="15"/>
+      <c r="AI129" s="14"/>
+      <c r="AJ129" s="14"/>
+      <c r="AK129" s="14"/>
+      <c r="AL129" s="14"/>
+      <c r="AM129" s="14"/>
+      <c r="AN129" s="14"/>
+    </row>
+    <row r="130" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="14">
+        <v>31</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14">
+        <v>1</v>
+      </c>
+      <c r="G130" s="14">
+        <v>3</v>
+      </c>
+      <c r="H130" s="14"/>
+      <c r="I130" s="14"/>
+      <c r="J130" s="14"/>
+      <c r="K130" s="15"/>
+      <c r="L130" s="14"/>
+      <c r="M130" s="14"/>
+      <c r="N130" s="14"/>
+      <c r="O130" s="14"/>
+      <c r="P130" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q130" s="47">
+        <v>1</v>
+      </c>
+      <c r="R130" s="45"/>
+      <c r="S130" s="45"/>
+      <c r="T130" s="45"/>
+      <c r="U130" s="45"/>
+      <c r="V130" s="45"/>
+      <c r="W130" s="31"/>
+      <c r="X130" s="31"/>
+      <c r="Y130" s="31"/>
+      <c r="Z130" s="31"/>
+      <c r="AA130" s="31"/>
+      <c r="AB130" s="31"/>
+      <c r="AC130" s="31"/>
+      <c r="AD130" s="14"/>
+      <c r="AE130" s="14"/>
+      <c r="AF130" s="14"/>
+      <c r="AG130" s="15"/>
+      <c r="AH130" s="16"/>
+      <c r="AI130" s="14"/>
+      <c r="AJ130" s="14"/>
+      <c r="AK130" s="14"/>
+      <c r="AL130" s="14"/>
+      <c r="AM130" s="14"/>
+      <c r="AN130" s="14"/>
+    </row>
+    <row r="131" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A131" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="12">
+        <v>32</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" s="12"/>
+      <c r="F131" s="8">
+        <v>1</v>
+      </c>
+      <c r="G131" s="9">
+        <v>4</v>
+      </c>
+      <c r="H131" s="12"/>
+      <c r="I131" s="12"/>
+      <c r="J131" s="12"/>
+      <c r="K131" s="13"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="12"/>
+      <c r="N131" s="12"/>
+      <c r="O131" s="12"/>
+      <c r="P131" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q131" s="24">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AD131" s="12"/>
+      <c r="AE131" s="12"/>
+      <c r="AF131" s="12"/>
+      <c r="AG131" s="17"/>
+      <c r="AH131" s="13"/>
+      <c r="AI131" s="12"/>
+      <c r="AJ131" s="12"/>
+      <c r="AK131" s="12"/>
+      <c r="AL131" s="12"/>
+      <c r="AM131" s="12"/>
+      <c r="AN131" s="12"/>
+    </row>
+    <row r="132" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132">
+        <v>33</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
+      <c r="J132" s="10"/>
+      <c r="K132" s="11"/>
+      <c r="L132" s="11"/>
+      <c r="P132" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q132" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AG132" s="10"/>
+      <c r="AH132" s="11"/>
+    </row>
+    <row r="133" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133">
+        <v>34</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="F133" s="8">
+        <v>1</v>
+      </c>
+      <c r="G133" s="9">
+        <v>1</v>
+      </c>
+      <c r="K133" s="10"/>
+      <c r="P133" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q133" s="42">
+        <v>1</v>
+      </c>
+      <c r="AG133" s="27"/>
+      <c r="AH133" s="28"/>
+    </row>
+    <row r="134" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134">
+        <v>35</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>2</v>
+      </c>
+      <c r="J134" s="10"/>
+      <c r="P134" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q134" s="42">
+        <v>0</v>
+      </c>
+      <c r="AH134" s="10"/>
+    </row>
+    <row r="135" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135">
+        <v>36</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135" s="8">
+        <v>1</v>
+      </c>
+      <c r="G135" s="9">
+        <v>2</v>
+      </c>
+      <c r="K135" s="10"/>
+      <c r="P135" s="51">
+        <v>-1</v>
+      </c>
+      <c r="Q135" s="42">
+        <v>1</v>
+      </c>
+      <c r="AH135" s="29"/>
+      <c r="AI135" s="30"/>
+    </row>
+    <row r="136" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136">
+        <v>37</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>2</v>
+      </c>
+      <c r="J136" s="10"/>
+      <c r="P136" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="24">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="AH136" s="31"/>
+      <c r="AI136" s="32"/>
+    </row>
+    <row r="137" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="12">
+        <v>38</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="12"/>
+      <c r="F137" s="8">
+        <v>1</v>
+      </c>
+      <c r="G137" s="9">
+        <v>3</v>
+      </c>
+      <c r="H137" s="12"/>
+      <c r="I137" s="12"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="13"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
+      <c r="O137" s="12"/>
+      <c r="P137" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="24">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="AD137" s="12"/>
+      <c r="AE137" s="12"/>
+      <c r="AF137" s="12"/>
+      <c r="AG137" s="12"/>
+      <c r="AH137" s="13"/>
+      <c r="AI137" s="17"/>
+      <c r="AJ137" s="12"/>
+      <c r="AK137" s="12"/>
+      <c r="AL137" s="12"/>
+      <c r="AM137" s="12"/>
+      <c r="AN137" s="12"/>
+    </row>
+    <row r="138" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A138" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="14">
+        <v>39</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14">
+        <v>1</v>
+      </c>
+      <c r="G138" s="14">
+        <v>2</v>
+      </c>
+      <c r="H138" s="14"/>
+      <c r="I138" s="14"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="15"/>
+      <c r="L138" s="14"/>
+      <c r="M138" s="14"/>
+      <c r="N138" s="14"/>
+      <c r="O138" s="14"/>
+      <c r="P138" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="46">
+        <v>1</v>
+      </c>
+      <c r="R138" s="45"/>
+      <c r="S138" s="45"/>
+      <c r="T138" s="45"/>
+      <c r="U138" s="45"/>
+      <c r="V138" s="45"/>
+      <c r="W138" s="31"/>
+      <c r="X138" s="31"/>
+      <c r="Y138" s="31"/>
+      <c r="Z138" s="31"/>
+      <c r="AA138" s="31"/>
+      <c r="AB138" s="31"/>
+      <c r="AC138" s="31"/>
+      <c r="AD138" s="14"/>
+      <c r="AE138" s="14"/>
+      <c r="AF138" s="14"/>
+      <c r="AG138" s="14"/>
+      <c r="AH138" s="16"/>
+      <c r="AI138" s="15"/>
+      <c r="AJ138" s="14"/>
+      <c r="AK138" s="14"/>
+      <c r="AL138" s="14"/>
+      <c r="AM138" s="14"/>
+      <c r="AN138" s="14"/>
+    </row>
+    <row r="139" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="14">
+        <v>40</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14">
+        <v>2</v>
+      </c>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="15"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="47">
+        <v>2</v>
+      </c>
+      <c r="R139" s="45"/>
+      <c r="S139" s="45"/>
+      <c r="T139" s="45"/>
+      <c r="U139" s="45"/>
+      <c r="V139" s="45"/>
+      <c r="W139" s="31"/>
+      <c r="X139" s="31"/>
+      <c r="Y139" s="31"/>
+      <c r="Z139" s="31"/>
+      <c r="AA139" s="31"/>
+      <c r="AB139" s="31"/>
+      <c r="AC139" s="31"/>
+      <c r="AD139" s="14"/>
+      <c r="AE139" s="14"/>
+      <c r="AF139" s="14"/>
+      <c r="AG139" s="14"/>
+      <c r="AH139" s="15"/>
+      <c r="AI139" s="16"/>
+      <c r="AJ139" s="14"/>
+      <c r="AK139" s="14"/>
+      <c r="AL139" s="14"/>
+      <c r="AM139" s="14"/>
+      <c r="AN139" s="14"/>
+    </row>
+    <row r="140" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A140" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="12">
+        <v>41</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12">
+        <v>2</v>
+      </c>
+      <c r="G140" s="12"/>
+      <c r="H140" s="12"/>
+      <c r="I140" s="12"/>
+      <c r="J140" s="12"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="13"/>
+      <c r="M140" s="12"/>
+      <c r="N140" s="12"/>
+      <c r="O140" s="12"/>
+      <c r="P140" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="24">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="AD140" s="12"/>
+      <c r="AE140" s="12"/>
+      <c r="AF140" s="12"/>
+      <c r="AG140" s="12"/>
+      <c r="AH140" s="23"/>
+      <c r="AI140" s="21"/>
+      <c r="AJ140" s="12"/>
+      <c r="AK140" s="12"/>
+      <c r="AL140" s="12"/>
+      <c r="AM140" s="12"/>
+      <c r="AN140" s="12"/>
+    </row>
+    <row r="141" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A141" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="24">
+        <v>42</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" s="24"/>
+      <c r="F141" s="4">
+        <v>3</v>
+      </c>
+      <c r="G141" s="4">
+        <v>3</v>
+      </c>
+      <c r="M141" s="10"/>
+      <c r="P141" s="51">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="24">
+        <f>W-1</f>
+        <v>3</v>
+      </c>
+      <c r="AH141" s="21"/>
+      <c r="AI141" s="23"/>
+    </row>
+    <row r="142" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="24">
+        <v>43</v>
+      </c>
+      <c r="D142" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="24"/>
+      <c r="F142" s="4">
+        <v>3</v>
+      </c>
+      <c r="G142" s="4">
+        <v>4</v>
+      </c>
+      <c r="M142" s="10"/>
+      <c r="Q142" s="44">
+        <f>Q141</f>
+        <v>3</v>
+      </c>
+      <c r="AH142" s="33"/>
+      <c r="AI142" s="34"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/GL_LINE_STRIP.xlsx
+++ b/GL_LINE_STRIP.xlsx
@@ -13,9 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="H">Лист1!$B$5</definedName>
+    <definedName name="loop_length">Лист1!$T$52</definedName>
+    <definedName name="loop2_length">Лист1!$AK$52</definedName>
     <definedName name="W">Лист1!$B$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="40">
   <si>
     <t>left turn</t>
   </si>
@@ -90,9 +93,6 @@
     <t>blockend</t>
   </si>
   <si>
-    <t>next step</t>
-  </si>
-  <si>
     <t>mode</t>
   </si>
   <si>
@@ -117,25 +117,40 @@
     <t>step_length</t>
   </si>
   <si>
-    <t>special mode id</t>
-  </si>
-  <si>
-    <t>change_mode?</t>
-  </si>
-  <si>
     <t>next_big_length</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>dX tone</t>
+    <t>check</t>
   </si>
   <si>
-    <t>X+dX</t>
+    <t>next_step</t>
   </si>
   <si>
-    <t>check</t>
+    <t>change_mode</t>
+  </si>
+  <si>
+    <t>mode_id</t>
+  </si>
+  <si>
+    <t>special_mode_id</t>
+  </si>
+  <si>
+    <t>dXtone</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>splitter</t>
+  </si>
+  <si>
+    <t>mode2_id</t>
   </si>
 </sst>
 </file>
@@ -528,7 +543,38 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -8214,10 +8260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP142"/>
+  <dimension ref="A1:AR142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V62" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X50" sqref="X50"/>
+    <sheetView tabSelected="1" topLeftCell="Q41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK52" sqref="AK52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8283,47 +8329,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="Q37" s="24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B38" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q39" s="58" t="s">
         <v>26</v>
       </c>
+      <c r="R39" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="S39" s="59" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="38" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B38" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q38" s="24" t="s">
-        <v>21</v>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="Q40" s="56">
+        <v>0</v>
+      </c>
+      <c r="R40" s="54">
+        <v>1</v>
+      </c>
+      <c r="S40" s="54">
+        <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q39" s="58" t="s">
-        <v>27</v>
-      </c>
-      <c r="R39" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="S39" s="59" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="Q40" s="56">
-        <v>0</v>
-      </c>
-      <c r="R40" s="54">
-        <v>1</v>
-      </c>
-      <c r="S40" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
       <c r="Q41" s="56">
         <v>1</v>
       </c>
@@ -8335,7 +8381,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="Q42" s="56">
         <v>2</v>
       </c>
@@ -8346,7 +8392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="Q43" s="56">
         <v>3</v>
       </c>
@@ -8357,7 +8403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="Q44" s="56">
         <v>4</v>
       </c>
@@ -8368,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -8386,7 +8432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="Q46" s="56">
         <v>6</v>
       </c>
@@ -8396,8 +8442,12 @@
       <c r="S46" s="54">
         <v>1</v>
       </c>
+      <c r="W46" s="24">
+        <f>(170-158)/158</f>
+        <v>7.5949367088607597E-2</v>
+      </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="Q47" s="57">
         <v>7</v>
       </c>
@@ -8408,9 +8458,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:44" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>0</v>
+      </c>
+      <c r="T52" s="24">
+        <f>(W-2)*2</f>
+        <v>4</v>
       </c>
       <c r="AE52" t="s">
         <v>6</v>
@@ -8418,13 +8472,18 @@
       <c r="AF52" t="s">
         <v>8</v>
       </c>
+      <c r="AK52">
+        <f>loop_length+4</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
+      <c r="Y54" s="60"/>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -8432,6 +8491,7 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
+      <c r="Y55" s="60"/>
       <c r="AN55" t="s">
         <v>16</v>
       </c>
@@ -8440,7 +8500,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" ht="23.25" x14ac:dyDescent="0.25">
       <c r="E56" s="2">
         <v>0</v>
       </c>
@@ -8456,10 +8516,11 @@
       <c r="K56" s="2">
         <v>3</v>
       </c>
-      <c r="Y56" s="60"/>
+      <c r="Y56" s="24" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="57" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Y57" s="60"/>
+    <row r="57" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ57" s="11"/>
       <c r="AK57" s="11"/>
       <c r="AL57" s="11"/>
@@ -8467,7 +8528,7 @@
       <c r="AN57" s="11"/>
       <c r="AO57" s="11"/>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="N58" s="18" t="s">
         <v>14</v>
       </c>
@@ -8476,37 +8537,34 @@
         <v>7</v>
       </c>
       <c r="R58" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S58" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="T58" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="V58" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="W58" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="X58" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="S58" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="T58" s="24" t="s">
+      <c r="Y58" s="24">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA58" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB58" s="24" t="s">
         <v>30</v>
-      </c>
-      <c r="U58" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="V58" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="W58" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="X58" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y58" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z58" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA58" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB58" s="24" t="s">
-        <v>35</v>
       </c>
       <c r="AI58" s="18" t="s">
         <v>13</v>
@@ -8517,8 +8575,11 @@
       <c r="AM58" s="11"/>
       <c r="AN58" s="11"/>
       <c r="AO58" s="11"/>
+      <c r="AR58" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="59" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J59" s="19">
         <v>0</v>
       </c>
@@ -8535,7 +8596,9 @@
         <v>4</v>
       </c>
       <c r="O59" s="40"/>
-      <c r="P59" s="53"/>
+      <c r="P59" s="53">
+        <v>-1</v>
+      </c>
       <c r="Q59" s="39"/>
       <c r="R59" s="5">
         <v>1</v>
@@ -8552,9 +8615,12 @@
         <v>4</v>
       </c>
       <c r="X59" s="38">
-        <v>4</v>
-      </c>
-      <c r="Y59" s="39"/>
+        <f>loop_length</f>
+        <v>4</v>
+      </c>
+      <c r="Y59" s="39">
+        <v>0</v>
+      </c>
       <c r="Z59" s="39"/>
       <c r="AA59" s="39"/>
       <c r="AB59" s="39"/>
@@ -8584,7 +8650,7 @@
       <c r="AN59" s="11"/>
       <c r="AO59" s="11"/>
     </row>
-    <row r="60" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -8607,6 +8673,9 @@
         <v>0</v>
       </c>
       <c r="J60" s="21"/>
+      <c r="P60" s="51">
+        <v>-1</v>
+      </c>
       <c r="Q60" s="22">
         <f>0</f>
         <v>0</v>
@@ -8635,10 +8704,11 @@
         <v>4</v>
       </c>
       <c r="X60" s="24">
-        <f>IF(AND(R59=4,X59=4),3,IF(AND(R59=3,X59=3),4,X59))</f>
-        <v>4</v>
-      </c>
-      <c r="Y60" s="5">
+        <f>IF(AND(R59=loop_length,X59=loop_length),3,IF(AND(R59=3,X59=3),loop_length,X59))</f>
+        <v>4</v>
+      </c>
+      <c r="Y60" s="24">
+        <f>IF(V60=1,Y59,IF(V60=2,IF(Y59=Y58,Y59+P60,Y59),IF(V60=3,Y59+P60,Y59)))</f>
         <v>0</v>
       </c>
       <c r="Z60" s="24">
@@ -8663,8 +8733,11 @@
       <c r="AP60" t="s">
         <v>17</v>
       </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -8710,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="U61" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V61" s="24">
         <f t="shared" ref="V61:V94" si="1">IF(C61=0,0,IF(C61=$AO$55-1,6,IF(T61=1,IF(V60&lt;=2,V60+1,IF(V60=3,W61,1)),V60)))</f>
@@ -8721,7 +8794,7 @@
         <v>4</v>
       </c>
       <c r="X61" s="24">
-        <f t="shared" ref="X61:X94" si="3">IF(AND(R60=4,X60=4),3,IF(AND(R60=3,X60=3),4,X60))</f>
+        <f>IF(AND(R60=loop_length,X60=loop_length),3,IF(AND(R60=3,X60=3),loop_length,X60))</f>
         <v>4</v>
       </c>
       <c r="Y61" s="24">
@@ -8733,18 +8806,18 @@
         <v>0</v>
       </c>
       <c r="AA61" s="24">
-        <f t="shared" ref="AA61:AA94" si="4">IF(V61=4,Y61+Z61-1,IF(V61=5,Y61+Z61,Y61))</f>
+        <f t="shared" ref="AA61:AA94" si="3">IF(V61=4,Y61+Z61-1,IF(V61=5,Y61+Z61,Y61))</f>
         <v>0</v>
       </c>
       <c r="AB61" s="24" t="str">
-        <f t="shared" ref="AB61:AB94" si="5">IF(AA61=Q61,"OK","!!!")</f>
+        <f t="shared" ref="AB61:AB94" si="4">IF(AA61=Q61,"OK","!!!")</f>
         <v>OK</v>
       </c>
       <c r="AD61" s="23"/>
       <c r="AE61" s="21"/>
       <c r="AO61" s="50"/>
     </row>
-    <row r="62" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>9</v>
       </c>
@@ -8788,11 +8861,11 @@
         <v>6</v>
       </c>
       <c r="T62" s="24">
-        <f t="shared" ref="T62:T94" si="6">IF(S61=C62,1,0)</f>
+        <f t="shared" ref="T62:T94" si="5">IF(S61=C62,1,0)</f>
         <v>1</v>
       </c>
       <c r="U62" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V62" s="24">
         <f t="shared" si="1"/>
@@ -8803,23 +8876,23 @@
         <v>4</v>
       </c>
       <c r="X62" s="24">
+        <f>IF(AND(R61=loop_length,X61=loop_length),3,IF(AND(R61=3,X61=3),loop_length,X61))</f>
+        <v>4</v>
+      </c>
+      <c r="Y62" s="24">
+        <f t="shared" ref="Y62:Y94" si="6">IF(V62=1,Y61,IF(V62=2,IF(Y61=Y60,Y61+P62,Y61),IF(V62=3,Y61+P62,Y61)))</f>
+        <v>1</v>
+      </c>
+      <c r="Z62" s="24">
+        <f t="shared" ref="Z62:Z94" si="7">1*NOT(Z61)</f>
+        <v>1</v>
+      </c>
+      <c r="AA62" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y62" s="24">
-        <f t="shared" ref="Y62:Y95" si="7">IF(V62=1,Y61,IF(V62=2,IF(Y61=Y60,Y61+P62,Y61),IF(V62=3,Y61+P62,Y61)))</f>
-        <v>1</v>
-      </c>
-      <c r="Z62" s="24">
-        <f t="shared" ref="Z62:Z95" si="8">1*NOT(Z61)</f>
-        <v>1</v>
-      </c>
-      <c r="AA62" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB62" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB62" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD62" s="21"/>
@@ -8837,7 +8910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>9</v>
       </c>
@@ -8872,7 +8945,7 @@
         <v>1</v>
       </c>
       <c r="R63" s="24">
-        <f t="shared" ref="R63:R94" si="9">IF(OR(C63&lt;2,C63=$AO$55-1),1,IF(T63=1,IF(R62&gt;1,1,X63),R62))</f>
+        <f t="shared" ref="R63:R94" si="8">IF(OR(C63&lt;2,C63=$AO$55-1),1,IF(T63=1,IF(R62&gt;1,1,X63),R62))</f>
         <v>4</v>
       </c>
       <c r="S63" s="24">
@@ -8880,7 +8953,7 @@
         <v>6</v>
       </c>
       <c r="T63" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U63" s="45"/>
@@ -8893,23 +8966,23 @@
         <v>4</v>
       </c>
       <c r="X63" s="24">
+        <f>IF(AND(R62=loop_length,X62=loop_length),3,IF(AND(R62=3,X62=3),loop_length,X62))</f>
+        <v>3</v>
+      </c>
+      <c r="Y63" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z63" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y63" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Z63" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA63" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB63" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD63" s="16"/>
@@ -8928,7 +9001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="14" t="s">
         <v>9</v>
       </c>
@@ -8963,7 +9036,7 @@
         <v>2</v>
       </c>
       <c r="R64" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S64" s="24">
@@ -8971,7 +9044,7 @@
         <v>6</v>
       </c>
       <c r="T64" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U64" s="45"/>
@@ -8984,23 +9057,23 @@
         <v>4</v>
       </c>
       <c r="X64" s="24">
+        <f>IF(AND(R63=loop_length,X63=loop_length),3,IF(AND(R63=3,X63=3),loop_length,X63))</f>
+        <v>3</v>
+      </c>
+      <c r="Y64" s="24">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Z64" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA64" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y64" s="24">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Z64" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA64" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB64" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB64" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD64" s="15"/>
@@ -9054,7 +9127,7 @@
         <v>2</v>
       </c>
       <c r="R65" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S65" s="24">
@@ -9062,7 +9135,7 @@
         <v>6</v>
       </c>
       <c r="T65" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V65" s="24">
@@ -9074,23 +9147,23 @@
         <v>4</v>
       </c>
       <c r="X65" s="24">
+        <f>IF(AND(R64=loop_length,X64=loop_length),3,IF(AND(R64=3,X64=3),loop_length,X64))</f>
+        <v>3</v>
+      </c>
+      <c r="Y65" s="24">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Z65" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y65" s="24">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Z65" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA65" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB65" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB65" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD65" s="17"/>
@@ -9140,7 +9213,7 @@
         <v>3</v>
       </c>
       <c r="R66" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S66" s="24">
@@ -9148,11 +9221,11 @@
         <v>7</v>
       </c>
       <c r="T66" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U66" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V66" s="24">
         <f t="shared" si="1"/>
@@ -9163,23 +9236,23 @@
         <v>4</v>
       </c>
       <c r="X66" s="24">
+        <f>IF(AND(R65=loop_length,X65=loop_length),3,IF(AND(R65=3,X65=3),loop_length,X65))</f>
+        <v>3</v>
+      </c>
+      <c r="Y66" s="24">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Z66" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA66" s="24">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="Y66" s="24">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Z66" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA66" s="24">
+      <c r="AB66" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AB66" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD66" s="10"/>
@@ -9217,7 +9290,7 @@
         <v>2</v>
       </c>
       <c r="R67" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S67" s="24">
@@ -9225,7 +9298,7 @@
         <v>10</v>
       </c>
       <c r="T67" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U67" s="24" t="s">
@@ -9240,23 +9313,23 @@
         <v>4</v>
       </c>
       <c r="X67" s="24">
+        <f>IF(AND(R66=loop_length,X66=loop_length),3,IF(AND(R66=3,X66=3),loop_length,X66))</f>
+        <v>3</v>
+      </c>
+      <c r="Y67" s="24">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Z67" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y67" s="24">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Z67" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB67" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB67" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD67" s="27"/>
@@ -9296,7 +9369,7 @@
         <v>3</v>
       </c>
       <c r="R68" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S68" s="24">
@@ -9304,7 +9377,7 @@
         <v>10</v>
       </c>
       <c r="T68" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V68" s="24">
@@ -9316,29 +9389,32 @@
         <v>5</v>
       </c>
       <c r="X68" s="24">
+        <f>IF(AND(R67=loop_length,X67=loop_length),3,IF(AND(R67=3,X67=3),loop_length,X67))</f>
+        <v>4</v>
+      </c>
+      <c r="Y68" s="24">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Z68" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA68" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y68" s="24">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Z68" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA68" s="24">
+        <v>3</v>
+      </c>
+      <c r="AB68" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AB68" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD68" s="11"/>
       <c r="AE68" s="10"/>
+      <c r="AP68" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="69" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -9369,7 +9445,7 @@
         <v>2</v>
       </c>
       <c r="R69" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S69" s="24">
@@ -9377,7 +9453,7 @@
         <v>10</v>
       </c>
       <c r="T69" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V69" s="24">
@@ -9389,23 +9465,23 @@
         <v>5</v>
       </c>
       <c r="X69" s="24">
+        <f>IF(AND(R68=loop_length,X68=loop_length),3,IF(AND(R68=3,X68=3),loop_length,X68))</f>
+        <v>4</v>
+      </c>
+      <c r="Y69" s="24">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Z69" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA69" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y69" s="24">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Z69" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA69" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB69" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB69" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AE69" s="29"/>
@@ -9442,7 +9518,7 @@
         <v>3</v>
       </c>
       <c r="R70" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S70" s="24">
@@ -9450,11 +9526,11 @@
         <v>11</v>
       </c>
       <c r="T70" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U70" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V70" s="24">
         <f t="shared" si="1"/>
@@ -9465,23 +9541,23 @@
         <v>5</v>
       </c>
       <c r="X70" s="24">
+        <f>IF(AND(R69=loop_length,X69=loop_length),3,IF(AND(R69=3,X69=3),loop_length,X69))</f>
+        <v>4</v>
+      </c>
+      <c r="Y70" s="24">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Z70" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA70" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y70" s="24">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Z70" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA70" s="24">
+        <v>3</v>
+      </c>
+      <c r="AB70" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AB70" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AE70" s="31"/>
@@ -9523,7 +9599,7 @@
         <v>2</v>
       </c>
       <c r="R71" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S71" s="24">
@@ -9531,11 +9607,11 @@
         <v>15</v>
       </c>
       <c r="T71" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U71" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V71" s="24">
         <f t="shared" si="1"/>
@@ -9546,23 +9622,23 @@
         <v>5</v>
       </c>
       <c r="X71" s="24">
+        <f>IF(AND(R70=loop_length,X70=loop_length),3,IF(AND(R70=3,X70=3),loop_length,X70))</f>
+        <v>4</v>
+      </c>
+      <c r="Y71" s="24">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Z71" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y71" s="24">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Z71" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA71" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB71" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB71" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD71" s="12"/>
@@ -9612,7 +9688,7 @@
         <v>2</v>
       </c>
       <c r="R72" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S72" s="24">
@@ -9620,7 +9696,7 @@
         <v>15</v>
       </c>
       <c r="T72" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U72" s="45"/>
@@ -9633,23 +9709,23 @@
         <v>5</v>
       </c>
       <c r="X72" s="24">
+        <f>IF(AND(R71=loop_length,X71=loop_length),3,IF(AND(R71=3,X71=3),loop_length,X71))</f>
+        <v>3</v>
+      </c>
+      <c r="Y72" s="24">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Z72" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA72" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y72" s="24">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Z72" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA72" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB72" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB72" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD72" s="14"/>
@@ -9699,7 +9775,7 @@
         <v>1</v>
       </c>
       <c r="R73" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S73" s="24">
@@ -9707,7 +9783,7 @@
         <v>15</v>
       </c>
       <c r="T73" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U73" s="45"/>
@@ -9720,23 +9796,23 @@
         <v>5</v>
       </c>
       <c r="X73" s="24">
+        <f>IF(AND(R72=loop_length,X72=loop_length),3,IF(AND(R72=3,X72=3),loop_length,X72))</f>
+        <v>3</v>
+      </c>
+      <c r="Y73" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z73" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y73" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Z73" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA73" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB73" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD73" s="14"/>
@@ -9787,7 +9863,7 @@
         <v>1</v>
       </c>
       <c r="R74" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S74" s="24">
@@ -9795,7 +9871,7 @@
         <v>15</v>
       </c>
       <c r="T74" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V74" s="24">
@@ -9807,23 +9883,23 @@
         <v>5</v>
       </c>
       <c r="X74" s="24">
+        <f>IF(AND(R73=loop_length,X73=loop_length),3,IF(AND(R73=3,X73=3),loop_length,X73))</f>
+        <v>3</v>
+      </c>
+      <c r="Y74" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z74" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA74" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y74" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Z74" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA74" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB74" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD74" s="12"/>
@@ -9869,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="R75" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S75" s="24">
@@ -9877,11 +9953,11 @@
         <v>16</v>
       </c>
       <c r="T75" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U75" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V75" s="24">
         <f>IF(C75=0,0,IF(C75=$AO$55-1,6,IF(T75=1,IF(V74&lt;=2,V74+1,IF(V74=3,W75,1)),V74)))</f>
@@ -9892,23 +9968,23 @@
         <v>5</v>
       </c>
       <c r="X75" s="24">
+        <f>IF(AND(R74=loop_length,X74=loop_length),3,IF(AND(R74=3,X74=3),loop_length,X74))</f>
+        <v>3</v>
+      </c>
+      <c r="Y75" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y75" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z75" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA75" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB75" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AE75" s="10"/>
@@ -9942,7 +10018,7 @@
         <v>1</v>
       </c>
       <c r="R76" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S76" s="24">
@@ -9950,7 +10026,7 @@
         <v>19</v>
       </c>
       <c r="T76" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U76" s="24" t="s">
@@ -9965,23 +10041,23 @@
         <v>5</v>
       </c>
       <c r="X76" s="24">
+        <f>IF(AND(R75=loop_length,X75=loop_length),3,IF(AND(R75=3,X75=3),loop_length,X75))</f>
+        <v>3</v>
+      </c>
+      <c r="Y76" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA76" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y76" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z76" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA76" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB76" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB76" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AE76" s="27"/>
@@ -10017,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="R77" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S77" s="24">
@@ -10025,7 +10101,7 @@
         <v>19</v>
       </c>
       <c r="T77" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V77" s="24">
@@ -10037,23 +10113,23 @@
         <v>4</v>
       </c>
       <c r="X77" s="24">
+        <f>IF(AND(R76=loop_length,X76=loop_length),3,IF(AND(R76=3,X76=3),loop_length,X76))</f>
+        <v>4</v>
+      </c>
+      <c r="Y77" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y77" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z77" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AF77" s="10"/>
@@ -10088,7 +10164,7 @@
         <v>1</v>
       </c>
       <c r="R78" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S78" s="24">
@@ -10096,7 +10172,7 @@
         <v>19</v>
       </c>
       <c r="T78" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V78" s="24">
@@ -10108,23 +10184,23 @@
         <v>4</v>
       </c>
       <c r="X78" s="24">
+        <f>IF(AND(R77=loop_length,X77=loop_length),3,IF(AND(R77=3,X77=3),loop_length,X77))</f>
+        <v>4</v>
+      </c>
+      <c r="Y78" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA78" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y78" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z78" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA78" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB78" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB78" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AF78" s="29"/>
@@ -10161,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="R79" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S79" s="24">
@@ -10169,11 +10245,11 @@
         <v>20</v>
       </c>
       <c r="T79" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U79" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V79" s="24">
         <f t="shared" si="1"/>
@@ -10184,23 +10260,23 @@
         <v>4</v>
       </c>
       <c r="X79" s="24">
+        <f>IF(AND(R78=loop_length,X78=loop_length),3,IF(AND(R78=3,X78=3),loop_length,X78))</f>
+        <v>4</v>
+      </c>
+      <c r="Y79" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA79" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y79" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z79" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA79" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB79" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AF79" s="31"/>
@@ -10242,7 +10318,7 @@
         <v>1</v>
       </c>
       <c r="R80" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S80" s="24">
@@ -10250,11 +10326,11 @@
         <v>24</v>
       </c>
       <c r="T80" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U80" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V80" s="24">
         <f t="shared" si="1"/>
@@ -10265,23 +10341,23 @@
         <v>4</v>
       </c>
       <c r="X80" s="24">
+        <f>IF(AND(R79=loop_length,X79=loop_length),3,IF(AND(R79=3,X79=3),loop_length,X79))</f>
+        <v>4</v>
+      </c>
+      <c r="Y80" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z80" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA80" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y80" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Z80" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA80" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB80" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB80" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD80" s="12"/>
@@ -10331,7 +10407,7 @@
         <v>1</v>
       </c>
       <c r="R81" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S81" s="24">
@@ -10339,7 +10415,7 @@
         <v>24</v>
       </c>
       <c r="T81" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U81" s="45"/>
@@ -10352,23 +10428,23 @@
         <v>4</v>
       </c>
       <c r="X81" s="24">
+        <f>IF(AND(R80=loop_length,X80=loop_length),3,IF(AND(R80=3,X80=3),loop_length,X80))</f>
+        <v>3</v>
+      </c>
+      <c r="Y81" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z81" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA81" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y81" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Z81" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA81" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB81" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB81" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD81" s="14"/>
@@ -10418,7 +10494,7 @@
         <v>2</v>
       </c>
       <c r="R82" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S82" s="24">
@@ -10426,7 +10502,7 @@
         <v>24</v>
       </c>
       <c r="T82" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U82" s="45"/>
@@ -10439,23 +10515,23 @@
         <v>4</v>
       </c>
       <c r="X82" s="24">
+        <f>IF(AND(R81=loop_length,X81=loop_length),3,IF(AND(R81=3,X81=3),loop_length,X81))</f>
+        <v>3</v>
+      </c>
+      <c r="Y82" s="24">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Z82" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA82" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y82" s="24">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Z82" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA82" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB82" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB82" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD82" s="14"/>
@@ -10506,7 +10582,7 @@
         <v>2</v>
       </c>
       <c r="R83" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S83" s="24">
@@ -10514,7 +10590,7 @@
         <v>24</v>
       </c>
       <c r="T83" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V83" s="24">
@@ -10526,23 +10602,23 @@
         <v>4</v>
       </c>
       <c r="X83" s="24">
+        <f>IF(AND(R82=loop_length,X82=loop_length),3,IF(AND(R82=3,X82=3),loop_length,X82))</f>
+        <v>3</v>
+      </c>
+      <c r="Y83" s="24">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Z83" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA83" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y83" s="24">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Z83" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA83" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB83" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB83" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD83" s="12"/>
@@ -10588,7 +10664,7 @@
         <v>3</v>
       </c>
       <c r="R84" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S84" s="24">
@@ -10596,11 +10672,11 @@
         <v>25</v>
       </c>
       <c r="T84" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U84" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V84" s="24">
         <f t="shared" si="1"/>
@@ -10611,23 +10687,23 @@
         <v>4</v>
       </c>
       <c r="X84" s="24">
+        <f>IF(AND(R83=loop_length,X83=loop_length),3,IF(AND(R83=3,X83=3),loop_length,X83))</f>
+        <v>3</v>
+      </c>
+      <c r="Y84" s="24">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Z84" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA84" s="24">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="Y84" s="24">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Z84" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA84" s="24">
+      <c r="AB84" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AB84" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AF84" s="10"/>
@@ -10664,7 +10740,7 @@
         <v>2</v>
       </c>
       <c r="R85" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S85" s="24">
@@ -10672,7 +10748,7 @@
         <v>28</v>
       </c>
       <c r="T85" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U85" s="24" t="s">
@@ -10687,23 +10763,23 @@
         <v>4</v>
       </c>
       <c r="X85" s="24">
+        <f>IF(AND(R84=loop_length,X84=loop_length),3,IF(AND(R84=3,X84=3),loop_length,X84))</f>
+        <v>3</v>
+      </c>
+      <c r="Y85" s="24">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Z85" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA85" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y85" s="24">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Z85" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA85" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB85" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB85" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AF85" s="27"/>
@@ -10740,7 +10816,7 @@
         <v>3</v>
       </c>
       <c r="R86" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S86" s="24">
@@ -10748,7 +10824,7 @@
         <v>28</v>
       </c>
       <c r="T86" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V86" s="24">
@@ -10760,23 +10836,23 @@
         <v>5</v>
       </c>
       <c r="X86" s="24">
+        <f>IF(AND(R85=loop_length,X85=loop_length),3,IF(AND(R85=3,X85=3),loop_length,X85))</f>
+        <v>4</v>
+      </c>
+      <c r="Y86" s="24">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Z86" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA86" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y86" s="24">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Z86" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA86" s="24">
+        <v>3</v>
+      </c>
+      <c r="AB86" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AB86" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AG86" s="10"/>
@@ -10812,7 +10888,7 @@
         <v>2</v>
       </c>
       <c r="R87" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="S87" s="24">
@@ -10820,7 +10896,7 @@
         <v>28</v>
       </c>
       <c r="T87" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V87" s="24">
@@ -10832,23 +10908,23 @@
         <v>5</v>
       </c>
       <c r="X87" s="24">
+        <f>IF(AND(R86=loop_length,X86=loop_length),3,IF(AND(R86=3,X86=3),loop_length,X86))</f>
+        <v>4</v>
+      </c>
+      <c r="Y87" s="24">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Z87" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA87" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y87" s="24">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Z87" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA87" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB87" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB87" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AG87" s="29"/>
@@ -10885,7 +10961,7 @@
         <v>3</v>
       </c>
       <c r="R88" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S88" s="24">
@@ -10893,11 +10969,11 @@
         <v>29</v>
       </c>
       <c r="T88" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U88" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V88" s="24">
         <f t="shared" si="1"/>
@@ -10908,23 +10984,23 @@
         <v>5</v>
       </c>
       <c r="X88" s="24">
+        <f>IF(AND(R87=loop_length,X87=loop_length),3,IF(AND(R87=3,X87=3),loop_length,X87))</f>
+        <v>4</v>
+      </c>
+      <c r="Y88" s="24">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Z88" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA88" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y88" s="24">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="Z88" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA88" s="24">
+        <v>3</v>
+      </c>
+      <c r="AB88" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AB88" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AG88" s="31"/>
@@ -10966,7 +11042,7 @@
         <v>2</v>
       </c>
       <c r="R89" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S89" s="24">
@@ -10974,11 +11050,11 @@
         <v>33</v>
       </c>
       <c r="T89" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U89" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V89" s="24">
         <f t="shared" si="1"/>
@@ -10989,23 +11065,23 @@
         <v>5</v>
       </c>
       <c r="X89" s="24">
+        <f>IF(AND(R88=loop_length,X88=loop_length),3,IF(AND(R88=3,X88=3),loop_length,X88))</f>
+        <v>4</v>
+      </c>
+      <c r="Y89" s="24">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Z89" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA89" s="24">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="Y89" s="24">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Z89" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB89" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB89" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD89" s="12"/>
@@ -11055,7 +11131,7 @@
         <v>2</v>
       </c>
       <c r="R90" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S90" s="24">
@@ -11063,7 +11139,7 @@
         <v>33</v>
       </c>
       <c r="T90" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U90" s="45"/>
@@ -11076,23 +11152,23 @@
         <v>5</v>
       </c>
       <c r="X90" s="24">
+        <f>IF(AND(R89=loop_length,X89=loop_length),3,IF(AND(R89=3,X89=3),loop_length,X89))</f>
+        <v>3</v>
+      </c>
+      <c r="Y90" s="24">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="Z90" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA90" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y90" s="24">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="Z90" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA90" s="24">
+        <v>2</v>
+      </c>
+      <c r="AB90" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="AB90" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD90" s="14"/>
@@ -11142,7 +11218,7 @@
         <v>1</v>
       </c>
       <c r="R91" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S91" s="24">
@@ -11150,7 +11226,7 @@
         <v>33</v>
       </c>
       <c r="T91" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U91" s="45"/>
@@ -11163,23 +11239,23 @@
         <v>5</v>
       </c>
       <c r="X91" s="24">
+        <f>IF(AND(R90=loop_length,X90=loop_length),3,IF(AND(R90=3,X90=3),loop_length,X90))</f>
+        <v>3</v>
+      </c>
+      <c r="Y91" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z91" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA91" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y91" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Z91" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA91" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB91" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD91" s="14"/>
@@ -11230,7 +11306,7 @@
         <v>1</v>
       </c>
       <c r="R92" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="S92" s="24">
@@ -11238,7 +11314,7 @@
         <v>33</v>
       </c>
       <c r="T92" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V92" s="24">
@@ -11250,23 +11326,23 @@
         <v>5</v>
       </c>
       <c r="X92" s="24">
+        <f>IF(AND(R91=loop_length,X91=loop_length),3,IF(AND(R91=3,X91=3),loop_length,X91))</f>
+        <v>3</v>
+      </c>
+      <c r="Y92" s="24">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Z92" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA92" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y92" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Z92" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA92" s="24">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="AB92" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AD92" s="12"/>
@@ -11312,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="R93" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="S93" s="24">
@@ -11320,11 +11396,11 @@
         <v>34</v>
       </c>
       <c r="T93" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U93" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="V93" s="24">
         <f t="shared" si="1"/>
@@ -11335,23 +11411,23 @@
         <v>5</v>
       </c>
       <c r="X93" s="24">
+        <f>IF(AND(R92=loop_length,X92=loop_length),3,IF(AND(R92=3,X92=3),loop_length,X92))</f>
+        <v>3</v>
+      </c>
+      <c r="Y93" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z93" s="24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA93" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y93" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z93" s="24">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AA93" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB93" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AG93" s="21"/>
@@ -11382,11 +11458,11 @@
         <v>0</v>
       </c>
       <c r="R94" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="T94" s="24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="U94" s="44" t="s">
@@ -11401,23 +11477,23 @@
         <v>5</v>
       </c>
       <c r="X94" s="24">
+        <f>IF(AND(R93=loop_length,X93=loop_length),3,IF(AND(R93=3,X93=3),loop_length,X93))</f>
+        <v>3</v>
+      </c>
+      <c r="Y94" s="24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="24">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AA94" s="24">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="Y94" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Z94" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AA94" s="24">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="24" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB94" s="24" t="str">
-        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
       <c r="AG94" s="33"/>
@@ -13256,4 +13332,2863 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>Лист1!C60</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>Лист1!T60</f>
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <f>Лист1!X60</f>
+        <v>4</v>
+      </c>
+      <c r="P2">
+        <f>Лист1!W60</f>
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <f>Лист1!V60</f>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f>Лист1!R60</f>
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <f>Лист1!S60</f>
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <f>Лист1!P60</f>
+        <v>-1</v>
+      </c>
+      <c r="U2">
+        <f>Лист1!Y60</f>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f>Лист1!Z60</f>
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <f>Лист1!AA60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f>Лист1!C61</f>
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <f>Лист1!T61</f>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>Лист1!X61</f>
+        <v>4</v>
+      </c>
+      <c r="P3">
+        <f>Лист1!W61</f>
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <f>Лист1!V61</f>
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <f>Лист1!R61</f>
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f>Лист1!S61</f>
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <f>Лист1!P61</f>
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <f>Лист1!Y61</f>
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <f>Лист1!Z61</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>Лист1!AA61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f>Лист1!C62</f>
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <f>Лист1!T62</f>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f>Лист1!X62</f>
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <f>Лист1!W62</f>
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <f>Лист1!V62</f>
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <f>Лист1!R62</f>
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <f>Лист1!S62</f>
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <f>Лист1!P62</f>
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <f>Лист1!Y62</f>
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <f>Лист1!Z62</f>
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f>Лист1!AA62</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>Лист1!C63</f>
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <f>Лист1!T63</f>
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>Лист1!X63</f>
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <f>Лист1!W63</f>
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <f>Лист1!V63</f>
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <f>Лист1!R63</f>
+        <v>4</v>
+      </c>
+      <c r="S5">
+        <f>Лист1!S63</f>
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <f>Лист1!P63</f>
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <f>Лист1!Y63</f>
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <f>Лист1!Z63</f>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>Лист1!AA63</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <f>Лист1!C64</f>
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <f>Лист1!T64</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>Лист1!X64</f>
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <f>Лист1!W64</f>
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <f>Лист1!V64</f>
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <f>Лист1!R64</f>
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <f>Лист1!S64</f>
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <f>Лист1!P64</f>
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <f>Лист1!Y64</f>
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <f>Лист1!Z64</f>
+        <v>1</v>
+      </c>
+      <c r="W6">
+        <f>Лист1!AA64</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <f>Лист1!C65</f>
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <f>Лист1!T65</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>Лист1!X65</f>
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <f>Лист1!W65</f>
+        <v>4</v>
+      </c>
+      <c r="Q7">
+        <f>Лист1!V65</f>
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <f>Лист1!R65</f>
+        <v>4</v>
+      </c>
+      <c r="S7">
+        <f>Лист1!S65</f>
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <f>Лист1!P65</f>
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <f>Лист1!Y65</f>
+        <v>2</v>
+      </c>
+      <c r="V7">
+        <f>Лист1!Z65</f>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <f>Лист1!AA65</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="M8">
+        <f>Лист1!C66</f>
+        <v>6</v>
+      </c>
+      <c r="N8">
+        <f>Лист1!T66</f>
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <f>Лист1!X66</f>
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <f>Лист1!W66</f>
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <f>Лист1!V66</f>
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <f>Лист1!R66</f>
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <f>Лист1!S66</f>
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <f>Лист1!P66</f>
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <f>Лист1!Y66</f>
+        <v>3</v>
+      </c>
+      <c r="V8">
+        <f>Лист1!Z66</f>
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <f>Лист1!AA66</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f>Лист1!C67</f>
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <f>Лист1!T67</f>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f>Лист1!X67</f>
+        <v>3</v>
+      </c>
+      <c r="P9">
+        <f>Лист1!W67</f>
+        <v>4</v>
+      </c>
+      <c r="Q9">
+        <f>Лист1!V67</f>
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <f>Лист1!R67</f>
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <f>Лист1!S67</f>
+        <v>10</v>
+      </c>
+      <c r="T9">
+        <f>Лист1!P67</f>
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <f>Лист1!Y67</f>
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <f>Лист1!Z67</f>
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <f>Лист1!AA67</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <f>Лист1!C68</f>
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <f>Лист1!T68</f>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f>Лист1!X68</f>
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <f>Лист1!W68</f>
+        <v>5</v>
+      </c>
+      <c r="Q10">
+        <f>Лист1!V68</f>
+        <v>4</v>
+      </c>
+      <c r="R10">
+        <f>Лист1!R68</f>
+        <v>3</v>
+      </c>
+      <c r="S10">
+        <f>Лист1!S68</f>
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <f>Лист1!P68</f>
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <f>Лист1!Y68</f>
+        <v>3</v>
+      </c>
+      <c r="V10">
+        <f>Лист1!Z68</f>
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <f>Лист1!AA68</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <f>Лист1!C69</f>
+        <v>9</v>
+      </c>
+      <c r="N11">
+        <f>Лист1!T69</f>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f>Лист1!X69</f>
+        <v>4</v>
+      </c>
+      <c r="P11">
+        <f>Лист1!W69</f>
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <f>Лист1!V69</f>
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <f>Лист1!R69</f>
+        <v>3</v>
+      </c>
+      <c r="S11">
+        <f>Лист1!S69</f>
+        <v>10</v>
+      </c>
+      <c r="T11">
+        <f>Лист1!P69</f>
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <f>Лист1!Y69</f>
+        <v>3</v>
+      </c>
+      <c r="V11">
+        <f>Лист1!Z69</f>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f>Лист1!AA69</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <f>Лист1!C70</f>
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <f>Лист1!T70</f>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f>Лист1!X70</f>
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <f>Лист1!W70</f>
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <f>Лист1!V70</f>
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <f>Лист1!R70</f>
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <f>Лист1!S70</f>
+        <v>11</v>
+      </c>
+      <c r="T12">
+        <f>Лист1!P70</f>
+        <v>-1</v>
+      </c>
+      <c r="U12">
+        <f>Лист1!Y70</f>
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <f>Лист1!Z70</f>
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <f>Лист1!AA70</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <f>Лист1!C71</f>
+        <v>11</v>
+      </c>
+      <c r="N13">
+        <f>Лист1!T71</f>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f>Лист1!X71</f>
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <f>Лист1!W71</f>
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <f>Лист1!V71</f>
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <f>Лист1!R71</f>
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <f>Лист1!S71</f>
+        <v>15</v>
+      </c>
+      <c r="T13">
+        <f>Лист1!P71</f>
+        <v>-1</v>
+      </c>
+      <c r="U13">
+        <f>Лист1!Y71</f>
+        <v>2</v>
+      </c>
+      <c r="V13">
+        <f>Лист1!Z71</f>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>Лист1!AA71</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <f>Лист1!C72</f>
+        <v>12</v>
+      </c>
+      <c r="N14">
+        <f>Лист1!T72</f>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f>Лист1!X72</f>
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <f>Лист1!W72</f>
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <f>Лист1!V72</f>
+        <v>2</v>
+      </c>
+      <c r="R14">
+        <f>Лист1!R72</f>
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <f>Лист1!S72</f>
+        <v>15</v>
+      </c>
+      <c r="T14">
+        <f>Лист1!P72</f>
+        <v>-1</v>
+      </c>
+      <c r="U14">
+        <f>Лист1!Y72</f>
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <f>Лист1!Z72</f>
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f>Лист1!AA72</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>-1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f>Лист1!C73</f>
+        <v>13</v>
+      </c>
+      <c r="N15">
+        <f>Лист1!T73</f>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f>Лист1!X73</f>
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <f>Лист1!W73</f>
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <f>Лист1!V73</f>
+        <v>2</v>
+      </c>
+      <c r="R15">
+        <f>Лист1!R73</f>
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <f>Лист1!S73</f>
+        <v>15</v>
+      </c>
+      <c r="T15">
+        <f>Лист1!P73</f>
+        <v>-1</v>
+      </c>
+      <c r="U15">
+        <f>Лист1!Y73</f>
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <f>Лист1!Z73</f>
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <f>Лист1!AA73</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>-1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f>Лист1!C74</f>
+        <v>14</v>
+      </c>
+      <c r="N16">
+        <f>Лист1!T74</f>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>Лист1!X74</f>
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <f>Лист1!W74</f>
+        <v>5</v>
+      </c>
+      <c r="Q16">
+        <f>Лист1!V74</f>
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <f>Лист1!R74</f>
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <f>Лист1!S74</f>
+        <v>15</v>
+      </c>
+      <c r="T16">
+        <f>Лист1!P74</f>
+        <v>-1</v>
+      </c>
+      <c r="U16">
+        <f>Лист1!Y74</f>
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <f>Лист1!Z74</f>
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <f>Лист1!AA74</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>-1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f>Лист1!C75</f>
+        <v>15</v>
+      </c>
+      <c r="N17">
+        <f>Лист1!T75</f>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f>Лист1!X75</f>
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f>Лист1!W75</f>
+        <v>5</v>
+      </c>
+      <c r="Q17">
+        <f>Лист1!V75</f>
+        <v>3</v>
+      </c>
+      <c r="R17">
+        <f>Лист1!R75</f>
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <f>Лист1!S75</f>
+        <v>16</v>
+      </c>
+      <c r="T17">
+        <f>Лист1!P75</f>
+        <v>-1</v>
+      </c>
+      <c r="U17">
+        <f>Лист1!Y75</f>
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <f>Лист1!Z75</f>
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <f>Лист1!AA75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>19</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f>Лист1!C76</f>
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <f>Лист1!T76</f>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f>Лист1!X76</f>
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <f>Лист1!W76</f>
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <f>Лист1!V76</f>
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <f>Лист1!R76</f>
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <f>Лист1!S76</f>
+        <v>19</v>
+      </c>
+      <c r="T18">
+        <f>Лист1!P76</f>
+        <v>-1</v>
+      </c>
+      <c r="U18">
+        <f>Лист1!Y76</f>
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <f>Лист1!Z76</f>
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <f>Лист1!AA76</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <v>-1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>Лист1!C77</f>
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <f>Лист1!T77</f>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>Лист1!X77</f>
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <f>Лист1!W77</f>
+        <v>4</v>
+      </c>
+      <c r="Q19">
+        <f>Лист1!V77</f>
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <f>Лист1!R77</f>
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <f>Лист1!S77</f>
+        <v>19</v>
+      </c>
+      <c r="T19">
+        <f>Лист1!P77</f>
+        <v>-1</v>
+      </c>
+      <c r="U19">
+        <f>Лист1!Y77</f>
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <f>Лист1!Z77</f>
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <f>Лист1!AA77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>-1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <f>Лист1!C78</f>
+        <v>18</v>
+      </c>
+      <c r="N20">
+        <f>Лист1!T78</f>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>Лист1!X78</f>
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <f>Лист1!W78</f>
+        <v>4</v>
+      </c>
+      <c r="Q20">
+        <f>Лист1!V78</f>
+        <v>5</v>
+      </c>
+      <c r="R20">
+        <f>Лист1!R78</f>
+        <v>3</v>
+      </c>
+      <c r="S20">
+        <f>Лист1!S78</f>
+        <v>19</v>
+      </c>
+      <c r="T20">
+        <f>Лист1!P78</f>
+        <v>-1</v>
+      </c>
+      <c r="U20">
+        <f>Лист1!Y78</f>
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <f>Лист1!Z78</f>
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <f>Лист1!AA78</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f>Лист1!C79</f>
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <f>Лист1!T79</f>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <f>Лист1!X79</f>
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <f>Лист1!W79</f>
+        <v>4</v>
+      </c>
+      <c r="Q21">
+        <f>Лист1!V79</f>
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <f>Лист1!R79</f>
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <f>Лист1!S79</f>
+        <v>20</v>
+      </c>
+      <c r="T21">
+        <f>Лист1!P79</f>
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <f>Лист1!Y79</f>
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <f>Лист1!Z79</f>
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <f>Лист1!AA79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>24</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <f>Лист1!C80</f>
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <f>Лист1!T80</f>
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <f>Лист1!X80</f>
+        <v>4</v>
+      </c>
+      <c r="P22">
+        <f>Лист1!W80</f>
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <f>Лист1!V80</f>
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <f>Лист1!R80</f>
+        <v>4</v>
+      </c>
+      <c r="S22">
+        <f>Лист1!S80</f>
+        <v>24</v>
+      </c>
+      <c r="T22">
+        <f>Лист1!P80</f>
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <f>Лист1!Y80</f>
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <f>Лист1!Z80</f>
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <f>Лист1!AA80</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>24</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <f>Лист1!C81</f>
+        <v>21</v>
+      </c>
+      <c r="N23">
+        <f>Лист1!T81</f>
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>Лист1!X81</f>
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <f>Лист1!W81</f>
+        <v>4</v>
+      </c>
+      <c r="Q23">
+        <f>Лист1!V81</f>
+        <v>2</v>
+      </c>
+      <c r="R23">
+        <f>Лист1!R81</f>
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <f>Лист1!S81</f>
+        <v>24</v>
+      </c>
+      <c r="T23">
+        <f>Лист1!P81</f>
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <f>Лист1!Y81</f>
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <f>Лист1!Z81</f>
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f>Лист1!AA81</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <f>Лист1!C82</f>
+        <v>22</v>
+      </c>
+      <c r="N24">
+        <f>Лист1!T82</f>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f>Лист1!X82</f>
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <f>Лист1!W82</f>
+        <v>4</v>
+      </c>
+      <c r="Q24">
+        <f>Лист1!V82</f>
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <f>Лист1!R82</f>
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <f>Лист1!S82</f>
+        <v>24</v>
+      </c>
+      <c r="T24">
+        <f>Лист1!P82</f>
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <f>Лист1!Y82</f>
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <f>Лист1!Z82</f>
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <f>Лист1!AA82</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>24</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <f>Лист1!C83</f>
+        <v>23</v>
+      </c>
+      <c r="N25">
+        <f>Лист1!T83</f>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f>Лист1!X83</f>
+        <v>3</v>
+      </c>
+      <c r="P25">
+        <f>Лист1!W83</f>
+        <v>4</v>
+      </c>
+      <c r="Q25">
+        <f>Лист1!V83</f>
+        <v>2</v>
+      </c>
+      <c r="R25">
+        <f>Лист1!R83</f>
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <f>Лист1!S83</f>
+        <v>24</v>
+      </c>
+      <c r="T25">
+        <f>Лист1!P83</f>
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <f>Лист1!Y83</f>
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <f>Лист1!Z83</f>
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <f>Лист1!AA83</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="M26">
+        <f>Лист1!C84</f>
+        <v>24</v>
+      </c>
+      <c r="N26">
+        <f>Лист1!T84</f>
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <f>Лист1!X84</f>
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <f>Лист1!W84</f>
+        <v>4</v>
+      </c>
+      <c r="Q26">
+        <f>Лист1!V84</f>
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <f>Лист1!R84</f>
+        <v>1</v>
+      </c>
+      <c r="S26">
+        <f>Лист1!S84</f>
+        <v>25</v>
+      </c>
+      <c r="T26">
+        <f>Лист1!P84</f>
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <f>Лист1!Y84</f>
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <f>Лист1!Z84</f>
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <f>Лист1!AA84</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>28</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <f>Лист1!C85</f>
+        <v>25</v>
+      </c>
+      <c r="N27">
+        <f>Лист1!T85</f>
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <f>Лист1!X85</f>
+        <v>3</v>
+      </c>
+      <c r="P27">
+        <f>Лист1!W85</f>
+        <v>4</v>
+      </c>
+      <c r="Q27">
+        <f>Лист1!V85</f>
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <f>Лист1!R85</f>
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <f>Лист1!S85</f>
+        <v>28</v>
+      </c>
+      <c r="T27">
+        <f>Лист1!P85</f>
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <f>Лист1!Y85</f>
+        <v>3</v>
+      </c>
+      <c r="V27">
+        <f>Лист1!Z85</f>
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <f>Лист1!AA85</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>28</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <f>Лист1!C86</f>
+        <v>26</v>
+      </c>
+      <c r="N28">
+        <f>Лист1!T86</f>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f>Лист1!X86</f>
+        <v>4</v>
+      </c>
+      <c r="P28">
+        <f>Лист1!W86</f>
+        <v>5</v>
+      </c>
+      <c r="Q28">
+        <f>Лист1!V86</f>
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <f>Лист1!R86</f>
+        <v>3</v>
+      </c>
+      <c r="S28">
+        <f>Лист1!S86</f>
+        <v>28</v>
+      </c>
+      <c r="T28">
+        <f>Лист1!P86</f>
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <f>Лист1!Y86</f>
+        <v>3</v>
+      </c>
+      <c r="V28">
+        <f>Лист1!Z86</f>
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <f>Лист1!AA86</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>28</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <f>Лист1!C87</f>
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <f>Лист1!T87</f>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f>Лист1!X87</f>
+        <v>4</v>
+      </c>
+      <c r="P29">
+        <f>Лист1!W87</f>
+        <v>5</v>
+      </c>
+      <c r="Q29">
+        <f>Лист1!V87</f>
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <f>Лист1!R87</f>
+        <v>3</v>
+      </c>
+      <c r="S29">
+        <f>Лист1!S87</f>
+        <v>28</v>
+      </c>
+      <c r="T29">
+        <f>Лист1!P87</f>
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <f>Лист1!Y87</f>
+        <v>3</v>
+      </c>
+      <c r="V29">
+        <f>Лист1!Z87</f>
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <f>Лист1!AA87</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+      <c r="H30">
+        <v>-1</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <f>Лист1!C88</f>
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <f>Лист1!T88</f>
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <f>Лист1!X88</f>
+        <v>4</v>
+      </c>
+      <c r="P30">
+        <f>Лист1!W88</f>
+        <v>5</v>
+      </c>
+      <c r="Q30">
+        <f>Лист1!V88</f>
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <f>Лист1!R88</f>
+        <v>1</v>
+      </c>
+      <c r="S30">
+        <f>Лист1!S88</f>
+        <v>29</v>
+      </c>
+      <c r="T30">
+        <f>Лист1!P88</f>
+        <v>-1</v>
+      </c>
+      <c r="U30">
+        <f>Лист1!Y88</f>
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <f>Лист1!Z88</f>
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <f>Лист1!AA88</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>33</v>
+      </c>
+      <c r="H31">
+        <v>-1</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <f>Лист1!C89</f>
+        <v>29</v>
+      </c>
+      <c r="N31">
+        <f>Лист1!T89</f>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <f>Лист1!X89</f>
+        <v>4</v>
+      </c>
+      <c r="P31">
+        <f>Лист1!W89</f>
+        <v>5</v>
+      </c>
+      <c r="Q31">
+        <f>Лист1!V89</f>
+        <v>2</v>
+      </c>
+      <c r="R31">
+        <f>Лист1!R89</f>
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <f>Лист1!S89</f>
+        <v>33</v>
+      </c>
+      <c r="T31">
+        <f>Лист1!P89</f>
+        <v>-1</v>
+      </c>
+      <c r="U31">
+        <f>Лист1!Y89</f>
+        <v>2</v>
+      </c>
+      <c r="V31">
+        <f>Лист1!Z89</f>
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <f>Лист1!AA89</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>33</v>
+      </c>
+      <c r="H32">
+        <v>-1</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <f>Лист1!C90</f>
+        <v>30</v>
+      </c>
+      <c r="N32">
+        <f>Лист1!T90</f>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f>Лист1!X90</f>
+        <v>3</v>
+      </c>
+      <c r="P32">
+        <f>Лист1!W90</f>
+        <v>5</v>
+      </c>
+      <c r="Q32">
+        <f>Лист1!V90</f>
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <f>Лист1!R90</f>
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <f>Лист1!S90</f>
+        <v>33</v>
+      </c>
+      <c r="T32">
+        <f>Лист1!P90</f>
+        <v>-1</v>
+      </c>
+      <c r="U32">
+        <f>Лист1!Y90</f>
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <f>Лист1!Z90</f>
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <f>Лист1!AA90</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>33</v>
+      </c>
+      <c r="H33">
+        <v>-1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <f>Лист1!C91</f>
+        <v>31</v>
+      </c>
+      <c r="N33">
+        <f>Лист1!T91</f>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f>Лист1!X91</f>
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <f>Лист1!W91</f>
+        <v>5</v>
+      </c>
+      <c r="Q33">
+        <f>Лист1!V91</f>
+        <v>2</v>
+      </c>
+      <c r="R33">
+        <f>Лист1!R91</f>
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <f>Лист1!S91</f>
+        <v>33</v>
+      </c>
+      <c r="T33">
+        <f>Лист1!P91</f>
+        <v>-1</v>
+      </c>
+      <c r="U33">
+        <f>Лист1!Y91</f>
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <f>Лист1!Z91</f>
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f>Лист1!AA91</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>33</v>
+      </c>
+      <c r="H34">
+        <v>-1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <f>Лист1!C92</f>
+        <v>32</v>
+      </c>
+      <c r="N34">
+        <f>Лист1!T92</f>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f>Лист1!X92</f>
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <f>Лист1!W92</f>
+        <v>5</v>
+      </c>
+      <c r="Q34">
+        <f>Лист1!V92</f>
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <f>Лист1!R92</f>
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <f>Лист1!S92</f>
+        <v>33</v>
+      </c>
+      <c r="T34">
+        <f>Лист1!P92</f>
+        <v>-1</v>
+      </c>
+      <c r="U34">
+        <f>Лист1!Y92</f>
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <f>Лист1!Z92</f>
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f>Лист1!AA92</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>34</v>
+      </c>
+      <c r="H35">
+        <v>-1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f>Лист1!C93</f>
+        <v>33</v>
+      </c>
+      <c r="N35">
+        <f>Лист1!T93</f>
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <f>Лист1!X93</f>
+        <v>3</v>
+      </c>
+      <c r="P35">
+        <f>Лист1!W93</f>
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <f>Лист1!V93</f>
+        <v>3</v>
+      </c>
+      <c r="R35">
+        <f>Лист1!R93</f>
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <f>Лист1!S93</f>
+        <v>34</v>
+      </c>
+      <c r="T35">
+        <f>Лист1!P93</f>
+        <v>-1</v>
+      </c>
+      <c r="U35">
+        <f>Лист1!Y93</f>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f>Лист1!Z93</f>
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <f>Лист1!AA93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>35</v>
+      </c>
+      <c r="H36">
+        <v>-1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f>Лист1!C94</f>
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <f>Лист1!T94</f>
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <f>Лист1!X94</f>
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <f>Лист1!W94</f>
+        <v>5</v>
+      </c>
+      <c r="Q36">
+        <f>Лист1!V94</f>
+        <v>6</v>
+      </c>
+      <c r="R36">
+        <f>Лист1!R94</f>
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <f>Лист1!S94</f>
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <f>Лист1!P94</f>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <f>Лист1!Y94</f>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <f>Лист1!Z94</f>
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <f>Лист1!AA94</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:K36">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>M2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>N2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GL_LINE_STRIP.xlsx
+++ b/GL_LINE_STRIP.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RazumovSa\Documents\Visual Studio 2015\Projects\RadarClient\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoName\Documents\RadarClient\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="38">
   <si>
     <t>left turn</t>
   </si>
@@ -78,19 +78,7 @@
     <t>W=</t>
   </si>
   <si>
-    <t>(W-3)*2</t>
-  </si>
-  <si>
     <t>N=</t>
-  </si>
-  <si>
-    <t>blockstart</t>
-  </si>
-  <si>
-    <t>cycle</t>
-  </si>
-  <si>
-    <t>blockend</t>
   </si>
   <si>
     <t>mode</t>
@@ -147,10 +135,16 @@
     <t>i</t>
   </si>
   <si>
-    <t>splitter</t>
+    <t>Ybase</t>
   </si>
   <si>
-    <t>mode2_id</t>
+    <t>next_step_Ybase_change</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>dY_Sign</t>
   </si>
 </sst>
 </file>
@@ -268,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -398,43 +392,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="mediumDashed">
-        <color theme="9" tint="-0.499984740745262"/>
-      </left>
-      <right style="mediumDashed">
-        <color theme="9" tint="-0.499984740745262"/>
-      </right>
-      <top style="mediumDashed">
-        <color theme="9" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color theme="9" tint="-0.499984740745262"/>
-      </left>
-      <right style="mediumDashed">
-        <color theme="9" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="mediumDashed">
-        <color theme="9" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color theme="9" tint="-0.499984740745262"/>
-      </left>
-      <right style="mediumDashed">
-        <color theme="9" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -469,11 +426,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -483,7 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -516,7 +492,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -526,34 +501,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="9" tint="-0.499984740745262"/>
@@ -8260,10 +8229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR142"/>
+  <dimension ref="A1:AT142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK52" sqref="AK52"/>
+    <sheetView tabSelected="1" topLeftCell="Z49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AR59" sqref="AR59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8271,14 +8240,16 @@
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="51"/>
-    <col min="17" max="17" width="11.85546875" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" style="24" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" style="24"/>
-    <col min="23" max="23" width="15" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="29" width="16.42578125" style="24" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="46"/>
+    <col min="17" max="17" width="11.85546875" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="23" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="23"/>
+    <col min="23" max="23" width="15" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="29" width="16.42578125" style="23" customWidth="1"/>
+    <col min="43" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8335,82 +8306,82 @@
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="Q37" s="24" t="s">
-        <v>25</v>
+      <c r="Q37" s="23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>2</v>
       </c>
-      <c r="Q38" s="24" t="s">
-        <v>20</v>
+      <c r="Q38" s="23" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="Q39" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="R39" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="S39" s="59" t="s">
-        <v>27</v>
+      <c r="Q39" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="R39" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="S39" s="54" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="Q40" s="56">
-        <v>0</v>
-      </c>
-      <c r="R40" s="54">
-        <v>1</v>
-      </c>
-      <c r="S40" s="54">
+      <c r="Q40" s="51">
+        <v>0</v>
+      </c>
+      <c r="R40" s="49">
+        <v>1</v>
+      </c>
+      <c r="S40" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="Q41" s="56">
-        <v>1</v>
-      </c>
-      <c r="R41" s="54">
-        <v>2</v>
-      </c>
-      <c r="S41" s="54">
+      <c r="Q41" s="51">
+        <v>1</v>
+      </c>
+      <c r="R41" s="49">
+        <v>2</v>
+      </c>
+      <c r="S41" s="49">
         <f>(W-3)*2+2</f>
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="Q42" s="56">
-        <v>2</v>
-      </c>
-      <c r="R42" s="54">
-        <v>3</v>
-      </c>
-      <c r="S42" s="54">
+      <c r="Q42" s="51">
+        <v>2</v>
+      </c>
+      <c r="R42" s="49">
+        <v>3</v>
+      </c>
+      <c r="S42" s="49">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="Q43" s="56">
-        <v>3</v>
-      </c>
-      <c r="R43" s="54">
-        <v>4</v>
-      </c>
-      <c r="S43" s="54">
+      <c r="Q43" s="51">
+        <v>3</v>
+      </c>
+      <c r="R43" s="49">
+        <v>4</v>
+      </c>
+      <c r="S43" s="49">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="Q44" s="56">
-        <v>4</v>
-      </c>
-      <c r="R44" s="54">
-        <v>1</v>
-      </c>
-      <c r="S44" s="54">
+      <c r="Q44" s="51">
+        <v>4</v>
+      </c>
+      <c r="R44" s="49">
+        <v>1</v>
+      </c>
+      <c r="S44" s="49">
         <v>1</v>
       </c>
     </row>
@@ -8421,48 +8392,48 @@
       <c r="N45" t="s">
         <v>0</v>
       </c>
-      <c r="Q45" s="56">
+      <c r="Q45" s="51">
         <v>5</v>
       </c>
-      <c r="R45" s="54">
-        <v>2</v>
-      </c>
-      <c r="S45" s="54">
+      <c r="R45" s="49">
+        <v>2</v>
+      </c>
+      <c r="S45" s="49">
         <f>(W-3)*2+2</f>
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="Q46" s="56">
+      <c r="Q46" s="51">
         <v>6</v>
       </c>
-      <c r="R46" s="54">
-        <v>3</v>
-      </c>
-      <c r="S46" s="54">
-        <v>1</v>
-      </c>
-      <c r="W46" s="24">
+      <c r="R46" s="49">
+        <v>3</v>
+      </c>
+      <c r="S46" s="49">
+        <v>1</v>
+      </c>
+      <c r="W46" s="23">
         <f>(170-158)/158</f>
         <v>7.5949367088607597E-2</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="Q47" s="57">
+      <c r="Q47" s="52">
         <v>7</v>
       </c>
-      <c r="R47" s="55">
+      <c r="R47" s="50">
         <v>5</v>
       </c>
-      <c r="S47" s="55">
+      <c r="S47" s="50">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:44" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:46" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="24">
+      <c r="T52" s="23">
         <f>(W-2)*2</f>
         <v>4</v>
       </c>
@@ -8477,13 +8448,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
-      <c r="Y54" s="60"/>
+      <c r="Y54" s="55"/>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -8491,16 +8462,16 @@
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="Y55" s="60"/>
+      <c r="Y55" s="55"/>
       <c r="AN55" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO55" s="43">
+        <v>15</v>
+      </c>
+      <c r="AO55" s="41">
         <f>((W-3)*2+6+1)*(H-1)-1</f>
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:44" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" ht="23.25" x14ac:dyDescent="0.25">
       <c r="E56" s="2">
         <v>0</v>
       </c>
@@ -8516,141 +8487,153 @@
       <c r="K56" s="2">
         <v>3</v>
       </c>
-      <c r="Y56" s="24" t="s">
+      <c r="Y56" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AJ57" s="10"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="10"/>
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="10"/>
+      <c r="AO57" s="10"/>
+    </row>
+    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="N58" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O58" s="10"/>
+      <c r="P58" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="R58" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="S58" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="T58" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="V58" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="W58" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="X58" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y58" s="23">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA58" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB58" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="AI58" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="10"/>
+      <c r="AO58" s="10"/>
+      <c r="AQ58" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT58" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AJ57" s="11"/>
-      <c r="AK57" s="11"/>
-      <c r="AL57" s="11"/>
-      <c r="AM57" s="11"/>
-      <c r="AN57" s="11"/>
-      <c r="AO57" s="11"/>
+    <row r="59" spans="1:46" s="56" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J59" s="57">
+        <v>0</v>
+      </c>
+      <c r="K59" s="57">
+        <v>1</v>
+      </c>
+      <c r="L59" s="57">
+        <v>2</v>
+      </c>
+      <c r="M59" s="57">
+        <v>3</v>
+      </c>
+      <c r="N59" s="58">
+        <v>4</v>
+      </c>
+      <c r="O59" s="59"/>
+      <c r="P59" s="60">
+        <v>-1</v>
+      </c>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="62">
+        <v>1</v>
+      </c>
+      <c r="S59" s="62">
+        <v>0</v>
+      </c>
+      <c r="T59" s="61"/>
+      <c r="U59" s="61"/>
+      <c r="V59" s="59">
+        <v>0</v>
+      </c>
+      <c r="W59" s="59">
+        <v>4</v>
+      </c>
+      <c r="X59" s="59">
+        <f>loop_length</f>
+        <v>4</v>
+      </c>
+      <c r="Y59" s="61">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="61"/>
+      <c r="AB59" s="61"/>
+      <c r="AC59" s="61"/>
+      <c r="AD59" s="57">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="57">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="57">
+        <v>2</v>
+      </c>
+      <c r="AG59" s="57">
+        <v>3</v>
+      </c>
+      <c r="AH59" s="57">
+        <v>4</v>
+      </c>
+      <c r="AI59" s="58">
+        <v>5</v>
+      </c>
+      <c r="AQ59" s="56">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="56">
+        <v>1</v>
+      </c>
+      <c r="AS59" s="56">
+        <v>0</v>
+      </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="N58" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O58" s="11"/>
-      <c r="P58" s="52" t="s">
-        <v>7</v>
-      </c>
-      <c r="R58" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="S58" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="T58" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="V58" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="W58" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="X58" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y58" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA58" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB58" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI58" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ58" s="11"/>
-      <c r="AK58" s="11"/>
-      <c r="AL58" s="11"/>
-      <c r="AM58" s="11"/>
-      <c r="AN58" s="11"/>
-      <c r="AO58" s="11"/>
-      <c r="AR58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J59" s="19">
-        <v>0</v>
-      </c>
-      <c r="K59" s="19">
-        <v>1</v>
-      </c>
-      <c r="L59" s="19">
-        <v>2</v>
-      </c>
-      <c r="M59" s="19">
-        <v>3</v>
-      </c>
-      <c r="N59" s="20">
-        <v>4</v>
-      </c>
-      <c r="O59" s="40"/>
-      <c r="P59" s="53">
-        <v>-1</v>
-      </c>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="5">
-        <v>1</v>
-      </c>
-      <c r="S59" s="5">
-        <v>0</v>
-      </c>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="38">
-        <v>0</v>
-      </c>
-      <c r="W59" s="38">
-        <v>4</v>
-      </c>
-      <c r="X59" s="38">
-        <f>loop_length</f>
-        <v>4</v>
-      </c>
-      <c r="Y59" s="39">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE59" s="19">
-        <v>1</v>
-      </c>
-      <c r="AF59" s="19">
-        <v>2</v>
-      </c>
-      <c r="AG59" s="19">
-        <v>3</v>
-      </c>
-      <c r="AH59" s="19">
-        <v>4</v>
-      </c>
-      <c r="AI59" s="20">
-        <v>5</v>
-      </c>
-      <c r="AJ59" s="11"/>
-      <c r="AK59" s="11"/>
-      <c r="AL59" s="11"/>
-      <c r="AM59" s="11"/>
-      <c r="AN59" s="11"/>
-      <c r="AO59" s="11"/>
-    </row>
-    <row r="60" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -8672,72 +8655,79 @@
       <c r="G60" s="4">
         <v>0</v>
       </c>
-      <c r="J60" s="21"/>
-      <c r="P60" s="51">
+      <c r="J60" s="20"/>
+      <c r="P60" s="46">
         <v>-1</v>
       </c>
-      <c r="Q60" s="22">
+      <c r="Q60" s="21">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="R60" s="24">
+      <c r="R60" s="23">
         <f>IF(OR(C60&lt;2,C60=$AO$55-1),1,IF(T60=1,IF(R59&gt;1,1,X60),R59))</f>
         <v>1</v>
       </c>
-      <c r="S60" s="24">
+      <c r="S60" s="23">
         <f>S59+R60*T60</f>
         <v>1</v>
       </c>
-      <c r="T60" s="24">
+      <c r="T60" s="23">
         <f>IF(S59=C60,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U60" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="V60" s="24">
+      <c r="U60" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="23">
         <f>IF(C60=0,0,IF(C60=$AO$55-1,6,IF(T60=1,IF(V59&lt;=2,V59+1,IF(V59=3,W60,1)),V59)))</f>
         <v>0</v>
       </c>
-      <c r="W60" s="24">
+      <c r="W60" s="23">
         <f>IF(AND(V59=4,W59=4),5,IF(AND(V59=5,W59=5),4,W59))</f>
         <v>4</v>
       </c>
-      <c r="X60" s="24">
-        <f>IF(AND(R59=loop_length,X59=loop_length),3,IF(AND(R59=3,X59=3),loop_length,X59))</f>
-        <v>4</v>
-      </c>
-      <c r="Y60" s="24">
+      <c r="X60" s="23">
+        <f t="shared" ref="X60:X94" si="0">IF(AND(R59=loop_length,X59=loop_length),3,IF(AND(R59=3,X59=3),loop_length,X59))</f>
+        <v>4</v>
+      </c>
+      <c r="Y60" s="23">
         <f>IF(V60=1,Y59,IF(V60=2,IF(Y59=Y58,Y59+P60,Y59),IF(V60=3,Y59+P60,Y59)))</f>
         <v>0</v>
       </c>
-      <c r="Z60" s="24">
-        <v>1</v>
-      </c>
-      <c r="AA60" s="24">
+      <c r="Z60" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="23">
         <f>IF(V60=4,Y60+Z60-1,IF(V60=5,Y60+Z60,Y60))</f>
         <v>0</v>
       </c>
-      <c r="AB60" s="24" t="str">
+      <c r="AB60" s="23" t="str">
         <f>IF(AA60=Q60,"OK","!!!")</f>
         <v>OK</v>
       </c>
-      <c r="AD60" s="25"/>
-      <c r="AE60" s="26"/>
-      <c r="AJ60" s="11"/>
-      <c r="AK60" s="11"/>
-      <c r="AL60" s="11"/>
-      <c r="AM60" s="11"/>
-      <c r="AN60" s="11"/>
-      <c r="AO60" s="48"/>
-      <c r="AP60" t="s">
-        <v>17</v>
-      </c>
-      <c r="AR60">
+      <c r="AD60" s="20"/>
+      <c r="AE60" s="22"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="10"/>
+      <c r="AO60" s="10"/>
+      <c r="AP60" s="10"/>
+      <c r="AQ60">
+        <f>IF(V60=W60,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AS60">
+        <f>AS59+AQ59</f>
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <f>AS60+IF(AQ59=0,NOT(Z60),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -8759,430 +8749,485 @@
       <c r="G61" s="4">
         <v>1</v>
       </c>
-      <c r="J61" s="35"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="P61" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="24">
+      <c r="J61" s="34"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="P61" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="R61" s="24">
+      <c r="R61" s="23">
         <f>IF(OR(C61&lt;2,C61=$AO$55-1),1,IF(T61=1,IF(R60&gt;1,1,X61),R60))</f>
         <v>1</v>
       </c>
-      <c r="S61" s="24">
-        <f t="shared" ref="S61:S93" si="0">S60+R61*T61</f>
-        <v>2</v>
-      </c>
-      <c r="T61" s="24">
+      <c r="S61" s="23">
+        <f t="shared" ref="S61:S93" si="1">S60+R61*T61</f>
+        <v>2</v>
+      </c>
+      <c r="T61" s="23">
         <f>IF(S60=C61,1,0)</f>
         <v>1</v>
       </c>
-      <c r="U61" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="V61" s="24">
-        <f t="shared" ref="V61:V94" si="1">IF(C61=0,0,IF(C61=$AO$55-1,6,IF(T61=1,IF(V60&lt;=2,V60+1,IF(V60=3,W61,1)),V60)))</f>
-        <v>1</v>
-      </c>
-      <c r="W61" s="24">
-        <f t="shared" ref="W61:W94" si="2">IF(AND(V60=4,W60=4),5,IF(AND(V60=5,W60=5),4,W60))</f>
-        <v>4</v>
-      </c>
-      <c r="X61" s="24">
-        <f>IF(AND(R60=loop_length,X60=loop_length),3,IF(AND(R60=3,X60=3),loop_length,X60))</f>
-        <v>4</v>
-      </c>
-      <c r="Y61" s="24">
+      <c r="U61" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="V61" s="23">
+        <f t="shared" ref="V61:V94" si="2">IF(C61=0,0,IF(C61=$AO$55-1,6,IF(T61=1,IF(V60&lt;=2,V60+1,IF(V60=3,W61,1)),V60)))</f>
+        <v>1</v>
+      </c>
+      <c r="W61" s="23">
+        <f t="shared" ref="W61:W94" si="3">IF(AND(V60=4,W60=4),5,IF(AND(V60=5,W60=5),4,W60))</f>
+        <v>4</v>
+      </c>
+      <c r="X61" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y61" s="23">
         <f>IF(V61=1,Y60,IF(V61=2,IF(Y60=Y59,Y60+P61,Y60),IF(V61=3,Y60+P61,Y60)))</f>
         <v>0</v>
       </c>
-      <c r="Z61" s="24">
+      <c r="Z61" s="23">
         <f>1*NOT(Z60)</f>
         <v>0</v>
       </c>
-      <c r="AA61" s="24">
-        <f t="shared" ref="AA61:AA94" si="3">IF(V61=4,Y61+Z61-1,IF(V61=5,Y61+Z61,Y61))</f>
-        <v>0</v>
-      </c>
-      <c r="AB61" s="24" t="str">
-        <f t="shared" ref="AB61:AB94" si="4">IF(AA61=Q61,"OK","!!!")</f>
+      <c r="AA61" s="23">
+        <f t="shared" ref="AA61:AA94" si="4">IF(V61=4,Y61+Z61-1,IF(V61=5,Y61+Z61,Y61))</f>
+        <v>0</v>
+      </c>
+      <c r="AB61" s="23" t="str">
+        <f t="shared" ref="AB61:AB94" si="5">IF(AA61=Q61,"OK","!!!")</f>
         <v>OK</v>
       </c>
-      <c r="AD61" s="23"/>
-      <c r="AE61" s="21"/>
-      <c r="AO61" s="50"/>
+      <c r="AD61" s="22"/>
+      <c r="AE61" s="20"/>
+      <c r="AO61" s="10"/>
+      <c r="AP61" s="10"/>
+      <c r="AQ61">
+        <f t="shared" ref="AQ61:AQ94" si="6">IF(V61=W61,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AS61">
+        <f t="shared" ref="AS61:AS94" si="7">AS60+AQ60</f>
+        <v>0</v>
+      </c>
+      <c r="AT61">
+        <f t="shared" ref="AT61:AT94" si="8">AS61+IF(AQ60=0,NOT(Z61),0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="62" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12" t="s">
+    <row r="62" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C62" s="12">
-        <v>2</v>
-      </c>
-      <c r="D62" s="12" t="s">
+      <c r="C62" s="11">
+        <v>2</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="12"/>
-      <c r="F62" s="12">
-        <v>1</v>
-      </c>
-      <c r="G62" s="12">
-        <v>0</v>
-      </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="12"/>
-      <c r="O62" s="12"/>
-      <c r="P62" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="24">
+      <c r="E62" s="11"/>
+      <c r="F62" s="11">
+        <v>1</v>
+      </c>
+      <c r="G62" s="11">
+        <v>0</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="23">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="R62" s="24">
+      <c r="R62" s="23">
         <f>IF(OR(C62&lt;2,C62=$AO$55-1),1,IF(T62=1,IF(R61&gt;1,1,X62),R61))</f>
         <v>4</v>
       </c>
-      <c r="S62" s="24">
+      <c r="S62" s="23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T62" s="23">
+        <f t="shared" ref="T62:T94" si="9">IF(S61=C62,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U62" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="V62" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W62" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X62" s="23">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y62" s="23">
+        <f t="shared" ref="Y62:Y94" si="10">IF(V62=1,Y61,IF(V62=2,IF(Y61=Y60,Y61+P62,Y61),IF(V62=3,Y61+P62,Y61)))</f>
+        <v>1</v>
+      </c>
+      <c r="Z62" s="23">
+        <f t="shared" ref="Z62:Z94" si="11">1*NOT(Z61)</f>
+        <v>1</v>
+      </c>
+      <c r="AA62" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB62" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD62" s="20"/>
+      <c r="AE62" s="22"/>
+      <c r="AF62" s="11"/>
+      <c r="AG62" s="11"/>
+      <c r="AH62" s="11"/>
+      <c r="AI62" s="11"/>
+      <c r="AJ62" s="11"/>
+      <c r="AK62" s="11"/>
+      <c r="AL62" s="11"/>
+      <c r="AM62" s="11"/>
+      <c r="AN62" s="11"/>
+      <c r="AO62" s="10"/>
+      <c r="AP62" s="10"/>
+      <c r="AQ62">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="13">
+        <v>3</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13">
+        <v>1</v>
+      </c>
+      <c r="G63" s="13">
+        <v>1</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="15"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="15"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="44">
+        <v>1</v>
+      </c>
+      <c r="R63" s="23">
+        <f t="shared" ref="R63:R94" si="12">IF(OR(C63&lt;2,C63=$AO$55-1),1,IF(T63=1,IF(R62&gt;1,1,X63),R62))</f>
+        <v>4</v>
+      </c>
+      <c r="S63" s="23">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="T62" s="24">
-        <f t="shared" ref="T62:T94" si="5">IF(S61=C62,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="U62" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="V62" s="24">
+      <c r="T63" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="43"/>
+      <c r="V63" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W63" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X63" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y63" s="23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z63" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB63" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD63" s="15"/>
+      <c r="AE63" s="14"/>
+      <c r="AF63" s="15"/>
+      <c r="AG63" s="15"/>
+      <c r="AH63" s="13"/>
+      <c r="AI63" s="13"/>
+      <c r="AJ63" s="13"/>
+      <c r="AK63" s="13"/>
+      <c r="AL63" s="13"/>
+      <c r="AM63" s="13"/>
+      <c r="AN63" s="13"/>
+      <c r="AO63" s="10"/>
+      <c r="AP63" s="10"/>
+      <c r="AQ63">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT63">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="13">
+        <v>4</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13">
+        <v>2</v>
+      </c>
+      <c r="G64" s="13">
+        <v>0</v>
+      </c>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="15"/>
+      <c r="K64" s="15"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="15"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="45">
+        <v>2</v>
+      </c>
+      <c r="R64" s="23">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S64" s="23">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W62" s="24">
+        <v>6</v>
+      </c>
+      <c r="T64" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U64" s="43"/>
+      <c r="V64" s="23">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X62" s="24">
-        <f>IF(AND(R61=loop_length,X61=loop_length),3,IF(AND(R61=3,X61=3),loop_length,X61))</f>
-        <v>4</v>
-      </c>
-      <c r="Y62" s="24">
-        <f t="shared" ref="Y62:Y94" si="6">IF(V62=1,Y61,IF(V62=2,IF(Y61=Y60,Y61+P62,Y61),IF(V62=3,Y61+P62,Y61)))</f>
-        <v>1</v>
-      </c>
-      <c r="Z62" s="24">
-        <f t="shared" ref="Z62:Z94" si="7">1*NOT(Z61)</f>
-        <v>1</v>
-      </c>
-      <c r="AA62" s="24">
+        <v>2</v>
+      </c>
+      <c r="W64" s="23">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AB62" s="24" t="str">
+        <v>4</v>
+      </c>
+      <c r="X64" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y64" s="23">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Z64" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA64" s="23">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB64" s="23" t="str">
+        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="AD62" s="21"/>
-      <c r="AE62" s="23"/>
-      <c r="AF62" s="12"/>
-      <c r="AG62" s="12"/>
-      <c r="AH62" s="12"/>
-      <c r="AI62" s="12"/>
-      <c r="AJ62" s="12"/>
-      <c r="AK62" s="12"/>
-      <c r="AL62" s="12"/>
-      <c r="AM62" s="12"/>
-      <c r="AN62" s="12"/>
-      <c r="AO62" s="49">
-        <v>3</v>
+      <c r="AD64" s="14"/>
+      <c r="AE64" s="15"/>
+      <c r="AF64" s="13"/>
+      <c r="AG64" s="13"/>
+      <c r="AH64" s="13"/>
+      <c r="AI64" s="13"/>
+      <c r="AJ64" s="13"/>
+      <c r="AK64" s="13"/>
+      <c r="AL64" s="13"/>
+      <c r="AM64" s="13"/>
+      <c r="AN64" s="13"/>
+      <c r="AO64" s="10"/>
+      <c r="AP64" s="10"/>
+      <c r="AQ64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS64">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT64">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A63" s="14" t="s">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A65" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B65" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="14">
-        <v>3</v>
-      </c>
-      <c r="D63" s="14" t="s">
+      <c r="C65" s="11">
+        <v>5</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14">
-        <v>1</v>
-      </c>
-      <c r="G63" s="14">
-        <v>1</v>
-      </c>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="46">
-        <v>1</v>
-      </c>
-      <c r="R63" s="24">
-        <f t="shared" ref="R63:R94" si="8">IF(OR(C63&lt;2,C63=$AO$55-1),1,IF(T63=1,IF(R62&gt;1,1,X63),R62))</f>
-        <v>4</v>
-      </c>
-      <c r="S63" s="24">
+      <c r="E65" s="11"/>
+      <c r="F65" s="5">
+        <v>2</v>
+      </c>
+      <c r="G65" s="6">
+        <v>1</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q65" s="23">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="R65" s="23">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S65" s="23">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T65" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W65" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X65" s="23">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="T63" s="24">
+        <v>3</v>
+      </c>
+      <c r="Y65" s="23">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Z65" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB65" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U63" s="45"/>
-      <c r="V63" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W63" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X63" s="24">
-        <f>IF(AND(R62=loop_length,X62=loop_length),3,IF(AND(R62=3,X62=3),loop_length,X62))</f>
-        <v>3</v>
-      </c>
-      <c r="Y63" s="24">
+        <v>OK</v>
+      </c>
+      <c r="AD65" s="16"/>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="11"/>
+      <c r="AG65" s="11"/>
+      <c r="AH65" s="11"/>
+      <c r="AI65" s="11"/>
+      <c r="AJ65" s="11"/>
+      <c r="AK65" s="11"/>
+      <c r="AL65" s="11"/>
+      <c r="AM65" s="11"/>
+      <c r="AN65" s="11"/>
+      <c r="AO65" s="10"/>
+      <c r="AP65" s="10"/>
+      <c r="AQ65">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z63" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS65">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA63" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AB63" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD63" s="16"/>
-      <c r="AE63" s="15"/>
-      <c r="AF63" s="16"/>
-      <c r="AG63" s="16"/>
-      <c r="AH63" s="14"/>
-      <c r="AI63" s="14"/>
-      <c r="AJ63" s="14"/>
-      <c r="AK63" s="14"/>
-      <c r="AL63" s="14"/>
-      <c r="AM63" s="14"/>
-      <c r="AN63" s="14"/>
-      <c r="AO63" s="48"/>
-      <c r="AP63" t="s">
-        <v>18</v>
+      <c r="AT65">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="14">
-        <v>4</v>
-      </c>
-      <c r="D64" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14">
-        <v>2</v>
-      </c>
-      <c r="G64" s="14">
-        <v>0</v>
-      </c>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q64" s="47">
-        <v>2</v>
-      </c>
-      <c r="R64" s="24">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S64" s="24">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="T64" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U64" s="45"/>
-      <c r="V64" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W64" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X64" s="24">
-        <f>IF(AND(R63=loop_length,X63=loop_length),3,IF(AND(R63=3,X63=3),loop_length,X63))</f>
-        <v>3</v>
-      </c>
-      <c r="Y64" s="24">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Z64" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA64" s="24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB64" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD64" s="15"/>
-      <c r="AE64" s="16"/>
-      <c r="AF64" s="14"/>
-      <c r="AG64" s="14"/>
-      <c r="AH64" s="14"/>
-      <c r="AI64" s="14"/>
-      <c r="AJ64" s="14"/>
-      <c r="AK64" s="14"/>
-      <c r="AL64" s="14"/>
-      <c r="AM64" s="14"/>
-      <c r="AN64" s="14"/>
-      <c r="AO64" s="49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="12">
-        <v>5</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="6">
-        <v>2</v>
-      </c>
-      <c r="G65" s="7">
-        <v>1</v>
-      </c>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="24">
-        <f>W-2</f>
-        <v>2</v>
-      </c>
-      <c r="R65" s="24">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S65" s="24">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="T65" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V65" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W65" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X65" s="24">
-        <f>IF(AND(R64=loop_length,X64=loop_length),3,IF(AND(R64=3,X64=3),loop_length,X64))</f>
-        <v>3</v>
-      </c>
-      <c r="Y65" s="24">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Z65" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA65" s="24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB65" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD65" s="17"/>
-      <c r="AE65" s="13"/>
-      <c r="AF65" s="12"/>
-      <c r="AG65" s="12"/>
-      <c r="AH65" s="12"/>
-      <c r="AI65" s="12"/>
-      <c r="AJ65" s="12"/>
-      <c r="AK65" s="12"/>
-      <c r="AL65" s="12"/>
-      <c r="AM65" s="12"/>
-      <c r="AN65" s="12"/>
-      <c r="AO65" s="48"/>
-      <c r="AP65" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="66" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -9201,65 +9246,78 @@
       <c r="G66">
         <v>0</v>
       </c>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="28"/>
-      <c r="P66" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="24">
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="27"/>
+      <c r="P66" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="23">
         <f>W-1</f>
         <v>3</v>
       </c>
-      <c r="R66" s="24">
+      <c r="R66" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S66" s="23">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="T66" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U66" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V66" s="23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="W66" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X66" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y66" s="23">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Z66" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA66" s="23">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AB66" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD66" s="9"/>
+      <c r="AE66" s="10"/>
+      <c r="AO66" s="10"/>
+      <c r="AP66" s="10"/>
+      <c r="AQ66">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT66">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S66" s="24">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="T66" s="24">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U66" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="V66" s="24">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="W66" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X66" s="24">
-        <f>IF(AND(R65=loop_length,X65=loop_length),3,IF(AND(R65=3,X65=3),loop_length,X65))</f>
-        <v>3</v>
-      </c>
-      <c r="Y66" s="24">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Z66" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA66" s="24">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AB66" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD66" s="10"/>
-      <c r="AE66" s="11"/>
-      <c r="AO66" s="50"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="67" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -9272,73 +9330,84 @@
       <c r="D67" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="6">
-        <v>2</v>
-      </c>
-      <c r="G67" s="7">
-        <v>1</v>
-      </c>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="11"/>
-      <c r="P67" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="41">
+      <c r="F67" s="5">
+        <v>2</v>
+      </c>
+      <c r="G67" s="6">
+        <v>1</v>
+      </c>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="10"/>
+      <c r="P67" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="39">
         <f>W-2</f>
         <v>2</v>
       </c>
-      <c r="R67" s="24">
+      <c r="R67" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="S67" s="23">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="T67" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U67" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V67" s="23">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="W67" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X67" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y67" s="23">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Z67" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB67" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD67" s="26"/>
+      <c r="AE67" s="27"/>
+      <c r="AO67" s="10"/>
+      <c r="AP67" s="10"/>
+      <c r="AQ67">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AS67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AT67">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="S67" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T67" s="24">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U67" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="V67" s="24">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W67" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X67" s="24">
-        <f>IF(AND(R66=loop_length,X66=loop_length),3,IF(AND(R66=3,X66=3),loop_length,X66))</f>
-        <v>3</v>
-      </c>
-      <c r="Y67" s="24">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Z67" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB67" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD67" s="27"/>
-      <c r="AE67" s="28"/>
-      <c r="AO67" s="49">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -9357,856 +9426,985 @@
       <c r="G68">
         <v>1</v>
       </c>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
-      <c r="M68" s="10"/>
-      <c r="P68" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="41">
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="9"/>
+      <c r="P68" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="39">
         <f>W-1</f>
         <v>3</v>
       </c>
-      <c r="R68" s="24">
+      <c r="R68" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="S68" s="23">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="T68" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="23">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="W68" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X68" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y68" s="23">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Z68" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA68" s="23">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AB68" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="9"/>
+      <c r="AQ68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS68">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AT68">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="S68" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" s="5">
+        <v>2</v>
+      </c>
+      <c r="G69" s="6">
+        <v>1</v>
+      </c>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="10"/>
+      <c r="P69" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="39">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="R69" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="S69" s="23">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="T69" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="23">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="W69" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X69" s="23">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y69" s="23">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Z69" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA69" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB69" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AE69" s="28"/>
+      <c r="AF69" s="29"/>
+      <c r="AQ69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS69">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AT69">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" t="s">
         <v>10</v>
       </c>
-      <c r="T68" s="24">
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70">
+        <v>3</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="34"/>
+      <c r="P70" s="46">
+        <v>-1</v>
+      </c>
+      <c r="Q70" s="23">
+        <f>W-1</f>
+        <v>3</v>
+      </c>
+      <c r="R70" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S70" s="23">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="T70" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U70" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="V70" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W70" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X70" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y70" s="23">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Z70" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA70" s="23">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AB70" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V68" s="24">
+        <v>OK</v>
+      </c>
+      <c r="AE70" s="30"/>
+      <c r="AF70" s="31"/>
+      <c r="AQ70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS70">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AT70">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="11">
+        <v>11</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" s="11"/>
+      <c r="F71" s="5">
+        <v>2</v>
+      </c>
+      <c r="G71" s="6">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="46">
+        <v>-1</v>
+      </c>
+      <c r="Q71" s="23">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="R71" s="23">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S71" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W68" s="24">
+        <v>15</v>
+      </c>
+      <c r="T71" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U71" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="V71" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W71" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X71" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y71" s="23">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Z71" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB71" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD71" s="11"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="16"/>
+      <c r="AG71" s="11"/>
+      <c r="AH71" s="11"/>
+      <c r="AI71" s="11"/>
+      <c r="AJ71" s="11"/>
+      <c r="AK71" s="11"/>
+      <c r="AL71" s="11"/>
+      <c r="AM71" s="11"/>
+      <c r="AN71" s="11"/>
+      <c r="AQ71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS71">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AT71">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="13">
+        <v>12</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13">
+        <v>2</v>
+      </c>
+      <c r="G72" s="13">
+        <v>2</v>
+      </c>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="15"/>
+      <c r="K72" s="15"/>
+      <c r="L72" s="14"/>
+      <c r="M72" s="15"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="46">
+        <v>-1</v>
+      </c>
+      <c r="Q72" s="44">
+        <v>2</v>
+      </c>
+      <c r="R72" s="23">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S72" s="23">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="T72" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U72" s="43"/>
+      <c r="V72" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W72" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X72" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y72" s="23">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Z72" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA72" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB72" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD72" s="13"/>
+      <c r="AE72" s="15"/>
+      <c r="AF72" s="14"/>
+      <c r="AG72" s="13"/>
+      <c r="AH72" s="13"/>
+      <c r="AI72" s="13"/>
+      <c r="AJ72" s="13"/>
+      <c r="AK72" s="13"/>
+      <c r="AL72" s="13"/>
+      <c r="AM72" s="13"/>
+      <c r="AN72" s="13"/>
+      <c r="AQ72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS72">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AT72">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="13">
+        <v>13</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13">
+        <v>1</v>
+      </c>
+      <c r="G73" s="13">
+        <v>1</v>
+      </c>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="15"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="15"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="46">
+        <v>-1</v>
+      </c>
+      <c r="Q73" s="45">
+        <v>1</v>
+      </c>
+      <c r="R73" s="23">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S73" s="23">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="T73" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U73" s="43"/>
+      <c r="V73" s="23">
+        <f>IF(C73=0,0,IF(C73=$AO$55-1,6,IF(T73=1,IF(V72&lt;=2,V72+1,IF(V72=3,W73,1)),V72)))</f>
+        <v>2</v>
+      </c>
+      <c r="W73" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X73" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y73" s="23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z73" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA73" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB73" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD73" s="13"/>
+      <c r="AE73" s="14"/>
+      <c r="AF73" s="15"/>
+      <c r="AG73" s="13"/>
+      <c r="AH73" s="13"/>
+      <c r="AI73" s="13"/>
+      <c r="AJ73" s="13"/>
+      <c r="AK73" s="13"/>
+      <c r="AL73" s="13"/>
+      <c r="AM73" s="13"/>
+      <c r="AN73" s="13"/>
+      <c r="AQ73">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS73">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AT73">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A74" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" s="11">
+        <v>14</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="11"/>
+      <c r="F74" s="7">
+        <v>1</v>
+      </c>
+      <c r="G74" s="8">
+        <v>2</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="46">
+        <v>-1</v>
+      </c>
+      <c r="Q74" s="23">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="R74" s="23">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S74" s="23">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="T74" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W74" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X74" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y74" s="23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z74" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA74" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB74" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD74" s="11"/>
+      <c r="AE74" s="16"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="11"/>
+      <c r="AH74" s="11"/>
+      <c r="AI74" s="11"/>
+      <c r="AJ74" s="11"/>
+      <c r="AK74" s="11"/>
+      <c r="AL74" s="11"/>
+      <c r="AM74" s="11"/>
+      <c r="AN74" s="11"/>
+      <c r="AQ74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS74">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AT74">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>15</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="J75" s="27"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="P75" s="46">
+        <v>-1</v>
+      </c>
+      <c r="Q75" s="23">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="R75" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S75" s="23">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="T75" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U75" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V75" s="23">
+        <f>IF(C75=0,0,IF(C75=$AO$55-1,6,IF(T75=1,IF(V74&lt;=2,V74+1,IF(V74=3,W75,1)),V74)))</f>
+        <v>3</v>
+      </c>
+      <c r="W75" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X75" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y75" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AE75" s="9"/>
+      <c r="AF75" s="10"/>
+      <c r="AG75" s="10"/>
+      <c r="AQ75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS75">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AT75">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="7">
+        <v>1</v>
+      </c>
+      <c r="G76" s="8">
+        <v>2</v>
+      </c>
+      <c r="K76" s="9"/>
+      <c r="P76" s="46">
+        <v>-1</v>
+      </c>
+      <c r="Q76" s="40">
+        <v>1</v>
+      </c>
+      <c r="R76" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="S76" s="23">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="T76" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U76" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V76" s="23">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="X68" s="24">
-        <f>IF(AND(R67=loop_length,X67=loop_length),3,IF(AND(R67=3,X67=3),loop_length,X67))</f>
-        <v>4</v>
-      </c>
-      <c r="Y68" s="24">
+      <c r="W76" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X76" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y76" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA76" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB76" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AE76" s="26"/>
+      <c r="AF76" s="27"/>
+      <c r="AQ76">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Z68" s="24">
+        <v>1</v>
+      </c>
+      <c r="AS76">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AA68" s="24">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AB68" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD68" s="11"/>
-      <c r="AE68" s="10"/>
-      <c r="AP68" t="s">
-        <v>38</v>
+      <c r="AT76">
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:42" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="77" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>9</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B77" t="s">
         <v>10</v>
       </c>
-      <c r="C69">
-        <v>9</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="C77">
+        <v>17</v>
+      </c>
+      <c r="D77" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="6">
-        <v>2</v>
-      </c>
-      <c r="G69" s="7">
-        <v>1</v>
-      </c>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="11"/>
-      <c r="P69" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="41">
-        <f>W-2</f>
-        <v>2</v>
-      </c>
-      <c r="R69" s="24">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="S69" s="24">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="T69" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="24">
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+      <c r="J77" s="9"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="P77" s="46">
+        <v>-1</v>
+      </c>
+      <c r="Q77" s="40">
+        <v>0</v>
+      </c>
+      <c r="R77" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="S77" s="23">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W69" s="24">
+        <v>19</v>
+      </c>
+      <c r="T77" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="23">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="X69" s="24">
-        <f>IF(AND(R68=loop_length,X68=loop_length),3,IF(AND(R68=3,X68=3),loop_length,X68))</f>
-        <v>4</v>
-      </c>
-      <c r="Y69" s="24">
+      <c r="W77" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X77" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y77" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AF77" s="9"/>
+      <c r="AQ77">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Z69" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS77">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA69" s="24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB69" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AE69" s="29"/>
-      <c r="AF69" s="30"/>
+        <v>2</v>
+      </c>
+      <c r="AT77">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="78" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>9</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B78" t="s">
         <v>10</v>
       </c>
-      <c r="C70">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="C78">
+        <v>18</v>
+      </c>
+      <c r="D78" t="s">
         <v>11</v>
       </c>
-      <c r="F70">
-        <v>3</v>
-      </c>
-      <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="J70" s="36"/>
-      <c r="K70" s="36"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="35"/>
-      <c r="P70" s="51">
+      <c r="F78" s="7">
+        <v>1</v>
+      </c>
+      <c r="G78" s="8">
+        <v>2</v>
+      </c>
+      <c r="J78" s="10"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="10"/>
+      <c r="P78" s="46">
         <v>-1</v>
       </c>
-      <c r="Q70" s="24">
-        <f>W-1</f>
-        <v>3</v>
-      </c>
-      <c r="R70" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S70" s="24">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="T70" s="24">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U70" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="V70" s="24">
+      <c r="Q78" s="40">
+        <v>1</v>
+      </c>
+      <c r="R78" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="S78" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W70" s="24">
+        <v>19</v>
+      </c>
+      <c r="T78" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="23">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="X70" s="24">
-        <f>IF(AND(R69=loop_length,X69=loop_length),3,IF(AND(R69=3,X69=3),loop_length,X69))</f>
-        <v>4</v>
-      </c>
-      <c r="Y70" s="24">
+      <c r="W78" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X78" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y78" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA78" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB78" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AF78" s="28"/>
+      <c r="AG78" s="29"/>
+      <c r="AQ78">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Z70" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS78">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA70" s="24">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AB70" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AE70" s="31"/>
-      <c r="AF70" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="AT78">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="71" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="12">
-        <v>11</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="12"/>
-      <c r="F71" s="6">
-        <v>2</v>
-      </c>
-      <c r="G71" s="7">
-        <v>1</v>
-      </c>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="17"/>
-      <c r="K71" s="17"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="12"/>
-      <c r="O71" s="12"/>
-      <c r="P71" s="51">
-        <v>-1</v>
-      </c>
-      <c r="Q71" s="24">
-        <f>W-2</f>
-        <v>2</v>
-      </c>
-      <c r="R71" s="24">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S71" s="24">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="T71" s="24">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U71" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="V71" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W71" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X71" s="24">
-        <f>IF(AND(R70=loop_length,X70=loop_length),3,IF(AND(R70=3,X70=3),loop_length,X70))</f>
-        <v>4</v>
-      </c>
-      <c r="Y71" s="24">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Z71" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA71" s="24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB71" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD71" s="12"/>
-      <c r="AE71" s="13"/>
-      <c r="AF71" s="17"/>
-      <c r="AG71" s="12"/>
-      <c r="AH71" s="12"/>
-      <c r="AI71" s="12"/>
-      <c r="AJ71" s="12"/>
-      <c r="AK71" s="12"/>
-      <c r="AL71" s="12"/>
-      <c r="AM71" s="12"/>
-      <c r="AN71" s="12"/>
-    </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A72" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="14">
-        <v>12</v>
-      </c>
-      <c r="D72" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14">
-        <v>2</v>
-      </c>
-      <c r="G72" s="14">
-        <v>2</v>
-      </c>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="16"/>
-      <c r="K72" s="16"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="16"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="51">
-        <v>-1</v>
-      </c>
-      <c r="Q72" s="46">
-        <v>2</v>
-      </c>
-      <c r="R72" s="24">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S72" s="24">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="T72" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U72" s="45"/>
-      <c r="V72" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W72" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X72" s="24">
-        <f>IF(AND(R71=loop_length,X71=loop_length),3,IF(AND(R71=3,X71=3),loop_length,X71))</f>
-        <v>3</v>
-      </c>
-      <c r="Y72" s="24">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Z72" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA72" s="24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB72" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD72" s="14"/>
-      <c r="AE72" s="16"/>
-      <c r="AF72" s="15"/>
-      <c r="AG72" s="14"/>
-      <c r="AH72" s="14"/>
-      <c r="AI72" s="14"/>
-      <c r="AJ72" s="14"/>
-      <c r="AK72" s="14"/>
-      <c r="AL72" s="14"/>
-      <c r="AM72" s="14"/>
-      <c r="AN72" s="14"/>
-    </row>
-    <row r="73" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="14">
-        <v>13</v>
-      </c>
-      <c r="D73" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14">
-        <v>1</v>
-      </c>
-      <c r="G73" s="14">
-        <v>1</v>
-      </c>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="16"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="51">
-        <v>-1</v>
-      </c>
-      <c r="Q73" s="47">
-        <v>1</v>
-      </c>
-      <c r="R73" s="24">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S73" s="24">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="T73" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U73" s="45"/>
-      <c r="V73" s="24">
-        <f>IF(C73=0,0,IF(C73=$AO$55-1,6,IF(T73=1,IF(V72&lt;=2,V72+1,IF(V72=3,W73,1)),V72)))</f>
-        <v>2</v>
-      </c>
-      <c r="W73" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X73" s="24">
-        <f>IF(AND(R72=loop_length,X72=loop_length),3,IF(AND(R72=3,X72=3),loop_length,X72))</f>
-        <v>3</v>
-      </c>
-      <c r="Y73" s="24">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z73" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA73" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AB73" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD73" s="14"/>
-      <c r="AE73" s="15"/>
-      <c r="AF73" s="16"/>
-      <c r="AG73" s="14"/>
-      <c r="AH73" s="14"/>
-      <c r="AI73" s="14"/>
-      <c r="AJ73" s="14"/>
-      <c r="AK73" s="14"/>
-      <c r="AL73" s="14"/>
-      <c r="AM73" s="14"/>
-      <c r="AN73" s="14"/>
-    </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C74" s="12">
-        <v>14</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="12"/>
-      <c r="F74" s="8">
-        <v>1</v>
-      </c>
-      <c r="G74" s="9">
-        <v>2</v>
-      </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="12"/>
-      <c r="O74" s="12"/>
-      <c r="P74" s="51">
-        <v>-1</v>
-      </c>
-      <c r="Q74" s="24">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="R74" s="24">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S74" s="24">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="T74" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W74" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X74" s="24">
-        <f>IF(AND(R73=loop_length,X73=loop_length),3,IF(AND(R73=3,X73=3),loop_length,X73))</f>
-        <v>3</v>
-      </c>
-      <c r="Y74" s="24">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z74" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA74" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AB74" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD74" s="12"/>
-      <c r="AE74" s="17"/>
-      <c r="AF74" s="13"/>
-      <c r="AG74" s="12"/>
-      <c r="AH74" s="12"/>
-      <c r="AI74" s="12"/>
-      <c r="AJ74" s="12"/>
-      <c r="AK74" s="12"/>
-      <c r="AL74" s="12"/>
-      <c r="AM74" s="12"/>
-      <c r="AN74" s="12"/>
-    </row>
-    <row r="75" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" t="s">
-        <v>10</v>
-      </c>
-      <c r="C75">
-        <v>15</v>
-      </c>
-      <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="J75" s="28"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="27"/>
-      <c r="P75" s="51">
-        <v>-1</v>
-      </c>
-      <c r="Q75" s="24">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="R75" s="24">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S75" s="24">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="T75" s="24">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U75" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="V75" s="24">
-        <f>IF(C75=0,0,IF(C75=$AO$55-1,6,IF(T75=1,IF(V74&lt;=2,V74+1,IF(V74=3,W75,1)),V74)))</f>
-        <v>3</v>
-      </c>
-      <c r="W75" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X75" s="24">
-        <f>IF(AND(R74=loop_length,X74=loop_length),3,IF(AND(R74=3,X74=3),loop_length,X74))</f>
-        <v>3</v>
-      </c>
-      <c r="Y75" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z75" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA75" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB75" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AE75" s="10"/>
-      <c r="AF75" s="11"/>
-      <c r="AG75" s="11"/>
-    </row>
-    <row r="76" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" t="s">
-        <v>10</v>
-      </c>
-      <c r="C76">
-        <v>16</v>
-      </c>
-      <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="F76" s="8">
-        <v>1</v>
-      </c>
-      <c r="G76" s="9">
-        <v>2</v>
-      </c>
-      <c r="K76" s="10"/>
-      <c r="P76" s="51">
-        <v>-1</v>
-      </c>
-      <c r="Q76" s="42">
-        <v>1</v>
-      </c>
-      <c r="R76" s="24">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="S76" s="24">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="T76" s="24">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U76" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="V76" s="24">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="W76" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X76" s="24">
-        <f>IF(AND(R75=loop_length,X75=loop_length),3,IF(AND(R75=3,X75=3),loop_length,X75))</f>
-        <v>3</v>
-      </c>
-      <c r="Y76" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z76" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA76" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AB76" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AE76" s="27"/>
-      <c r="AF76" s="28"/>
-    </row>
-    <row r="77" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>9</v>
-      </c>
-      <c r="B77" t="s">
-        <v>10</v>
-      </c>
-      <c r="C77">
-        <v>17</v>
-      </c>
-      <c r="D77" t="s">
-        <v>11</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>2</v>
-      </c>
-      <c r="J77" s="10"/>
-      <c r="K77" s="37"/>
-      <c r="L77" s="11"/>
-      <c r="M77" s="11"/>
-      <c r="P77" s="51">
-        <v>-1</v>
-      </c>
-      <c r="Q77" s="42">
-        <v>0</v>
-      </c>
-      <c r="R77" s="24">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="S77" s="24">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="T77" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V77" s="24">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="W77" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X77" s="24">
-        <f>IF(AND(R76=loop_length,X76=loop_length),3,IF(AND(R76=3,X76=3),loop_length,X76))</f>
-        <v>4</v>
-      </c>
-      <c r="Y77" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z77" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AF77" s="10"/>
-    </row>
-    <row r="78" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>9</v>
-      </c>
-      <c r="B78" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78">
-        <v>18</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="8">
-        <v>1</v>
-      </c>
-      <c r="G78" s="9">
-        <v>2</v>
-      </c>
-      <c r="J78" s="11"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="37"/>
-      <c r="M78" s="11"/>
-      <c r="P78" s="51">
-        <v>-1</v>
-      </c>
-      <c r="Q78" s="42">
-        <v>1</v>
-      </c>
-      <c r="R78" s="24">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="S78" s="24">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="T78" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V78" s="24">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="W78" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X78" s="24">
-        <f>IF(AND(R77=loop_length,X77=loop_length),3,IF(AND(R77=3,X77=3),loop_length,X77))</f>
-        <v>4</v>
-      </c>
-      <c r="Y78" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z78" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA78" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AB78" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AF78" s="29"/>
-      <c r="AG78" s="30"/>
-    </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -10225,415 +10423,475 @@
       <c r="G79">
         <v>3</v>
       </c>
-      <c r="J79" s="35"/>
-      <c r="K79" s="36"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="36"/>
-      <c r="P79" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="24">
+      <c r="J79" s="34"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="35"/>
+      <c r="P79" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q79" s="23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="R79" s="24">
+      <c r="R79" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S79" s="23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="T79" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U79" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="V79" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W79" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X79" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y79" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA79" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB79" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AF79" s="30"/>
+      <c r="AG79" s="31"/>
+      <c r="AQ79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS79">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AT79">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S79" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="11">
+        <v>20</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="7">
+        <v>1</v>
+      </c>
+      <c r="G80" s="8">
+        <v>2</v>
+      </c>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
+      <c r="P80" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="23">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="R80" s="23">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S80" s="23">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="T80" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U80" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="V80" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W80" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X80" s="23">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="T79" s="24">
+        <v>4</v>
+      </c>
+      <c r="Y80" s="23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z80" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA80" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB80" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U79" s="24" t="s">
+        <v>OK</v>
+      </c>
+      <c r="AD80" s="11"/>
+      <c r="AE80" s="11"/>
+      <c r="AF80" s="12"/>
+      <c r="AG80" s="16"/>
+      <c r="AH80" s="11"/>
+      <c r="AI80" s="11"/>
+      <c r="AJ80" s="11"/>
+      <c r="AK80" s="11"/>
+      <c r="AL80" s="11"/>
+      <c r="AM80" s="11"/>
+      <c r="AN80" s="11"/>
+      <c r="AQ80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS80">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AT80">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="13">
         <v>21</v>
       </c>
-      <c r="V79" s="24">
+      <c r="D81" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="13"/>
+      <c r="F81" s="13">
+        <v>1</v>
+      </c>
+      <c r="G81" s="13">
+        <v>3</v>
+      </c>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="44">
+        <v>1</v>
+      </c>
+      <c r="R81" s="23">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S81" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W79" s="24">
+        <v>24</v>
+      </c>
+      <c r="T81" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U81" s="43"/>
+      <c r="V81" s="23">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X79" s="24">
-        <f>IF(AND(R78=loop_length,X78=loop_length),3,IF(AND(R78=3,X78=3),loop_length,X78))</f>
-        <v>4</v>
-      </c>
-      <c r="Y79" s="24">
+        <v>2</v>
+      </c>
+      <c r="W81" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X81" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y81" s="23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z81" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA81" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB81" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD81" s="13"/>
+      <c r="AE81" s="13"/>
+      <c r="AF81" s="15"/>
+      <c r="AG81" s="14"/>
+      <c r="AH81" s="13"/>
+      <c r="AI81" s="13"/>
+      <c r="AJ81" s="13"/>
+      <c r="AK81" s="13"/>
+      <c r="AL81" s="13"/>
+      <c r="AM81" s="13"/>
+      <c r="AN81" s="13"/>
+      <c r="AQ81">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Z79" s="24">
+      <c r="AS81">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA79" s="24">
+        <v>2</v>
+      </c>
+      <c r="AT81">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="13">
+        <v>22</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13">
+        <v>2</v>
+      </c>
+      <c r="G82" s="13">
+        <v>2</v>
+      </c>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="14"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="45">
+        <v>2</v>
+      </c>
+      <c r="R82" s="23">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S82" s="23">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="T82" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U82" s="43"/>
+      <c r="V82" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W82" s="23">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB79" s="24" t="str">
+        <v>4</v>
+      </c>
+      <c r="X82" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y82" s="23">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Z82" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA82" s="23">
         <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB82" s="23" t="str">
+        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="AF79" s="31"/>
-      <c r="AG79" s="32"/>
+      <c r="AD82" s="13"/>
+      <c r="AE82" s="13"/>
+      <c r="AF82" s="14"/>
+      <c r="AG82" s="15"/>
+      <c r="AH82" s="13"/>
+      <c r="AI82" s="13"/>
+      <c r="AJ82" s="13"/>
+      <c r="AK82" s="13"/>
+      <c r="AL82" s="13"/>
+      <c r="AM82" s="13"/>
+      <c r="AN82" s="13"/>
+      <c r="AQ82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS82">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AT82">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="80" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="12" t="s">
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A83" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="12">
-        <v>20</v>
-      </c>
-      <c r="D80" s="12" t="s">
+      <c r="C83" s="11">
+        <v>23</v>
+      </c>
+      <c r="D83" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="12"/>
-      <c r="F80" s="8">
-        <v>1</v>
-      </c>
-      <c r="G80" s="9">
-        <v>2</v>
-      </c>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="17"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q80" s="24">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="R80" s="24">
+      <c r="E83" s="11"/>
+      <c r="F83" s="5">
+        <v>2</v>
+      </c>
+      <c r="G83" s="6">
+        <v>3</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
+      <c r="P83" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="23">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="R83" s="23">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S83" s="23">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="T83" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W83" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X83" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y83" s="23">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Z83" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA83" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB83" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD83" s="11"/>
+      <c r="AE83" s="11"/>
+      <c r="AF83" s="16"/>
+      <c r="AG83" s="12"/>
+      <c r="AH83" s="11"/>
+      <c r="AI83" s="11"/>
+      <c r="AJ83" s="11"/>
+      <c r="AK83" s="11"/>
+      <c r="AL83" s="11"/>
+      <c r="AM83" s="11"/>
+      <c r="AN83" s="11"/>
+      <c r="AQ83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS83">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AT83">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S80" s="24">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="T80" s="24">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U80" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="V80" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W80" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X80" s="24">
-        <f>IF(AND(R79=loop_length,X79=loop_length),3,IF(AND(R79=3,X79=3),loop_length,X79))</f>
-        <v>4</v>
-      </c>
-      <c r="Y80" s="24">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z80" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA80" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AB80" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD80" s="12"/>
-      <c r="AE80" s="12"/>
-      <c r="AF80" s="13"/>
-      <c r="AG80" s="17"/>
-      <c r="AH80" s="12"/>
-      <c r="AI80" s="12"/>
-      <c r="AJ80" s="12"/>
-      <c r="AK80" s="12"/>
-      <c r="AL80" s="12"/>
-      <c r="AM80" s="12"/>
-      <c r="AN80" s="12"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="81" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="14">
-        <v>21</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14">
-        <v>1</v>
-      </c>
-      <c r="G81" s="14">
-        <v>3</v>
-      </c>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="15"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="46">
-        <v>1</v>
-      </c>
-      <c r="R81" s="24">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S81" s="24">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="T81" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U81" s="45"/>
-      <c r="V81" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W81" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X81" s="24">
-        <f>IF(AND(R80=loop_length,X80=loop_length),3,IF(AND(R80=3,X80=3),loop_length,X80))</f>
-        <v>3</v>
-      </c>
-      <c r="Y81" s="24">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z81" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA81" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AB81" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="14"/>
-      <c r="AF81" s="16"/>
-      <c r="AG81" s="15"/>
-      <c r="AH81" s="14"/>
-      <c r="AI81" s="14"/>
-      <c r="AJ81" s="14"/>
-      <c r="AK81" s="14"/>
-      <c r="AL81" s="14"/>
-      <c r="AM81" s="14"/>
-      <c r="AN81" s="14"/>
-    </row>
-    <row r="82" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="14">
-        <v>22</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14">
-        <v>2</v>
-      </c>
-      <c r="G82" s="14">
-        <v>2</v>
-      </c>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="14"/>
-      <c r="P82" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q82" s="47">
-        <v>2</v>
-      </c>
-      <c r="R82" s="24">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S82" s="24">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="T82" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U82" s="45"/>
-      <c r="V82" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W82" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X82" s="24">
-        <f>IF(AND(R81=loop_length,X81=loop_length),3,IF(AND(R81=3,X81=3),loop_length,X81))</f>
-        <v>3</v>
-      </c>
-      <c r="Y82" s="24">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Z82" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA82" s="24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB82" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD82" s="14"/>
-      <c r="AE82" s="14"/>
-      <c r="AF82" s="15"/>
-      <c r="AG82" s="16"/>
-      <c r="AH82" s="14"/>
-      <c r="AI82" s="14"/>
-      <c r="AJ82" s="14"/>
-      <c r="AK82" s="14"/>
-      <c r="AL82" s="14"/>
-      <c r="AM82" s="14"/>
-      <c r="AN82" s="14"/>
-    </row>
-    <row r="83" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="12">
-        <v>23</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="6">
-        <v>2</v>
-      </c>
-      <c r="G83" s="7">
-        <v>3</v>
-      </c>
-      <c r="H83" s="12"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="24">
-        <f>W-2</f>
-        <v>2</v>
-      </c>
-      <c r="R83" s="24">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S83" s="24">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="T83" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V83" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W83" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X83" s="24">
-        <f>IF(AND(R82=loop_length,X82=loop_length),3,IF(AND(R82=3,X82=3),loop_length,X82))</f>
-        <v>3</v>
-      </c>
-      <c r="Y83" s="24">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Z83" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA83" s="24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB83" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD83" s="12"/>
-      <c r="AE83" s="12"/>
-      <c r="AF83" s="17"/>
-      <c r="AG83" s="13"/>
-      <c r="AH83" s="12"/>
-      <c r="AI83" s="12"/>
-      <c r="AJ83" s="12"/>
-      <c r="AK83" s="12"/>
-      <c r="AL83" s="12"/>
-      <c r="AM83" s="12"/>
-      <c r="AN83" s="12"/>
-    </row>
-    <row r="84" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -10652,64 +10910,76 @@
       <c r="G84">
         <v>2</v>
       </c>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="28"/>
-      <c r="P84" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q84" s="24">
+      <c r="J84" s="26"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="27"/>
+      <c r="P84" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="23">
         <f>W-1</f>
         <v>3</v>
       </c>
-      <c r="R84" s="24">
+      <c r="R84" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S84" s="23">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="T84" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U84" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V84" s="23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="W84" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X84" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y84" s="23">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Z84" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA84" s="23">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AB84" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AF84" s="9"/>
+      <c r="AG84" s="10"/>
+      <c r="AQ84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS84">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AT84">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S84" s="24">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="T84" s="24">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U84" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="V84" s="24">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="W84" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X84" s="24">
-        <f>IF(AND(R83=loop_length,X83=loop_length),3,IF(AND(R83=3,X83=3),loop_length,X83))</f>
-        <v>3</v>
-      </c>
-      <c r="Y84" s="24">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Z84" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA84" s="24">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AB84" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AF84" s="10"/>
-      <c r="AG84" s="11"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="85" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -10722,70 +10992,82 @@
       <c r="D85" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="6">
-        <v>2</v>
-      </c>
-      <c r="G85" s="7">
-        <v>3</v>
-      </c>
-      <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="11"/>
-      <c r="P85" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="41">
+      <c r="F85" s="5">
+        <v>2</v>
+      </c>
+      <c r="G85" s="6">
+        <v>3</v>
+      </c>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="10"/>
+      <c r="P85" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="39">
         <f>W-2</f>
         <v>2</v>
       </c>
-      <c r="R85" s="24">
+      <c r="R85" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="S85" s="23">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="T85" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U85" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V85" s="23">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="W85" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="X85" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y85" s="23">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Z85" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA85" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB85" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AF85" s="26"/>
+      <c r="AG85" s="27"/>
+      <c r="AQ85">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AS85">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AT85">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="S85" s="24">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="T85" s="24">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U85" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="V85" s="24">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W85" s="24">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="X85" s="24">
-        <f>IF(AND(R84=loop_length,X84=loop_length),3,IF(AND(R84=3,X84=3),loop_length,X84))</f>
-        <v>3</v>
-      </c>
-      <c r="Y85" s="24">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Z85" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA85" s="24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB85" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AF85" s="27"/>
-      <c r="AG85" s="28"/>
     </row>
-    <row r="86" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -10804,60 +11086,72 @@
       <c r="G86">
         <v>3</v>
       </c>
-      <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
-      <c r="M86" s="10"/>
-      <c r="P86" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q86" s="41">
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="9"/>
+      <c r="P86" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="39">
         <f>W-1</f>
         <v>3</v>
       </c>
-      <c r="R86" s="24">
+      <c r="R86" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="S86" s="23">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="T86" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="23">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="W86" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X86" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y86" s="23">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Z86" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA86" s="23">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AB86" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AG86" s="9"/>
+      <c r="AQ86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS86">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AT86">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="S86" s="24">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="T86" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V86" s="24">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W86" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X86" s="24">
-        <f>IF(AND(R85=loop_length,X85=loop_length),3,IF(AND(R85=3,X85=3),loop_length,X85))</f>
-        <v>4</v>
-      </c>
-      <c r="Y86" s="24">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Z86" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA86" s="24">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AB86" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AG86" s="10"/>
     </row>
-    <row r="87" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -10870,67 +11164,79 @@
       <c r="D87" t="s">
         <v>11</v>
       </c>
-      <c r="F87" s="6">
-        <v>2</v>
-      </c>
-      <c r="G87" s="7">
-        <v>3</v>
-      </c>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="11"/>
-      <c r="P87" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q87" s="41">
+      <c r="F87" s="5">
+        <v>2</v>
+      </c>
+      <c r="G87" s="6">
+        <v>3</v>
+      </c>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="10"/>
+      <c r="P87" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="39">
         <f>W-2</f>
         <v>2</v>
       </c>
-      <c r="R87" s="24">
+      <c r="R87" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="S87" s="23">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="T87" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V87" s="23">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="W87" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X87" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y87" s="23">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Z87" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA87" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB87" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AG87" s="28"/>
+      <c r="AH87" s="29"/>
+      <c r="AQ87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS87">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AT87">
         <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
-      <c r="S87" s="24">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="T87" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V87" s="24">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="W87" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X87" s="24">
-        <f>IF(AND(R86=loop_length,X86=loop_length),3,IF(AND(R86=3,X86=3),loop_length,X86))</f>
-        <v>4</v>
-      </c>
-      <c r="Y87" s="24">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Z87" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA87" s="24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB87" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AG87" s="29"/>
-      <c r="AH87" s="30"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="88" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -10949,415 +11255,475 @@
       <c r="G88">
         <v>4</v>
       </c>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="35"/>
-      <c r="P88" s="51">
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="34"/>
+      <c r="P88" s="46">
         <v>-1</v>
       </c>
-      <c r="Q88" s="24">
+      <c r="Q88" s="23">
         <f>W-1</f>
         <v>3</v>
       </c>
-      <c r="R88" s="24">
+      <c r="R88" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S88" s="23">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="T88" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U88" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="V88" s="23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="W88" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X88" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y88" s="23">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="Z88" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA88" s="23">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="AB88" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AG88" s="30"/>
+      <c r="AH88" s="31"/>
+      <c r="AQ88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS88">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AT88">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S88" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="11">
+        <v>29</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" s="11"/>
+      <c r="F89" s="5">
+        <v>2</v>
+      </c>
+      <c r="G89" s="6">
+        <v>3</v>
+      </c>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="16"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
+      <c r="P89" s="46">
+        <v>-1</v>
+      </c>
+      <c r="Q89" s="23">
+        <f>W-2</f>
+        <v>2</v>
+      </c>
+      <c r="R89" s="23">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S89" s="23">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="T89" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U89" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="V89" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W89" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X89" s="23">
         <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="T88" s="24">
+        <v>4</v>
+      </c>
+      <c r="Y89" s="23">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Z89" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA89" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB89" s="23" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U88" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="V88" s="24">
+        <v>OK</v>
+      </c>
+      <c r="AD89" s="11"/>
+      <c r="AE89" s="11"/>
+      <c r="AF89" s="11"/>
+      <c r="AG89" s="12"/>
+      <c r="AH89" s="16"/>
+      <c r="AI89" s="11"/>
+      <c r="AJ89" s="11"/>
+      <c r="AK89" s="11"/>
+      <c r="AL89" s="11"/>
+      <c r="AM89" s="11"/>
+      <c r="AN89" s="11"/>
+      <c r="AQ89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS89">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AT89">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="13">
+        <v>30</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13">
+        <v>2</v>
+      </c>
+      <c r="G90" s="13">
+        <v>4</v>
+      </c>
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="46">
+        <v>-1</v>
+      </c>
+      <c r="Q90" s="44">
+        <v>2</v>
+      </c>
+      <c r="R90" s="23">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S90" s="23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="W88" s="24">
+        <v>33</v>
+      </c>
+      <c r="T90" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U90" s="43"/>
+      <c r="V90" s="23">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W90" s="23">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="X88" s="24">
-        <f>IF(AND(R87=loop_length,X87=loop_length),3,IF(AND(R87=3,X87=3),loop_length,X87))</f>
-        <v>4</v>
-      </c>
-      <c r="Y88" s="24">
+      <c r="X90" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y90" s="23">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Z90" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA90" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AB90" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD90" s="13"/>
+      <c r="AE90" s="13"/>
+      <c r="AF90" s="13"/>
+      <c r="AG90" s="15"/>
+      <c r="AH90" s="14"/>
+      <c r="AI90" s="13"/>
+      <c r="AJ90" s="13"/>
+      <c r="AK90" s="13"/>
+      <c r="AL90" s="13"/>
+      <c r="AM90" s="13"/>
+      <c r="AN90" s="13"/>
+      <c r="AQ90">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="Z88" s="24">
+        <v>0</v>
+      </c>
+      <c r="AS90">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA88" s="24">
+        <v>3</v>
+      </c>
+      <c r="AT90">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="13">
+        <v>31</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13">
+        <v>1</v>
+      </c>
+      <c r="G91" s="13">
+        <v>3</v>
+      </c>
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="13"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="46">
+        <v>-1</v>
+      </c>
+      <c r="Q91" s="45">
+        <v>1</v>
+      </c>
+      <c r="R91" s="23">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S91" s="23">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="T91" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U91" s="43"/>
+      <c r="V91" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W91" s="23">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="AB88" s="24" t="str">
+        <v>5</v>
+      </c>
+      <c r="X91" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y91" s="23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z91" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA91" s="23">
         <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB91" s="23" t="str">
+        <f t="shared" si="5"/>
         <v>OK</v>
       </c>
-      <c r="AG88" s="31"/>
-      <c r="AH88" s="32"/>
+      <c r="AD91" s="13"/>
+      <c r="AE91" s="13"/>
+      <c r="AF91" s="13"/>
+      <c r="AG91" s="14"/>
+      <c r="AH91" s="15"/>
+      <c r="AI91" s="13"/>
+      <c r="AJ91" s="13"/>
+      <c r="AK91" s="13"/>
+      <c r="AL91" s="13"/>
+      <c r="AM91" s="13"/>
+      <c r="AN91" s="13"/>
+      <c r="AQ91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS91">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AT91">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="89" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="12" t="s">
+    <row r="92" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A92" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B92" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C89" s="12">
-        <v>29</v>
-      </c>
-      <c r="D89" s="12" t="s">
+      <c r="C92" s="11">
+        <v>32</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E89" s="12"/>
-      <c r="F89" s="6">
-        <v>2</v>
-      </c>
-      <c r="G89" s="7">
-        <v>3</v>
-      </c>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="51">
+      <c r="E92" s="11"/>
+      <c r="F92" s="11">
+        <v>1</v>
+      </c>
+      <c r="G92" s="11">
+        <v>4</v>
+      </c>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="11"/>
+      <c r="P92" s="46">
         <v>-1</v>
       </c>
-      <c r="Q89" s="24">
-        <f>W-2</f>
-        <v>2</v>
-      </c>
-      <c r="R89" s="24">
+      <c r="Q92" s="23">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="R92" s="23">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="S92" s="23">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="T92" s="23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="23">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="W92" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X92" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y92" s="23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="Z92" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA92" s="23">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AB92" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AD92" s="11"/>
+      <c r="AE92" s="11"/>
+      <c r="AF92" s="11"/>
+      <c r="AG92" s="22"/>
+      <c r="AH92" s="20"/>
+      <c r="AI92" s="11"/>
+      <c r="AJ92" s="11"/>
+      <c r="AK92" s="11"/>
+      <c r="AL92" s="11"/>
+      <c r="AM92" s="11"/>
+      <c r="AN92" s="11"/>
+      <c r="AQ92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS92">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AT92">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S89" s="24">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="T89" s="24">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U89" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="V89" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W89" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X89" s="24">
-        <f>IF(AND(R88=loop_length,X88=loop_length),3,IF(AND(R88=3,X88=3),loop_length,X88))</f>
-        <v>4</v>
-      </c>
-      <c r="Y89" s="24">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Z89" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA89" s="24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB89" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD89" s="12"/>
-      <c r="AE89" s="12"/>
-      <c r="AF89" s="12"/>
-      <c r="AG89" s="13"/>
-      <c r="AH89" s="17"/>
-      <c r="AI89" s="12"/>
-      <c r="AJ89" s="12"/>
-      <c r="AK89" s="12"/>
-      <c r="AL89" s="12"/>
-      <c r="AM89" s="12"/>
-      <c r="AN89" s="12"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="90" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="14">
-        <v>30</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14">
-        <v>2</v>
-      </c>
-      <c r="G90" s="14">
-        <v>4</v>
-      </c>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="16"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="16"/>
-      <c r="N90" s="16"/>
-      <c r="O90" s="16"/>
-      <c r="P90" s="51">
-        <v>-1</v>
-      </c>
-      <c r="Q90" s="46">
-        <v>2</v>
-      </c>
-      <c r="R90" s="24">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S90" s="24">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="T90" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U90" s="45"/>
-      <c r="V90" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W90" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X90" s="24">
-        <f>IF(AND(R89=loop_length,X89=loop_length),3,IF(AND(R89=3,X89=3),loop_length,X89))</f>
-        <v>3</v>
-      </c>
-      <c r="Y90" s="24">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="Z90" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA90" s="24">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="AB90" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD90" s="14"/>
-      <c r="AE90" s="14"/>
-      <c r="AF90" s="14"/>
-      <c r="AG90" s="16"/>
-      <c r="AH90" s="15"/>
-      <c r="AI90" s="14"/>
-      <c r="AJ90" s="14"/>
-      <c r="AK90" s="14"/>
-      <c r="AL90" s="14"/>
-      <c r="AM90" s="14"/>
-      <c r="AN90" s="14"/>
-    </row>
-    <row r="91" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="14">
-        <v>31</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14">
-        <v>1</v>
-      </c>
-      <c r="G91" s="14">
-        <v>3</v>
-      </c>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="15"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="51">
-        <v>-1</v>
-      </c>
-      <c r="Q91" s="47">
-        <v>1</v>
-      </c>
-      <c r="R91" s="24">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S91" s="24">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="T91" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U91" s="45"/>
-      <c r="V91" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W91" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X91" s="24">
-        <f>IF(AND(R90=loop_length,X90=loop_length),3,IF(AND(R90=3,X90=3),loop_length,X90))</f>
-        <v>3</v>
-      </c>
-      <c r="Y91" s="24">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z91" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA91" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AB91" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD91" s="14"/>
-      <c r="AE91" s="14"/>
-      <c r="AF91" s="14"/>
-      <c r="AG91" s="15"/>
-      <c r="AH91" s="16"/>
-      <c r="AI91" s="14"/>
-      <c r="AJ91" s="14"/>
-      <c r="AK91" s="14"/>
-      <c r="AL91" s="14"/>
-      <c r="AM91" s="14"/>
-      <c r="AN91" s="14"/>
-    </row>
-    <row r="92" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92" s="12">
-        <v>32</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12">
-        <v>1</v>
-      </c>
-      <c r="G92" s="12">
-        <v>4</v>
-      </c>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="13"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="51">
-        <v>-1</v>
-      </c>
-      <c r="Q92" s="24">
-        <f>1</f>
-        <v>1</v>
-      </c>
-      <c r="R92" s="24">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="S92" s="24">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="T92" s="24">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V92" s="24">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="W92" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X92" s="24">
-        <f>IF(AND(R91=loop_length,X91=loop_length),3,IF(AND(R91=3,X91=3),loop_length,X91))</f>
-        <v>3</v>
-      </c>
-      <c r="Y92" s="24">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="Z92" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA92" s="24">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AB92" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AD92" s="12"/>
-      <c r="AE92" s="12"/>
-      <c r="AF92" s="12"/>
-      <c r="AG92" s="23"/>
-      <c r="AH92" s="21"/>
-      <c r="AI92" s="12"/>
-      <c r="AJ92" s="12"/>
-      <c r="AK92" s="12"/>
-      <c r="AL92" s="12"/>
-      <c r="AM92" s="12"/>
-      <c r="AN92" s="12"/>
-    </row>
-    <row r="93" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -11376,64 +11742,76 @@
       <c r="G93" s="4">
         <v>3</v>
       </c>
-      <c r="J93" s="28"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="27"/>
-      <c r="P93" s="51">
+      <c r="J93" s="27"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="26"/>
+      <c r="P93" s="46">
         <v>-1</v>
       </c>
-      <c r="Q93" s="24">
+      <c r="Q93" s="23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="R93" s="24">
+      <c r="R93" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S93" s="23">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="T93" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U93" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V93" s="23">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="W93" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X93" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y93" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z93" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA93" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB93" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AG93" s="20"/>
+      <c r="AH93" s="22"/>
+      <c r="AQ93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS93">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AT93">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="S93" s="24">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="T93" s="24">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U93" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="V93" s="24">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="W93" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X93" s="24">
-        <f>IF(AND(R92=loop_length,X92=loop_length),3,IF(AND(R92=3,X92=3),loop_length,X92))</f>
-        <v>3</v>
-      </c>
-      <c r="Y93" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z93" s="24">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AA93" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB93" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AG93" s="21"/>
-      <c r="AH93" s="23"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="94" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -11452,114 +11830,126 @@
       <c r="G94" s="4">
         <v>4</v>
       </c>
-      <c r="J94" s="10"/>
-      <c r="Q94" s="44">
+      <c r="J94" s="9"/>
+      <c r="Q94" s="42">
         <f>Q93</f>
         <v>0</v>
       </c>
-      <c r="R94" s="24">
+      <c r="R94" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T94" s="23">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="U94" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="W94" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="X94" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y94" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AA94" s="23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB94" s="23" t="str">
+        <f t="shared" si="5"/>
+        <v>OK</v>
+      </c>
+      <c r="AG94" s="32"/>
+      <c r="AH94" s="33"/>
+      <c r="AQ94">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AS94">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AT94">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="T94" s="24">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="U94" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="24">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="W94" s="24">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="X94" s="24">
-        <f>IF(AND(R93=loop_length,X93=loop_length),3,IF(AND(R93=3,X93=3),loop_length,X93))</f>
-        <v>3</v>
-      </c>
-      <c r="Y94" s="24">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z94" s="24">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AA94" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB94" s="24" t="str">
-        <f t="shared" si="4"/>
-        <v>OK</v>
-      </c>
-      <c r="AG94" s="33"/>
-      <c r="AH94" s="34"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="96" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="N97" s="18" t="s">
+      <c r="N97" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="O97" s="11"/>
-      <c r="P97" s="52"/>
-      <c r="AJ97" s="18" t="s">
+      <c r="O97" s="10"/>
+      <c r="P97" s="47"/>
+      <c r="AJ97" s="17" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J98" s="19">
-        <v>0</v>
-      </c>
-      <c r="K98" s="19">
-        <v>1</v>
-      </c>
-      <c r="L98" s="19">
-        <v>2</v>
-      </c>
-      <c r="M98" s="19">
-        <v>3</v>
-      </c>
-      <c r="N98" s="20">
-        <v>4</v>
-      </c>
-      <c r="O98" s="40"/>
-      <c r="P98" s="53"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39"/>
-      <c r="S98" s="39"/>
-      <c r="T98" s="39"/>
-      <c r="U98" s="39"/>
-      <c r="V98" s="39"/>
-      <c r="W98" s="39"/>
-      <c r="X98" s="39"/>
-      <c r="Y98" s="39"/>
-      <c r="Z98" s="39"/>
-      <c r="AA98" s="39"/>
-      <c r="AB98" s="39"/>
-      <c r="AC98" s="39"/>
-      <c r="AD98" s="19">
-        <v>0</v>
-      </c>
-      <c r="AE98" s="19">
-        <v>1</v>
-      </c>
-      <c r="AF98" s="19">
-        <v>2</v>
-      </c>
-      <c r="AG98" s="19">
-        <v>3</v>
-      </c>
-      <c r="AH98" s="19">
-        <v>4</v>
-      </c>
-      <c r="AI98" s="19">
+      <c r="J98" s="18">
+        <v>0</v>
+      </c>
+      <c r="K98" s="18">
+        <v>1</v>
+      </c>
+      <c r="L98" s="18">
+        <v>2</v>
+      </c>
+      <c r="M98" s="18">
+        <v>3</v>
+      </c>
+      <c r="N98" s="19">
+        <v>4</v>
+      </c>
+      <c r="O98" s="38"/>
+      <c r="P98" s="48"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="37"/>
+      <c r="T98" s="37"/>
+      <c r="U98" s="37"/>
+      <c r="V98" s="37"/>
+      <c r="W98" s="37"/>
+      <c r="X98" s="37"/>
+      <c r="Y98" s="37"/>
+      <c r="Z98" s="37"/>
+      <c r="AA98" s="37"/>
+      <c r="AB98" s="37"/>
+      <c r="AC98" s="37"/>
+      <c r="AD98" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="18">
+        <v>1</v>
+      </c>
+      <c r="AF98" s="18">
+        <v>2</v>
+      </c>
+      <c r="AG98" s="18">
+        <v>3</v>
+      </c>
+      <c r="AH98" s="18">
+        <v>4</v>
+      </c>
+      <c r="AI98" s="18">
         <v>5</v>
       </c>
-      <c r="AJ98" s="20">
+      <c r="AJ98" s="19">
         <v>6</v>
       </c>
     </row>
@@ -11585,13 +11975,13 @@
       <c r="G99" s="4">
         <v>0</v>
       </c>
-      <c r="J99" s="10"/>
-      <c r="Q99" s="22">
+      <c r="J99" s="9"/>
+      <c r="Q99" s="21">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AD99" s="25"/>
-      <c r="AE99" s="26"/>
+      <c r="AD99" s="24"/>
+      <c r="AE99" s="25"/>
     </row>
     <row r="100" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -11615,226 +12005,226 @@
       <c r="G100" s="4">
         <v>1</v>
       </c>
-      <c r="J100" s="10"/>
-      <c r="P100" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q100" s="24">
+      <c r="J100" s="9"/>
+      <c r="P100" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AD100" s="23"/>
-      <c r="AE100" s="21"/>
+      <c r="AD100" s="22"/>
+      <c r="AE100" s="20"/>
     </row>
     <row r="101" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C101" s="12">
-        <v>2</v>
-      </c>
-      <c r="D101" s="12" t="s">
+      <c r="C101" s="11">
+        <v>2</v>
+      </c>
+      <c r="D101" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E101" s="12"/>
-      <c r="F101" s="12">
-        <v>1</v>
-      </c>
-      <c r="G101" s="12">
-        <v>0</v>
-      </c>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="12"/>
-      <c r="O101" s="12"/>
-      <c r="P101" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q101" s="24">
+      <c r="E101" s="11"/>
+      <c r="F101" s="11">
+        <v>1</v>
+      </c>
+      <c r="G101" s="11">
+        <v>0</v>
+      </c>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
+      <c r="P101" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="23">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="AD101" s="21"/>
-      <c r="AE101" s="23"/>
-      <c r="AF101" s="12"/>
-      <c r="AG101" s="12"/>
-      <c r="AH101" s="12"/>
-      <c r="AI101" s="12"/>
-      <c r="AJ101" s="12"/>
-      <c r="AK101" s="12"/>
-      <c r="AL101" s="12"/>
-      <c r="AM101" s="12"/>
-      <c r="AN101" s="12"/>
+      <c r="AD101" s="20"/>
+      <c r="AE101" s="22"/>
+      <c r="AF101" s="11"/>
+      <c r="AG101" s="11"/>
+      <c r="AH101" s="11"/>
+      <c r="AI101" s="11"/>
+      <c r="AJ101" s="11"/>
+      <c r="AK101" s="11"/>
+      <c r="AL101" s="11"/>
+      <c r="AM101" s="11"/>
+      <c r="AN101" s="11"/>
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="14">
-        <v>3</v>
-      </c>
-      <c r="D102" s="14" t="s">
+      <c r="C102" s="13">
+        <v>3</v>
+      </c>
+      <c r="D102" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14">
-        <v>1</v>
-      </c>
-      <c r="G102" s="14">
-        <v>1</v>
-      </c>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="14"/>
-      <c r="K102" s="15"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="14"/>
-      <c r="N102" s="14"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q102" s="46">
-        <v>1</v>
-      </c>
-      <c r="R102" s="45"/>
-      <c r="S102" s="45"/>
-      <c r="T102" s="45"/>
-      <c r="U102" s="45"/>
-      <c r="V102" s="45"/>
-      <c r="W102" s="31"/>
-      <c r="X102" s="31"/>
-      <c r="Y102" s="31"/>
-      <c r="Z102" s="31"/>
-      <c r="AA102" s="31"/>
-      <c r="AB102" s="31"/>
-      <c r="AC102" s="31"/>
-      <c r="AD102" s="16"/>
-      <c r="AE102" s="15"/>
-      <c r="AF102" s="16"/>
-      <c r="AG102" s="16"/>
-      <c r="AH102" s="14"/>
-      <c r="AI102" s="14"/>
-      <c r="AJ102" s="14"/>
-      <c r="AK102" s="14"/>
-      <c r="AL102" s="14"/>
-      <c r="AM102" s="14"/>
-      <c r="AN102" s="14"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13">
+        <v>1</v>
+      </c>
+      <c r="G102" s="13">
+        <v>1</v>
+      </c>
+      <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="44">
+        <v>1</v>
+      </c>
+      <c r="R102" s="43"/>
+      <c r="S102" s="43"/>
+      <c r="T102" s="43"/>
+      <c r="U102" s="43"/>
+      <c r="V102" s="43"/>
+      <c r="W102" s="30"/>
+      <c r="X102" s="30"/>
+      <c r="Y102" s="30"/>
+      <c r="Z102" s="30"/>
+      <c r="AA102" s="30"/>
+      <c r="AB102" s="30"/>
+      <c r="AC102" s="30"/>
+      <c r="AD102" s="15"/>
+      <c r="AE102" s="14"/>
+      <c r="AF102" s="15"/>
+      <c r="AG102" s="15"/>
+      <c r="AH102" s="13"/>
+      <c r="AI102" s="13"/>
+      <c r="AJ102" s="13"/>
+      <c r="AK102" s="13"/>
+      <c r="AL102" s="13"/>
+      <c r="AM102" s="13"/>
+      <c r="AN102" s="13"/>
     </row>
     <row r="103" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C103" s="14">
-        <v>4</v>
-      </c>
-      <c r="D103" s="14" t="s">
+      <c r="C103" s="13">
+        <v>4</v>
+      </c>
+      <c r="D103" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14">
-        <v>2</v>
-      </c>
-      <c r="G103" s="14">
-        <v>0</v>
-      </c>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="14"/>
-      <c r="K103" s="16"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q103" s="47">
-        <v>2</v>
-      </c>
-      <c r="R103" s="45"/>
-      <c r="S103" s="45"/>
-      <c r="T103" s="45"/>
-      <c r="U103" s="45"/>
-      <c r="V103" s="45"/>
-      <c r="W103" s="31"/>
-      <c r="X103" s="31"/>
-      <c r="Y103" s="31"/>
-      <c r="Z103" s="31"/>
-      <c r="AA103" s="31"/>
-      <c r="AB103" s="31"/>
-      <c r="AC103" s="31"/>
-      <c r="AD103" s="15"/>
-      <c r="AE103" s="16"/>
-      <c r="AF103" s="14"/>
-      <c r="AG103" s="14"/>
-      <c r="AH103" s="14"/>
-      <c r="AI103" s="14"/>
-      <c r="AJ103" s="14"/>
-      <c r="AK103" s="14"/>
-      <c r="AL103" s="14"/>
-      <c r="AM103" s="14"/>
-      <c r="AN103" s="14"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13">
+        <v>2</v>
+      </c>
+      <c r="G103" s="13">
+        <v>0</v>
+      </c>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="15"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q103" s="45">
+        <v>2</v>
+      </c>
+      <c r="R103" s="43"/>
+      <c r="S103" s="43"/>
+      <c r="T103" s="43"/>
+      <c r="U103" s="43"/>
+      <c r="V103" s="43"/>
+      <c r="W103" s="30"/>
+      <c r="X103" s="30"/>
+      <c r="Y103" s="30"/>
+      <c r="Z103" s="30"/>
+      <c r="AA103" s="30"/>
+      <c r="AB103" s="30"/>
+      <c r="AC103" s="30"/>
+      <c r="AD103" s="14"/>
+      <c r="AE103" s="15"/>
+      <c r="AF103" s="13"/>
+      <c r="AG103" s="13"/>
+      <c r="AH103" s="13"/>
+      <c r="AI103" s="13"/>
+      <c r="AJ103" s="13"/>
+      <c r="AK103" s="13"/>
+      <c r="AL103" s="13"/>
+      <c r="AM103" s="13"/>
+      <c r="AN103" s="13"/>
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="11">
         <v>5</v>
       </c>
-      <c r="D104" s="12" t="s">
+      <c r="D104" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E104" s="12"/>
-      <c r="F104" s="6">
-        <v>2</v>
-      </c>
-      <c r="G104" s="7">
-        <v>1</v>
-      </c>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q104" s="24">
+      <c r="E104" s="11"/>
+      <c r="F104" s="5">
+        <v>2</v>
+      </c>
+      <c r="G104" s="6">
+        <v>1</v>
+      </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="16"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="23">
         <f>W-2</f>
         <v>2</v>
       </c>
-      <c r="AD104" s="17"/>
-      <c r="AE104" s="13"/>
-      <c r="AF104" s="12"/>
-      <c r="AG104" s="12"/>
-      <c r="AH104" s="12"/>
-      <c r="AI104" s="12"/>
-      <c r="AJ104" s="12"/>
-      <c r="AK104" s="12"/>
-      <c r="AL104" s="12"/>
-      <c r="AM104" s="12"/>
-      <c r="AN104" s="12"/>
+      <c r="AD104" s="16"/>
+      <c r="AE104" s="12"/>
+      <c r="AF104" s="11"/>
+      <c r="AG104" s="11"/>
+      <c r="AH104" s="11"/>
+      <c r="AI104" s="11"/>
+      <c r="AJ104" s="11"/>
+      <c r="AK104" s="11"/>
+      <c r="AL104" s="11"/>
+      <c r="AM104" s="11"/>
+      <c r="AN104" s="11"/>
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -11855,16 +12245,16 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="M105" s="10"/>
-      <c r="P105" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q105" s="24">
+      <c r="M105" s="9"/>
+      <c r="P105" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="23">
         <f>W-1</f>
         <v>3</v>
       </c>
-      <c r="AD105" s="10"/>
-      <c r="AE105" s="11"/>
+      <c r="AD105" s="9"/>
+      <c r="AE105" s="10"/>
     </row>
     <row r="106" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
@@ -11879,22 +12269,22 @@
       <c r="D106" t="s">
         <v>11</v>
       </c>
-      <c r="F106" s="6">
-        <v>2</v>
-      </c>
-      <c r="G106" s="7">
-        <v>1</v>
-      </c>
-      <c r="L106" s="10"/>
-      <c r="P106" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="41">
+      <c r="F106" s="5">
+        <v>2</v>
+      </c>
+      <c r="G106" s="6">
+        <v>1</v>
+      </c>
+      <c r="L106" s="9"/>
+      <c r="P106" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="39">
         <f>W-2</f>
         <v>2</v>
       </c>
-      <c r="AD106" s="27"/>
-      <c r="AE106" s="28"/>
+      <c r="AD106" s="26"/>
+      <c r="AE106" s="27"/>
     </row>
     <row r="107" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
@@ -11915,16 +12305,16 @@
       <c r="G107">
         <v>1</v>
       </c>
-      <c r="M107" s="10"/>
-      <c r="P107" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="41">
+      <c r="M107" s="9"/>
+      <c r="P107" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="39">
         <f>W-1</f>
         <v>3</v>
       </c>
-      <c r="AD107" s="11"/>
-      <c r="AE107" s="10"/>
+      <c r="AD107" s="10"/>
+      <c r="AE107" s="9"/>
     </row>
     <row r="108" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -11939,22 +12329,22 @@
       <c r="D108" t="s">
         <v>11</v>
       </c>
-      <c r="F108" s="6">
-        <v>2</v>
-      </c>
-      <c r="G108" s="7">
-        <v>1</v>
-      </c>
-      <c r="L108" s="10"/>
-      <c r="P108" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q108" s="41">
+      <c r="F108" s="5">
+        <v>2</v>
+      </c>
+      <c r="G108" s="6">
+        <v>1</v>
+      </c>
+      <c r="L108" s="9"/>
+      <c r="P108" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q108" s="39">
         <f>W-2</f>
         <v>2</v>
       </c>
-      <c r="AE108" s="29"/>
-      <c r="AF108" s="30"/>
+      <c r="AE108" s="28"/>
+      <c r="AF108" s="29"/>
     </row>
     <row r="109" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -11975,226 +12365,226 @@
       <c r="G109">
         <v>2</v>
       </c>
-      <c r="M109" s="10"/>
-      <c r="P109" s="51">
+      <c r="M109" s="9"/>
+      <c r="P109" s="46">
         <v>-1</v>
       </c>
-      <c r="Q109" s="24">
+      <c r="Q109" s="23">
         <f>W-1</f>
         <v>3</v>
       </c>
-      <c r="AE109" s="31"/>
-      <c r="AF109" s="32"/>
+      <c r="AE109" s="30"/>
+      <c r="AF109" s="31"/>
     </row>
     <row r="110" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="12">
+      <c r="C110" s="11">
         <v>11</v>
       </c>
-      <c r="D110" s="12" t="s">
+      <c r="D110" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="12"/>
-      <c r="F110" s="6">
-        <v>2</v>
-      </c>
-      <c r="G110" s="7">
-        <v>1</v>
-      </c>
-      <c r="H110" s="12"/>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="13"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="51">
+      <c r="E110" s="11"/>
+      <c r="F110" s="5">
+        <v>2</v>
+      </c>
+      <c r="G110" s="6">
+        <v>1</v>
+      </c>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="11"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
+      <c r="P110" s="46">
         <v>-1</v>
       </c>
-      <c r="Q110" s="24">
+      <c r="Q110" s="23">
         <f>W-2</f>
         <v>2</v>
       </c>
-      <c r="AD110" s="12"/>
-      <c r="AE110" s="13"/>
-      <c r="AF110" s="17"/>
-      <c r="AG110" s="12"/>
-      <c r="AH110" s="12"/>
-      <c r="AI110" s="12"/>
-      <c r="AJ110" s="12"/>
-      <c r="AK110" s="12"/>
-      <c r="AL110" s="12"/>
-      <c r="AM110" s="12"/>
-      <c r="AN110" s="12"/>
+      <c r="AD110" s="11"/>
+      <c r="AE110" s="12"/>
+      <c r="AF110" s="16"/>
+      <c r="AG110" s="11"/>
+      <c r="AH110" s="11"/>
+      <c r="AI110" s="11"/>
+      <c r="AJ110" s="11"/>
+      <c r="AK110" s="11"/>
+      <c r="AL110" s="11"/>
+      <c r="AM110" s="11"/>
+      <c r="AN110" s="11"/>
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C111" s="14">
+      <c r="C111" s="13">
         <v>12</v>
       </c>
-      <c r="D111" s="14" t="s">
+      <c r="D111" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14">
-        <v>2</v>
-      </c>
-      <c r="G111" s="14">
-        <v>2</v>
-      </c>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="14"/>
-      <c r="K111" s="14"/>
-      <c r="L111" s="15"/>
-      <c r="M111" s="14"/>
-      <c r="N111" s="14"/>
-      <c r="O111" s="14"/>
-      <c r="P111" s="51">
+      <c r="E111" s="13"/>
+      <c r="F111" s="13">
+        <v>2</v>
+      </c>
+      <c r="G111" s="13">
+        <v>2</v>
+      </c>
+      <c r="H111" s="13"/>
+      <c r="I111" s="13"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="13"/>
+      <c r="O111" s="13"/>
+      <c r="P111" s="46">
         <v>-1</v>
       </c>
-      <c r="Q111" s="46">
-        <v>2</v>
-      </c>
-      <c r="R111" s="45"/>
-      <c r="S111" s="45"/>
-      <c r="T111" s="45"/>
-      <c r="U111" s="45"/>
-      <c r="V111" s="45"/>
-      <c r="W111" s="31"/>
-      <c r="X111" s="31"/>
-      <c r="Y111" s="31"/>
-      <c r="Z111" s="31"/>
-      <c r="AA111" s="31"/>
-      <c r="AB111" s="31"/>
-      <c r="AC111" s="31"/>
-      <c r="AD111" s="14"/>
-      <c r="AE111" s="16"/>
-      <c r="AF111" s="15"/>
-      <c r="AG111" s="14"/>
-      <c r="AH111" s="14"/>
-      <c r="AI111" s="14"/>
-      <c r="AJ111" s="14"/>
-      <c r="AK111" s="14"/>
-      <c r="AL111" s="14"/>
-      <c r="AM111" s="14"/>
-      <c r="AN111" s="14"/>
+      <c r="Q111" s="44">
+        <v>2</v>
+      </c>
+      <c r="R111" s="43"/>
+      <c r="S111" s="43"/>
+      <c r="T111" s="43"/>
+      <c r="U111" s="43"/>
+      <c r="V111" s="43"/>
+      <c r="W111" s="30"/>
+      <c r="X111" s="30"/>
+      <c r="Y111" s="30"/>
+      <c r="Z111" s="30"/>
+      <c r="AA111" s="30"/>
+      <c r="AB111" s="30"/>
+      <c r="AC111" s="30"/>
+      <c r="AD111" s="13"/>
+      <c r="AE111" s="15"/>
+      <c r="AF111" s="14"/>
+      <c r="AG111" s="13"/>
+      <c r="AH111" s="13"/>
+      <c r="AI111" s="13"/>
+      <c r="AJ111" s="13"/>
+      <c r="AK111" s="13"/>
+      <c r="AL111" s="13"/>
+      <c r="AM111" s="13"/>
+      <c r="AN111" s="13"/>
     </row>
     <row r="112" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="14">
+      <c r="C112" s="13">
         <v>13</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D112" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14">
-        <v>1</v>
-      </c>
-      <c r="G112" s="14">
-        <v>1</v>
-      </c>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="14"/>
-      <c r="K112" s="15"/>
-      <c r="L112" s="14"/>
-      <c r="M112" s="14"/>
-      <c r="N112" s="14"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="51">
+      <c r="E112" s="13"/>
+      <c r="F112" s="13">
+        <v>1</v>
+      </c>
+      <c r="G112" s="13">
+        <v>1</v>
+      </c>
+      <c r="H112" s="13"/>
+      <c r="I112" s="13"/>
+      <c r="J112" s="13"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="13"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="13"/>
+      <c r="O112" s="13"/>
+      <c r="P112" s="46">
         <v>-1</v>
       </c>
-      <c r="Q112" s="47">
-        <v>1</v>
-      </c>
-      <c r="R112" s="45"/>
-      <c r="S112" s="45"/>
-      <c r="T112" s="45"/>
-      <c r="U112" s="45"/>
-      <c r="V112" s="45"/>
-      <c r="W112" s="31"/>
-      <c r="X112" s="31"/>
-      <c r="Y112" s="31"/>
-      <c r="Z112" s="31"/>
-      <c r="AA112" s="31"/>
-      <c r="AB112" s="31"/>
-      <c r="AC112" s="31"/>
-      <c r="AD112" s="14"/>
-      <c r="AE112" s="15"/>
-      <c r="AF112" s="16"/>
-      <c r="AG112" s="14"/>
-      <c r="AH112" s="14"/>
-      <c r="AI112" s="14"/>
-      <c r="AJ112" s="14"/>
-      <c r="AK112" s="14"/>
-      <c r="AL112" s="14"/>
-      <c r="AM112" s="14"/>
-      <c r="AN112" s="14"/>
+      <c r="Q112" s="45">
+        <v>1</v>
+      </c>
+      <c r="R112" s="43"/>
+      <c r="S112" s="43"/>
+      <c r="T112" s="43"/>
+      <c r="U112" s="43"/>
+      <c r="V112" s="43"/>
+      <c r="W112" s="30"/>
+      <c r="X112" s="30"/>
+      <c r="Y112" s="30"/>
+      <c r="Z112" s="30"/>
+      <c r="AA112" s="30"/>
+      <c r="AB112" s="30"/>
+      <c r="AC112" s="30"/>
+      <c r="AD112" s="13"/>
+      <c r="AE112" s="14"/>
+      <c r="AF112" s="15"/>
+      <c r="AG112" s="13"/>
+      <c r="AH112" s="13"/>
+      <c r="AI112" s="13"/>
+      <c r="AJ112" s="13"/>
+      <c r="AK112" s="13"/>
+      <c r="AL112" s="13"/>
+      <c r="AM112" s="13"/>
+      <c r="AN112" s="13"/>
     </row>
     <row r="113" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C113" s="12">
+      <c r="C113" s="11">
         <v>14</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="D113" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E113" s="12"/>
-      <c r="F113" s="8">
-        <v>1</v>
-      </c>
-      <c r="G113" s="9">
-        <v>2</v>
-      </c>
-      <c r="H113" s="12"/>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="51">
+      <c r="E113" s="11"/>
+      <c r="F113" s="7">
+        <v>1</v>
+      </c>
+      <c r="G113" s="8">
+        <v>2</v>
+      </c>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="46">
         <v>-1</v>
       </c>
-      <c r="Q113" s="24">
+      <c r="Q113" s="23">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="AD113" s="12"/>
-      <c r="AE113" s="17"/>
-      <c r="AF113" s="13"/>
-      <c r="AG113" s="12"/>
-      <c r="AH113" s="12"/>
-      <c r="AI113" s="12"/>
-      <c r="AJ113" s="12"/>
-      <c r="AK113" s="12"/>
-      <c r="AL113" s="12"/>
-      <c r="AM113" s="12"/>
-      <c r="AN113" s="12"/>
+      <c r="AD113" s="11"/>
+      <c r="AE113" s="16"/>
+      <c r="AF113" s="12"/>
+      <c r="AG113" s="11"/>
+      <c r="AH113" s="11"/>
+      <c r="AI113" s="11"/>
+      <c r="AJ113" s="11"/>
+      <c r="AK113" s="11"/>
+      <c r="AL113" s="11"/>
+      <c r="AM113" s="11"/>
+      <c r="AN113" s="11"/>
     </row>
     <row r="114" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -12215,19 +12605,19 @@
       <c r="G114">
         <v>1</v>
       </c>
-      <c r="J114" s="10"/>
-      <c r="K114" s="11"/>
-      <c r="L114" s="11"/>
-      <c r="P114" s="51">
+      <c r="J114" s="9"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="P114" s="46">
         <v>-1</v>
       </c>
-      <c r="Q114" s="24">
+      <c r="Q114" s="23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AE114" s="10"/>
-      <c r="AF114" s="11"/>
-      <c r="AG114" s="11"/>
+      <c r="AE114" s="9"/>
+      <c r="AF114" s="10"/>
+      <c r="AG114" s="10"/>
     </row>
     <row r="115" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
@@ -12242,21 +12632,21 @@
       <c r="D115" t="s">
         <v>11</v>
       </c>
-      <c r="F115" s="8">
-        <v>1</v>
-      </c>
-      <c r="G115" s="9">
-        <v>2</v>
-      </c>
-      <c r="K115" s="10"/>
-      <c r="P115" s="51">
+      <c r="F115" s="7">
+        <v>1</v>
+      </c>
+      <c r="G115" s="8">
+        <v>2</v>
+      </c>
+      <c r="K115" s="9"/>
+      <c r="P115" s="46">
         <v>-1</v>
       </c>
-      <c r="Q115" s="42">
-        <v>1</v>
-      </c>
-      <c r="AE115" s="27"/>
-      <c r="AF115" s="28"/>
+      <c r="Q115" s="40">
+        <v>1</v>
+      </c>
+      <c r="AE115" s="26"/>
+      <c r="AF115" s="27"/>
     </row>
     <row r="116" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
@@ -12277,14 +12667,14 @@
       <c r="G116">
         <v>2</v>
       </c>
-      <c r="J116" s="10"/>
-      <c r="P116" s="51">
+      <c r="J116" s="9"/>
+      <c r="P116" s="46">
         <v>-1</v>
       </c>
-      <c r="Q116" s="42">
-        <v>0</v>
-      </c>
-      <c r="AF116" s="10"/>
+      <c r="Q116" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF116" s="9"/>
     </row>
     <row r="117" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -12299,21 +12689,21 @@
       <c r="D117" t="s">
         <v>11</v>
       </c>
-      <c r="F117" s="8">
-        <v>1</v>
-      </c>
-      <c r="G117" s="9">
-        <v>2</v>
-      </c>
-      <c r="K117" s="10"/>
-      <c r="P117" s="51">
+      <c r="F117" s="7">
+        <v>1</v>
+      </c>
+      <c r="G117" s="8">
+        <v>2</v>
+      </c>
+      <c r="K117" s="9"/>
+      <c r="P117" s="46">
         <v>-1</v>
       </c>
-      <c r="Q117" s="42">
-        <v>1</v>
-      </c>
-      <c r="AF117" s="29"/>
-      <c r="AG117" s="30"/>
+      <c r="Q117" s="40">
+        <v>1</v>
+      </c>
+      <c r="AF117" s="28"/>
+      <c r="AG117" s="29"/>
     </row>
     <row r="118" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -12334,226 +12724,226 @@
       <c r="G118">
         <v>3</v>
       </c>
-      <c r="J118" s="10"/>
-      <c r="P118" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q118" s="24">
+      <c r="J118" s="9"/>
+      <c r="P118" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q118" s="23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AF118" s="31"/>
-      <c r="AG118" s="32"/>
+      <c r="AF118" s="30"/>
+      <c r="AG118" s="31"/>
     </row>
     <row r="119" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="12">
+      <c r="C119" s="11">
         <v>20</v>
       </c>
-      <c r="D119" s="12" t="s">
+      <c r="D119" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E119" s="12"/>
-      <c r="F119" s="8">
-        <v>1</v>
-      </c>
-      <c r="G119" s="9">
-        <v>2</v>
-      </c>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="13"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="12"/>
-      <c r="P119" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q119" s="24">
+      <c r="E119" s="11"/>
+      <c r="F119" s="7">
+        <v>1</v>
+      </c>
+      <c r="G119" s="8">
+        <v>2</v>
+      </c>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="11"/>
+      <c r="O119" s="11"/>
+      <c r="P119" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q119" s="23">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="AD119" s="12"/>
-      <c r="AE119" s="12"/>
-      <c r="AF119" s="13"/>
-      <c r="AG119" s="17"/>
-      <c r="AH119" s="12"/>
-      <c r="AI119" s="12"/>
-      <c r="AJ119" s="12"/>
-      <c r="AK119" s="12"/>
-      <c r="AL119" s="12"/>
-      <c r="AM119" s="12"/>
-      <c r="AN119" s="12"/>
+      <c r="AD119" s="11"/>
+      <c r="AE119" s="11"/>
+      <c r="AF119" s="12"/>
+      <c r="AG119" s="16"/>
+      <c r="AH119" s="11"/>
+      <c r="AI119" s="11"/>
+      <c r="AJ119" s="11"/>
+      <c r="AK119" s="11"/>
+      <c r="AL119" s="11"/>
+      <c r="AM119" s="11"/>
+      <c r="AN119" s="11"/>
     </row>
     <row r="120" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="14">
+      <c r="C120" s="13">
         <v>21</v>
       </c>
-      <c r="D120" s="14" t="s">
+      <c r="D120" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14">
-        <v>1</v>
-      </c>
-      <c r="G120" s="14">
-        <v>3</v>
-      </c>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="14"/>
-      <c r="K120" s="15"/>
-      <c r="L120" s="14"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="14"/>
-      <c r="O120" s="14"/>
-      <c r="P120" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q120" s="46">
-        <v>1</v>
-      </c>
-      <c r="R120" s="45"/>
-      <c r="S120" s="45"/>
-      <c r="T120" s="45"/>
-      <c r="U120" s="45"/>
-      <c r="V120" s="45"/>
-      <c r="W120" s="31"/>
-      <c r="X120" s="31"/>
-      <c r="Y120" s="31"/>
-      <c r="Z120" s="31"/>
-      <c r="AA120" s="31"/>
-      <c r="AB120" s="31"/>
-      <c r="AC120" s="31"/>
-      <c r="AD120" s="14"/>
-      <c r="AE120" s="14"/>
-      <c r="AF120" s="16"/>
-      <c r="AG120" s="15"/>
-      <c r="AH120" s="14"/>
-      <c r="AI120" s="14"/>
-      <c r="AJ120" s="14"/>
-      <c r="AK120" s="14"/>
-      <c r="AL120" s="14"/>
-      <c r="AM120" s="14"/>
-      <c r="AN120" s="14"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13">
+        <v>1</v>
+      </c>
+      <c r="G120" s="13">
+        <v>3</v>
+      </c>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="13"/>
+      <c r="O120" s="13"/>
+      <c r="P120" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q120" s="44">
+        <v>1</v>
+      </c>
+      <c r="R120" s="43"/>
+      <c r="S120" s="43"/>
+      <c r="T120" s="43"/>
+      <c r="U120" s="43"/>
+      <c r="V120" s="43"/>
+      <c r="W120" s="30"/>
+      <c r="X120" s="30"/>
+      <c r="Y120" s="30"/>
+      <c r="Z120" s="30"/>
+      <c r="AA120" s="30"/>
+      <c r="AB120" s="30"/>
+      <c r="AC120" s="30"/>
+      <c r="AD120" s="13"/>
+      <c r="AE120" s="13"/>
+      <c r="AF120" s="15"/>
+      <c r="AG120" s="14"/>
+      <c r="AH120" s="13"/>
+      <c r="AI120" s="13"/>
+      <c r="AJ120" s="13"/>
+      <c r="AK120" s="13"/>
+      <c r="AL120" s="13"/>
+      <c r="AM120" s="13"/>
+      <c r="AN120" s="13"/>
     </row>
     <row r="121" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C121" s="14">
+      <c r="C121" s="13">
         <v>22</v>
       </c>
-      <c r="D121" s="14" t="s">
+      <c r="D121" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14">
-        <v>2</v>
-      </c>
-      <c r="G121" s="14">
-        <v>2</v>
-      </c>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="14"/>
-      <c r="K121" s="14"/>
-      <c r="L121" s="15"/>
-      <c r="M121" s="14"/>
-      <c r="N121" s="14"/>
-      <c r="O121" s="14"/>
-      <c r="P121" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q121" s="47">
-        <v>2</v>
-      </c>
-      <c r="R121" s="45"/>
-      <c r="S121" s="45"/>
-      <c r="T121" s="45"/>
-      <c r="U121" s="45"/>
-      <c r="V121" s="45"/>
-      <c r="W121" s="31"/>
-      <c r="X121" s="31"/>
-      <c r="Y121" s="31"/>
-      <c r="Z121" s="31"/>
-      <c r="AA121" s="31"/>
-      <c r="AB121" s="31"/>
-      <c r="AC121" s="31"/>
-      <c r="AD121" s="14"/>
-      <c r="AE121" s="14"/>
-      <c r="AF121" s="15"/>
-      <c r="AG121" s="16"/>
-      <c r="AH121" s="14"/>
-      <c r="AI121" s="14"/>
-      <c r="AJ121" s="14"/>
-      <c r="AK121" s="14"/>
-      <c r="AL121" s="14"/>
-      <c r="AM121" s="14"/>
-      <c r="AN121" s="14"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13">
+        <v>2</v>
+      </c>
+      <c r="G121" s="13">
+        <v>2</v>
+      </c>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="14"/>
+      <c r="M121" s="13"/>
+      <c r="N121" s="13"/>
+      <c r="O121" s="13"/>
+      <c r="P121" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q121" s="45">
+        <v>2</v>
+      </c>
+      <c r="R121" s="43"/>
+      <c r="S121" s="43"/>
+      <c r="T121" s="43"/>
+      <c r="U121" s="43"/>
+      <c r="V121" s="43"/>
+      <c r="W121" s="30"/>
+      <c r="X121" s="30"/>
+      <c r="Y121" s="30"/>
+      <c r="Z121" s="30"/>
+      <c r="AA121" s="30"/>
+      <c r="AB121" s="30"/>
+      <c r="AC121" s="30"/>
+      <c r="AD121" s="13"/>
+      <c r="AE121" s="13"/>
+      <c r="AF121" s="14"/>
+      <c r="AG121" s="15"/>
+      <c r="AH121" s="13"/>
+      <c r="AI121" s="13"/>
+      <c r="AJ121" s="13"/>
+      <c r="AK121" s="13"/>
+      <c r="AL121" s="13"/>
+      <c r="AM121" s="13"/>
+      <c r="AN121" s="13"/>
     </row>
     <row r="122" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
+      <c r="A122" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C122" s="12">
+      <c r="C122" s="11">
         <v>23</v>
       </c>
-      <c r="D122" s="12" t="s">
+      <c r="D122" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="12"/>
-      <c r="F122" s="6">
-        <v>2</v>
-      </c>
-      <c r="G122" s="7">
-        <v>3</v>
-      </c>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="13"/>
-      <c r="M122" s="12"/>
-      <c r="N122" s="12"/>
-      <c r="O122" s="12"/>
-      <c r="P122" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q122" s="24">
+      <c r="E122" s="11"/>
+      <c r="F122" s="5">
+        <v>2</v>
+      </c>
+      <c r="G122" s="6">
+        <v>3</v>
+      </c>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="23">
         <f>W-2</f>
         <v>2</v>
       </c>
-      <c r="AD122" s="12"/>
-      <c r="AE122" s="12"/>
-      <c r="AF122" s="17"/>
-      <c r="AG122" s="13"/>
-      <c r="AH122" s="12"/>
-      <c r="AI122" s="12"/>
-      <c r="AJ122" s="12"/>
-      <c r="AK122" s="12"/>
-      <c r="AL122" s="12"/>
-      <c r="AM122" s="12"/>
-      <c r="AN122" s="12"/>
+      <c r="AD122" s="11"/>
+      <c r="AE122" s="11"/>
+      <c r="AF122" s="16"/>
+      <c r="AG122" s="12"/>
+      <c r="AH122" s="11"/>
+      <c r="AI122" s="11"/>
+      <c r="AJ122" s="11"/>
+      <c r="AK122" s="11"/>
+      <c r="AL122" s="11"/>
+      <c r="AM122" s="11"/>
+      <c r="AN122" s="11"/>
     </row>
     <row r="123" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -12574,16 +12964,16 @@
       <c r="G123">
         <v>2</v>
       </c>
-      <c r="M123" s="10"/>
-      <c r="P123" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q123" s="24">
+      <c r="M123" s="9"/>
+      <c r="P123" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="23">
         <f>W-1</f>
         <v>3</v>
       </c>
-      <c r="AF123" s="10"/>
-      <c r="AG123" s="11"/>
+      <c r="AF123" s="9"/>
+      <c r="AG123" s="10"/>
     </row>
     <row r="124" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
@@ -12598,22 +12988,22 @@
       <c r="D124" t="s">
         <v>11</v>
       </c>
-      <c r="F124" s="6">
-        <v>2</v>
-      </c>
-      <c r="G124" s="7">
-        <v>3</v>
-      </c>
-      <c r="L124" s="10"/>
-      <c r="P124" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q124" s="41">
+      <c r="F124" s="5">
+        <v>2</v>
+      </c>
+      <c r="G124" s="6">
+        <v>3</v>
+      </c>
+      <c r="L124" s="9"/>
+      <c r="P124" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="39">
         <f>W-2</f>
         <v>2</v>
       </c>
-      <c r="AF124" s="27"/>
-      <c r="AG124" s="28"/>
+      <c r="AF124" s="26"/>
+      <c r="AG124" s="27"/>
     </row>
     <row r="125" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
@@ -12634,15 +13024,15 @@
       <c r="G125">
         <v>3</v>
       </c>
-      <c r="M125" s="10"/>
-      <c r="P125" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q125" s="41">
+      <c r="M125" s="9"/>
+      <c r="P125" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="39">
         <f>W-1</f>
         <v>3</v>
       </c>
-      <c r="AG125" s="10"/>
+      <c r="AG125" s="9"/>
     </row>
     <row r="126" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -12657,22 +13047,22 @@
       <c r="D126" t="s">
         <v>11</v>
       </c>
-      <c r="F126" s="6">
-        <v>2</v>
-      </c>
-      <c r="G126" s="7">
-        <v>3</v>
-      </c>
-      <c r="L126" s="10"/>
-      <c r="P126" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q126" s="41">
+      <c r="F126" s="5">
+        <v>2</v>
+      </c>
+      <c r="G126" s="6">
+        <v>3</v>
+      </c>
+      <c r="L126" s="9"/>
+      <c r="P126" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="39">
         <f>W-2</f>
         <v>2</v>
       </c>
-      <c r="AG126" s="29"/>
-      <c r="AH126" s="30"/>
+      <c r="AG126" s="28"/>
+      <c r="AH126" s="29"/>
     </row>
     <row r="127" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -12693,226 +13083,226 @@
       <c r="G127">
         <v>4</v>
       </c>
-      <c r="M127" s="10"/>
-      <c r="P127" s="51">
+      <c r="M127" s="9"/>
+      <c r="P127" s="46">
         <v>-1</v>
       </c>
-      <c r="Q127" s="24">
+      <c r="Q127" s="23">
         <f>W-1</f>
         <v>3</v>
       </c>
-      <c r="AG127" s="31"/>
-      <c r="AH127" s="32"/>
+      <c r="AG127" s="30"/>
+      <c r="AH127" s="31"/>
     </row>
     <row r="128" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="12" t="s">
+      <c r="A128" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C128" s="12">
+      <c r="C128" s="11">
         <v>29</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="D128" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E128" s="12"/>
-      <c r="F128" s="6">
-        <v>2</v>
-      </c>
-      <c r="G128" s="7">
-        <v>3</v>
-      </c>
-      <c r="H128" s="12"/>
-      <c r="I128" s="12"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="13"/>
-      <c r="M128" s="12"/>
-      <c r="N128" s="12"/>
-      <c r="O128" s="12"/>
-      <c r="P128" s="51">
+      <c r="E128" s="11"/>
+      <c r="F128" s="5">
+        <v>2</v>
+      </c>
+      <c r="G128" s="6">
+        <v>3</v>
+      </c>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="11"/>
+      <c r="O128" s="11"/>
+      <c r="P128" s="46">
         <v>-1</v>
       </c>
-      <c r="Q128" s="24">
+      <c r="Q128" s="23">
         <f>W-2</f>
         <v>2</v>
       </c>
-      <c r="AD128" s="12"/>
-      <c r="AE128" s="12"/>
-      <c r="AF128" s="12"/>
-      <c r="AG128" s="13"/>
-      <c r="AH128" s="17"/>
-      <c r="AI128" s="12"/>
-      <c r="AJ128" s="12"/>
-      <c r="AK128" s="12"/>
-      <c r="AL128" s="12"/>
-      <c r="AM128" s="12"/>
-      <c r="AN128" s="12"/>
+      <c r="AD128" s="11"/>
+      <c r="AE128" s="11"/>
+      <c r="AF128" s="11"/>
+      <c r="AG128" s="12"/>
+      <c r="AH128" s="16"/>
+      <c r="AI128" s="11"/>
+      <c r="AJ128" s="11"/>
+      <c r="AK128" s="11"/>
+      <c r="AL128" s="11"/>
+      <c r="AM128" s="11"/>
+      <c r="AN128" s="11"/>
     </row>
     <row r="129" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
+      <c r="A129" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C129" s="14">
+      <c r="C129" s="13">
         <v>30</v>
       </c>
-      <c r="D129" s="14" t="s">
+      <c r="D129" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14">
-        <v>2</v>
-      </c>
-      <c r="G129" s="14">
-        <v>4</v>
-      </c>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="14"/>
-      <c r="K129" s="14"/>
-      <c r="L129" s="15"/>
-      <c r="M129" s="16"/>
-      <c r="N129" s="16"/>
-      <c r="O129" s="16"/>
-      <c r="P129" s="51">
+      <c r="E129" s="13"/>
+      <c r="F129" s="13">
+        <v>2</v>
+      </c>
+      <c r="G129" s="13">
+        <v>4</v>
+      </c>
+      <c r="H129" s="13"/>
+      <c r="I129" s="13"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="14"/>
+      <c r="M129" s="15"/>
+      <c r="N129" s="15"/>
+      <c r="O129" s="15"/>
+      <c r="P129" s="46">
         <v>-1</v>
       </c>
-      <c r="Q129" s="46">
-        <v>2</v>
-      </c>
-      <c r="R129" s="45"/>
-      <c r="S129" s="45"/>
-      <c r="T129" s="45"/>
-      <c r="U129" s="45"/>
-      <c r="V129" s="45"/>
-      <c r="W129" s="31"/>
-      <c r="X129" s="31"/>
-      <c r="Y129" s="31"/>
-      <c r="Z129" s="31"/>
-      <c r="AA129" s="31"/>
-      <c r="AB129" s="31"/>
-      <c r="AC129" s="31"/>
-      <c r="AD129" s="14"/>
-      <c r="AE129" s="14"/>
-      <c r="AF129" s="14"/>
-      <c r="AG129" s="16"/>
-      <c r="AH129" s="15"/>
-      <c r="AI129" s="14"/>
-      <c r="AJ129" s="14"/>
-      <c r="AK129" s="14"/>
-      <c r="AL129" s="14"/>
-      <c r="AM129" s="14"/>
-      <c r="AN129" s="14"/>
+      <c r="Q129" s="44">
+        <v>2</v>
+      </c>
+      <c r="R129" s="43"/>
+      <c r="S129" s="43"/>
+      <c r="T129" s="43"/>
+      <c r="U129" s="43"/>
+      <c r="V129" s="43"/>
+      <c r="W129" s="30"/>
+      <c r="X129" s="30"/>
+      <c r="Y129" s="30"/>
+      <c r="Z129" s="30"/>
+      <c r="AA129" s="30"/>
+      <c r="AB129" s="30"/>
+      <c r="AC129" s="30"/>
+      <c r="AD129" s="13"/>
+      <c r="AE129" s="13"/>
+      <c r="AF129" s="13"/>
+      <c r="AG129" s="15"/>
+      <c r="AH129" s="14"/>
+      <c r="AI129" s="13"/>
+      <c r="AJ129" s="13"/>
+      <c r="AK129" s="13"/>
+      <c r="AL129" s="13"/>
+      <c r="AM129" s="13"/>
+      <c r="AN129" s="13"/>
     </row>
     <row r="130" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="14" t="s">
+      <c r="A130" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C130" s="14">
+      <c r="C130" s="13">
         <v>31</v>
       </c>
-      <c r="D130" s="14" t="s">
+      <c r="D130" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14">
-        <v>1</v>
-      </c>
-      <c r="G130" s="14">
-        <v>3</v>
-      </c>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="14"/>
-      <c r="K130" s="15"/>
-      <c r="L130" s="14"/>
-      <c r="M130" s="14"/>
-      <c r="N130" s="14"/>
-      <c r="O130" s="14"/>
-      <c r="P130" s="51">
+      <c r="E130" s="13"/>
+      <c r="F130" s="13">
+        <v>1</v>
+      </c>
+      <c r="G130" s="13">
+        <v>3</v>
+      </c>
+      <c r="H130" s="13"/>
+      <c r="I130" s="13"/>
+      <c r="J130" s="13"/>
+      <c r="K130" s="14"/>
+      <c r="L130" s="13"/>
+      <c r="M130" s="13"/>
+      <c r="N130" s="13"/>
+      <c r="O130" s="13"/>
+      <c r="P130" s="46">
         <v>-1</v>
       </c>
-      <c r="Q130" s="47">
-        <v>1</v>
-      </c>
-      <c r="R130" s="45"/>
-      <c r="S130" s="45"/>
-      <c r="T130" s="45"/>
-      <c r="U130" s="45"/>
-      <c r="V130" s="45"/>
-      <c r="W130" s="31"/>
-      <c r="X130" s="31"/>
-      <c r="Y130" s="31"/>
-      <c r="Z130" s="31"/>
-      <c r="AA130" s="31"/>
-      <c r="AB130" s="31"/>
-      <c r="AC130" s="31"/>
-      <c r="AD130" s="14"/>
-      <c r="AE130" s="14"/>
-      <c r="AF130" s="14"/>
-      <c r="AG130" s="15"/>
-      <c r="AH130" s="16"/>
-      <c r="AI130" s="14"/>
-      <c r="AJ130" s="14"/>
-      <c r="AK130" s="14"/>
-      <c r="AL130" s="14"/>
-      <c r="AM130" s="14"/>
-      <c r="AN130" s="14"/>
+      <c r="Q130" s="45">
+        <v>1</v>
+      </c>
+      <c r="R130" s="43"/>
+      <c r="S130" s="43"/>
+      <c r="T130" s="43"/>
+      <c r="U130" s="43"/>
+      <c r="V130" s="43"/>
+      <c r="W130" s="30"/>
+      <c r="X130" s="30"/>
+      <c r="Y130" s="30"/>
+      <c r="Z130" s="30"/>
+      <c r="AA130" s="30"/>
+      <c r="AB130" s="30"/>
+      <c r="AC130" s="30"/>
+      <c r="AD130" s="13"/>
+      <c r="AE130" s="13"/>
+      <c r="AF130" s="13"/>
+      <c r="AG130" s="14"/>
+      <c r="AH130" s="15"/>
+      <c r="AI130" s="13"/>
+      <c r="AJ130" s="13"/>
+      <c r="AK130" s="13"/>
+      <c r="AL130" s="13"/>
+      <c r="AM130" s="13"/>
+      <c r="AN130" s="13"/>
     </row>
     <row r="131" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C131" s="12">
+      <c r="C131" s="11">
         <v>32</v>
       </c>
-      <c r="D131" s="12" t="s">
+      <c r="D131" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E131" s="12"/>
-      <c r="F131" s="8">
-        <v>1</v>
-      </c>
-      <c r="G131" s="9">
-        <v>4</v>
-      </c>
-      <c r="H131" s="12"/>
-      <c r="I131" s="12"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="13"/>
-      <c r="L131" s="12"/>
-      <c r="M131" s="12"/>
-      <c r="N131" s="12"/>
-      <c r="O131" s="12"/>
-      <c r="P131" s="51">
+      <c r="E131" s="11"/>
+      <c r="F131" s="7">
+        <v>1</v>
+      </c>
+      <c r="G131" s="8">
+        <v>4</v>
+      </c>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="11"/>
+      <c r="M131" s="11"/>
+      <c r="N131" s="11"/>
+      <c r="O131" s="11"/>
+      <c r="P131" s="46">
         <v>-1</v>
       </c>
-      <c r="Q131" s="24">
+      <c r="Q131" s="23">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="AD131" s="12"/>
-      <c r="AE131" s="12"/>
-      <c r="AF131" s="12"/>
-      <c r="AG131" s="17"/>
-      <c r="AH131" s="13"/>
-      <c r="AI131" s="12"/>
-      <c r="AJ131" s="12"/>
-      <c r="AK131" s="12"/>
-      <c r="AL131" s="12"/>
-      <c r="AM131" s="12"/>
-      <c r="AN131" s="12"/>
+      <c r="AD131" s="11"/>
+      <c r="AE131" s="11"/>
+      <c r="AF131" s="11"/>
+      <c r="AG131" s="16"/>
+      <c r="AH131" s="12"/>
+      <c r="AI131" s="11"/>
+      <c r="AJ131" s="11"/>
+      <c r="AK131" s="11"/>
+      <c r="AL131" s="11"/>
+      <c r="AM131" s="11"/>
+      <c r="AN131" s="11"/>
     </row>
     <row r="132" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -12933,18 +13323,18 @@
       <c r="G132">
         <v>2</v>
       </c>
-      <c r="J132" s="10"/>
-      <c r="K132" s="11"/>
-      <c r="L132" s="11"/>
-      <c r="P132" s="51">
+      <c r="J132" s="9"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="P132" s="46">
         <v>-1</v>
       </c>
-      <c r="Q132" s="24">
+      <c r="Q132" s="23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AG132" s="10"/>
-      <c r="AH132" s="11"/>
+      <c r="AG132" s="9"/>
+      <c r="AH132" s="10"/>
     </row>
     <row r="133" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
@@ -12959,21 +13349,21 @@
       <c r="D133" t="s">
         <v>11</v>
       </c>
-      <c r="F133" s="8">
-        <v>1</v>
-      </c>
-      <c r="G133" s="9">
-        <v>1</v>
-      </c>
-      <c r="K133" s="10"/>
-      <c r="P133" s="51">
+      <c r="F133" s="7">
+        <v>1</v>
+      </c>
+      <c r="G133" s="8">
+        <v>1</v>
+      </c>
+      <c r="K133" s="9"/>
+      <c r="P133" s="46">
         <v>-1</v>
       </c>
-      <c r="Q133" s="42">
-        <v>1</v>
-      </c>
-      <c r="AG133" s="27"/>
-      <c r="AH133" s="28"/>
+      <c r="Q133" s="40">
+        <v>1</v>
+      </c>
+      <c r="AG133" s="26"/>
+      <c r="AH133" s="27"/>
     </row>
     <row r="134" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
@@ -12994,14 +13384,14 @@
       <c r="G134">
         <v>2</v>
       </c>
-      <c r="J134" s="10"/>
-      <c r="P134" s="51">
+      <c r="J134" s="9"/>
+      <c r="P134" s="46">
         <v>-1</v>
       </c>
-      <c r="Q134" s="42">
-        <v>0</v>
-      </c>
-      <c r="AH134" s="10"/>
+      <c r="Q134" s="40">
+        <v>0</v>
+      </c>
+      <c r="AH134" s="9"/>
     </row>
     <row r="135" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -13016,21 +13406,21 @@
       <c r="D135" t="s">
         <v>11</v>
       </c>
-      <c r="F135" s="8">
-        <v>1</v>
-      </c>
-      <c r="G135" s="9">
-        <v>2</v>
-      </c>
-      <c r="K135" s="10"/>
-      <c r="P135" s="51">
+      <c r="F135" s="7">
+        <v>1</v>
+      </c>
+      <c r="G135" s="8">
+        <v>2</v>
+      </c>
+      <c r="K135" s="9"/>
+      <c r="P135" s="46">
         <v>-1</v>
       </c>
-      <c r="Q135" s="42">
-        <v>1</v>
-      </c>
-      <c r="AH135" s="29"/>
-      <c r="AI135" s="30"/>
+      <c r="Q135" s="40">
+        <v>1</v>
+      </c>
+      <c r="AH135" s="28"/>
+      <c r="AI135" s="29"/>
     </row>
     <row r="136" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -13051,281 +13441,281 @@
       <c r="G136">
         <v>2</v>
       </c>
-      <c r="J136" s="10"/>
-      <c r="P136" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q136" s="24">
+      <c r="J136" s="9"/>
+      <c r="P136" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="23">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="AH136" s="31"/>
-      <c r="AI136" s="32"/>
+      <c r="AH136" s="30"/>
+      <c r="AI136" s="31"/>
     </row>
     <row r="137" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="12" t="s">
+      <c r="A137" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C137" s="12">
+      <c r="C137" s="11">
         <v>38</v>
       </c>
-      <c r="D137" s="12" t="s">
+      <c r="D137" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E137" s="12"/>
-      <c r="F137" s="8">
-        <v>1</v>
-      </c>
-      <c r="G137" s="9">
-        <v>3</v>
-      </c>
-      <c r="H137" s="12"/>
-      <c r="I137" s="12"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="12"/>
-      <c r="M137" s="12"/>
-      <c r="N137" s="12"/>
-      <c r="O137" s="12"/>
-      <c r="P137" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q137" s="24">
+      <c r="E137" s="11"/>
+      <c r="F137" s="7">
+        <v>1</v>
+      </c>
+      <c r="G137" s="8">
+        <v>3</v>
+      </c>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="23">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="AD137" s="12"/>
-      <c r="AE137" s="12"/>
-      <c r="AF137" s="12"/>
-      <c r="AG137" s="12"/>
-      <c r="AH137" s="13"/>
-      <c r="AI137" s="17"/>
-      <c r="AJ137" s="12"/>
-      <c r="AK137" s="12"/>
-      <c r="AL137" s="12"/>
-      <c r="AM137" s="12"/>
-      <c r="AN137" s="12"/>
+      <c r="AD137" s="11"/>
+      <c r="AE137" s="11"/>
+      <c r="AF137" s="11"/>
+      <c r="AG137" s="11"/>
+      <c r="AH137" s="12"/>
+      <c r="AI137" s="16"/>
+      <c r="AJ137" s="11"/>
+      <c r="AK137" s="11"/>
+      <c r="AL137" s="11"/>
+      <c r="AM137" s="11"/>
+      <c r="AN137" s="11"/>
     </row>
     <row r="138" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C138" s="14">
+      <c r="C138" s="13">
         <v>39</v>
       </c>
-      <c r="D138" s="14" t="s">
+      <c r="D138" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14">
-        <v>1</v>
-      </c>
-      <c r="G138" s="14">
-        <v>2</v>
-      </c>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="14"/>
-      <c r="K138" s="15"/>
-      <c r="L138" s="14"/>
-      <c r="M138" s="14"/>
-      <c r="N138" s="14"/>
-      <c r="O138" s="14"/>
-      <c r="P138" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q138" s="46">
-        <v>1</v>
-      </c>
-      <c r="R138" s="45"/>
-      <c r="S138" s="45"/>
-      <c r="T138" s="45"/>
-      <c r="U138" s="45"/>
-      <c r="V138" s="45"/>
-      <c r="W138" s="31"/>
-      <c r="X138" s="31"/>
-      <c r="Y138" s="31"/>
-      <c r="Z138" s="31"/>
-      <c r="AA138" s="31"/>
-      <c r="AB138" s="31"/>
-      <c r="AC138" s="31"/>
-      <c r="AD138" s="14"/>
-      <c r="AE138" s="14"/>
-      <c r="AF138" s="14"/>
-      <c r="AG138" s="14"/>
-      <c r="AH138" s="16"/>
-      <c r="AI138" s="15"/>
-      <c r="AJ138" s="14"/>
-      <c r="AK138" s="14"/>
-      <c r="AL138" s="14"/>
-      <c r="AM138" s="14"/>
-      <c r="AN138" s="14"/>
+      <c r="E138" s="13"/>
+      <c r="F138" s="13">
+        <v>1</v>
+      </c>
+      <c r="G138" s="13">
+        <v>2</v>
+      </c>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="13"/>
+      <c r="K138" s="14"/>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="13"/>
+      <c r="O138" s="13"/>
+      <c r="P138" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="44">
+        <v>1</v>
+      </c>
+      <c r="R138" s="43"/>
+      <c r="S138" s="43"/>
+      <c r="T138" s="43"/>
+      <c r="U138" s="43"/>
+      <c r="V138" s="43"/>
+      <c r="W138" s="30"/>
+      <c r="X138" s="30"/>
+      <c r="Y138" s="30"/>
+      <c r="Z138" s="30"/>
+      <c r="AA138" s="30"/>
+      <c r="AB138" s="30"/>
+      <c r="AC138" s="30"/>
+      <c r="AD138" s="13"/>
+      <c r="AE138" s="13"/>
+      <c r="AF138" s="13"/>
+      <c r="AG138" s="13"/>
+      <c r="AH138" s="15"/>
+      <c r="AI138" s="14"/>
+      <c r="AJ138" s="13"/>
+      <c r="AK138" s="13"/>
+      <c r="AL138" s="13"/>
+      <c r="AM138" s="13"/>
+      <c r="AN138" s="13"/>
     </row>
     <row r="139" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C139" s="14">
+      <c r="C139" s="13">
         <v>40</v>
       </c>
-      <c r="D139" s="14" t="s">
+      <c r="D139" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14">
-        <v>2</v>
-      </c>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="14"/>
-      <c r="K139" s="14"/>
-      <c r="L139" s="15"/>
-      <c r="M139" s="14"/>
-      <c r="N139" s="14"/>
-      <c r="O139" s="14"/>
-      <c r="P139" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q139" s="47">
-        <v>2</v>
-      </c>
-      <c r="R139" s="45"/>
-      <c r="S139" s="45"/>
-      <c r="T139" s="45"/>
-      <c r="U139" s="45"/>
-      <c r="V139" s="45"/>
-      <c r="W139" s="31"/>
-      <c r="X139" s="31"/>
-      <c r="Y139" s="31"/>
-      <c r="Z139" s="31"/>
-      <c r="AA139" s="31"/>
-      <c r="AB139" s="31"/>
-      <c r="AC139" s="31"/>
-      <c r="AD139" s="14"/>
-      <c r="AE139" s="14"/>
-      <c r="AF139" s="14"/>
-      <c r="AG139" s="14"/>
-      <c r="AH139" s="15"/>
-      <c r="AI139" s="16"/>
-      <c r="AJ139" s="14"/>
-      <c r="AK139" s="14"/>
-      <c r="AL139" s="14"/>
-      <c r="AM139" s="14"/>
-      <c r="AN139" s="14"/>
+      <c r="E139" s="13"/>
+      <c r="F139" s="13">
+        <v>2</v>
+      </c>
+      <c r="G139" s="13"/>
+      <c r="H139" s="13"/>
+      <c r="I139" s="13"/>
+      <c r="J139" s="13"/>
+      <c r="K139" s="13"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="13"/>
+      <c r="N139" s="13"/>
+      <c r="O139" s="13"/>
+      <c r="P139" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="45">
+        <v>2</v>
+      </c>
+      <c r="R139" s="43"/>
+      <c r="S139" s="43"/>
+      <c r="T139" s="43"/>
+      <c r="U139" s="43"/>
+      <c r="V139" s="43"/>
+      <c r="W139" s="30"/>
+      <c r="X139" s="30"/>
+      <c r="Y139" s="30"/>
+      <c r="Z139" s="30"/>
+      <c r="AA139" s="30"/>
+      <c r="AB139" s="30"/>
+      <c r="AC139" s="30"/>
+      <c r="AD139" s="13"/>
+      <c r="AE139" s="13"/>
+      <c r="AF139" s="13"/>
+      <c r="AG139" s="13"/>
+      <c r="AH139" s="14"/>
+      <c r="AI139" s="15"/>
+      <c r="AJ139" s="13"/>
+      <c r="AK139" s="13"/>
+      <c r="AL139" s="13"/>
+      <c r="AM139" s="13"/>
+      <c r="AN139" s="13"/>
     </row>
     <row r="140" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
+      <c r="A140" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C140" s="12">
+      <c r="C140" s="11">
         <v>41</v>
       </c>
-      <c r="D140" s="12" t="s">
+      <c r="D140" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12">
-        <v>2</v>
-      </c>
-      <c r="G140" s="12"/>
-      <c r="H140" s="12"/>
-      <c r="I140" s="12"/>
-      <c r="J140" s="12"/>
-      <c r="K140" s="17"/>
-      <c r="L140" s="13"/>
-      <c r="M140" s="12"/>
-      <c r="N140" s="12"/>
-      <c r="O140" s="12"/>
-      <c r="P140" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q140" s="24">
+      <c r="E140" s="11"/>
+      <c r="F140" s="11">
+        <v>2</v>
+      </c>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="16"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="23">
         <f>W-2</f>
         <v>2</v>
       </c>
-      <c r="AD140" s="12"/>
-      <c r="AE140" s="12"/>
-      <c r="AF140" s="12"/>
-      <c r="AG140" s="12"/>
-      <c r="AH140" s="23"/>
-      <c r="AI140" s="21"/>
-      <c r="AJ140" s="12"/>
-      <c r="AK140" s="12"/>
-      <c r="AL140" s="12"/>
-      <c r="AM140" s="12"/>
-      <c r="AN140" s="12"/>
+      <c r="AD140" s="11"/>
+      <c r="AE140" s="11"/>
+      <c r="AF140" s="11"/>
+      <c r="AG140" s="11"/>
+      <c r="AH140" s="22"/>
+      <c r="AI140" s="20"/>
+      <c r="AJ140" s="11"/>
+      <c r="AK140" s="11"/>
+      <c r="AL140" s="11"/>
+      <c r="AM140" s="11"/>
+      <c r="AN140" s="11"/>
     </row>
     <row r="141" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A141" s="24" t="s">
+      <c r="A141" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B141" s="24" t="s">
+      <c r="B141" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C141" s="24">
+      <c r="C141" s="23">
         <v>42</v>
       </c>
-      <c r="D141" s="24" t="s">
+      <c r="D141" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E141" s="24"/>
+      <c r="E141" s="23"/>
       <c r="F141" s="4">
         <v>3</v>
       </c>
       <c r="G141" s="4">
         <v>3</v>
       </c>
-      <c r="M141" s="10"/>
-      <c r="P141" s="51">
-        <v>1</v>
-      </c>
-      <c r="Q141" s="24">
+      <c r="M141" s="9"/>
+      <c r="P141" s="46">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="23">
         <f>W-1</f>
         <v>3</v>
       </c>
-      <c r="AH141" s="21"/>
-      <c r="AI141" s="23"/>
+      <c r="AH141" s="20"/>
+      <c r="AI141" s="22"/>
     </row>
     <row r="142" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="24" t="s">
+      <c r="A142" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B142" s="24" t="s">
+      <c r="B142" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C142" s="24">
+      <c r="C142" s="23">
         <v>43</v>
       </c>
-      <c r="D142" s="24" t="s">
+      <c r="D142" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E142" s="24"/>
+      <c r="E142" s="23"/>
       <c r="F142" s="4">
         <v>3</v>
       </c>
       <c r="G142" s="4">
         <v>4</v>
       </c>
-      <c r="M142" s="10"/>
-      <c r="Q142" s="44">
+      <c r="M142" s="9"/>
+      <c r="Q142" s="42">
         <f>Q141</f>
         <v>3</v>
       </c>
-      <c r="AH142" s="33"/>
-      <c r="AI142" s="34"/>
+      <c r="AH142" s="32"/>
+      <c r="AI142" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13339,77 +13729,77 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
         <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
       <c r="R1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" t="s">
         <v>27</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
       </c>
       <c r="T1" t="s">
         <v>7</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="V1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="W1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">

--- a/GL_LINE_STRIP.xlsx
+++ b/GL_LINE_STRIP.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="39">
   <si>
     <t>left turn</t>
   </si>
@@ -144,7 +144,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>dY_Sign</t>
+    <t>dYtone</t>
+  </si>
+  <si>
+    <t>dYCounter</t>
   </si>
 </sst>
 </file>
@@ -262,7 +265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -446,11 +449,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -518,6 +532,13 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8231,8 +8252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AR59" sqref="AR59"/>
+    <sheetView tabSelected="1" topLeftCell="Y43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y60" sqref="Y60:Y61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8248,8 +8269,8 @@
     <col min="21" max="22" width="9.140625" style="23"/>
     <col min="23" max="23" width="15" style="23" bestFit="1" customWidth="1"/>
     <col min="24" max="29" width="16.42578125" style="23" customWidth="1"/>
+    <col min="41" max="41" width="12.7109375" customWidth="1"/>
     <col min="43" max="43" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -8300,17 +8321,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
       <c r="Q37" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:37" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B38" s="3">
         <v>2</v>
       </c>
@@ -8318,7 +8339,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
       <c r="Q39" s="53" t="s">
         <v>22</v>
       </c>
@@ -8329,7 +8350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:37" x14ac:dyDescent="0.25">
       <c r="Q40" s="51">
         <v>0</v>
       </c>
@@ -8339,8 +8360,21 @@
       <c r="S40" s="49">
         <v>1</v>
       </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="b">
+        <f>NOT(_xlfn.XOR(AG40:AH40))</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:37" x14ac:dyDescent="0.25">
       <c r="Q41" s="51">
         <v>1</v>
       </c>
@@ -8351,8 +8385,21 @@
         <f>(W-3)*2+2</f>
         <v>4</v>
       </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AK41" t="b">
+        <f t="shared" ref="AK41:AK43" si="0">NOT(_xlfn.XOR(AG41:AH41))</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:37" x14ac:dyDescent="0.25">
       <c r="Q42" s="51">
         <v>2</v>
       </c>
@@ -8362,8 +8409,21 @@
       <c r="S42" s="49">
         <v>1</v>
       </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42">
+        <v>1</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
+      </c>
+      <c r="AK42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:37" x14ac:dyDescent="0.25">
       <c r="Q43" s="51">
         <v>3</v>
       </c>
@@ -8373,8 +8433,21 @@
       <c r="S43" s="49">
         <v>3</v>
       </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>1</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:37" x14ac:dyDescent="0.25">
       <c r="Q44" s="51">
         <v>4</v>
       </c>
@@ -8385,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:37" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B45" s="3">
         <v>1</v>
       </c>
@@ -8403,7 +8476,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:37" x14ac:dyDescent="0.25">
       <c r="Q46" s="51">
         <v>6</v>
       </c>
@@ -8418,7 +8491,7 @@
         <v>7.5949367088607597E-2</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:37" x14ac:dyDescent="0.25">
       <c r="Q47" s="52">
         <v>7</v>
       </c>
@@ -8429,7 +8502,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:46" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:45" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B52" s="3">
         <v>0</v>
       </c>
@@ -8448,13 +8521,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>4</v>
       </c>
       <c r="Y54" s="55"/>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -8471,7 +8544,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:46" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" ht="23.25" x14ac:dyDescent="0.25">
       <c r="E56" s="2">
         <v>0</v>
       </c>
@@ -8491,7 +8564,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AJ57" s="10"/>
       <c r="AK57" s="10"/>
       <c r="AL57" s="10"/>
@@ -8499,7 +8572,7 @@
       <c r="AN57" s="10"/>
       <c r="AO57" s="10"/>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="N58" s="17" t="s">
         <v>14</v>
       </c>
@@ -8545,21 +8618,23 @@
       <c r="AL58" s="10"/>
       <c r="AM58" s="10"/>
       <c r="AN58" s="10"/>
-      <c r="AO58" s="10"/>
+      <c r="AO58" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>37</v>
+      </c>
       <c r="AQ58" t="s">
         <v>35</v>
       </c>
       <c r="AR58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AS58" t="s">
-        <v>34</v>
-      </c>
-      <c r="AT58" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:46" s="56" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="J59" s="57">
         <v>0</v>
       </c>
@@ -8623,17 +8698,20 @@
       <c r="AI59" s="58">
         <v>5</v>
       </c>
-      <c r="AQ59" s="56">
-        <v>0</v>
-      </c>
-      <c r="AR59" s="56">
-        <v>1</v>
-      </c>
-      <c r="AS59" s="56">
+      <c r="AO59" s="62">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="62">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="62">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="62">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -8687,7 +8765,7 @@
         <v>4</v>
       </c>
       <c r="X60" s="23">
-        <f t="shared" ref="X60:X94" si="0">IF(AND(R59=loop_length,X59=loop_length),3,IF(AND(R59=3,X59=3),loop_length,X59))</f>
+        <f t="shared" ref="X60:X94" si="1">IF(AND(R59=loop_length,X59=loop_length),3,IF(AND(R59=3,X59=3),loop_length,X59))</f>
         <v>4</v>
       </c>
       <c r="Y60" s="23">
@@ -8712,22 +8790,28 @@
       <c r="AL60" s="10"/>
       <c r="AM60" s="10"/>
       <c r="AN60" s="10"/>
-      <c r="AO60" s="10"/>
-      <c r="AP60" s="10"/>
+      <c r="AO60" s="10">
+        <f>IF(AND(OR(AO59=0,AO59=3),AQ60=0),0,AO59+1)</f>
+        <v>0</v>
+      </c>
+      <c r="AP60" s="10">
+        <f>IF(AO60=3,1*NOT(AP59),AP59)</f>
+        <v>0</v>
+      </c>
       <c r="AQ60">
         <f>IF(V60=W60,1,0)</f>
         <v>0</v>
       </c>
+      <c r="AR60">
+        <f>AR59+AQ59</f>
+        <v>0</v>
+      </c>
       <c r="AS60">
-        <f>AS59+AQ59</f>
-        <v>0</v>
-      </c>
-      <c r="AT60">
-        <f>AS60+IF(AQ59=0,NOT(Z60),0)</f>
+        <f>AR60+IF(AQ59=0,NOT(_xlfn.XOR(Z60,AP60)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -8765,7 +8849,7 @@
         <v>1</v>
       </c>
       <c r="S61" s="23">
-        <f t="shared" ref="S61:S93" si="1">S60+R61*T61</f>
+        <f t="shared" ref="S61:S93" si="2">S60+R61*T61</f>
         <v>2</v>
       </c>
       <c r="T61" s="23">
@@ -8776,15 +8860,15 @@
         <v>17</v>
       </c>
       <c r="V61" s="23">
-        <f t="shared" ref="V61:V94" si="2">IF(C61=0,0,IF(C61=$AO$55-1,6,IF(T61=1,IF(V60&lt;=2,V60+1,IF(V60=3,W61,1)),V60)))</f>
+        <f t="shared" ref="V61:V94" si="3">IF(C61=0,0,IF(C61=$AO$55-1,6,IF(T61=1,IF(V60&lt;=2,V60+1,IF(V60=3,W61,1)),V60)))</f>
         <v>1</v>
       </c>
       <c r="W61" s="23">
-        <f t="shared" ref="W61:W94" si="3">IF(AND(V60=4,W60=4),5,IF(AND(V60=5,W60=5),4,W60))</f>
+        <f t="shared" ref="W61:W94" si="4">IF(AND(V60=4,W60=4),5,IF(AND(V60=5,W60=5),4,W60))</f>
         <v>4</v>
       </c>
       <c r="X61" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Y61" s="23">
@@ -8796,31 +8880,37 @@
         <v>0</v>
       </c>
       <c r="AA61" s="23">
-        <f t="shared" ref="AA61:AA94" si="4">IF(V61=4,Y61+Z61-1,IF(V61=5,Y61+Z61,Y61))</f>
+        <f t="shared" ref="AA61:AA94" si="5">IF(V61=4,Y61+Z61-1,IF(V61=5,Y61+Z61,Y61))</f>
         <v>0</v>
       </c>
       <c r="AB61" s="23" t="str">
-        <f t="shared" ref="AB61:AB94" si="5">IF(AA61=Q61,"OK","!!!")</f>
+        <f t="shared" ref="AB61:AB94" si="6">IF(AA61=Q61,"OK","!!!")</f>
         <v>OK</v>
       </c>
       <c r="AD61" s="22"/>
       <c r="AE61" s="20"/>
-      <c r="AO61" s="10"/>
-      <c r="AP61" s="10"/>
+      <c r="AO61" s="10">
+        <f t="shared" ref="AO61:AO95" si="7">IF(AND(OR(AO60=0,AO60=3),AQ61=0),0,AO60+1)</f>
+        <v>0</v>
+      </c>
+      <c r="AP61" s="10">
+        <f t="shared" ref="AP61:AP95" si="8">IF(AO61=3,1*NOT(AP60),AP60)</f>
+        <v>0</v>
+      </c>
       <c r="AQ61">
-        <f t="shared" ref="AQ61:AQ94" si="6">IF(V61=W61,1,0)</f>
+        <f t="shared" ref="AQ61:AQ94" si="9">IF(V61=W61,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <f>AR60+AQ60</f>
         <v>0</v>
       </c>
       <c r="AS61">
-        <f t="shared" ref="AS61:AS94" si="7">AS60+AQ60</f>
-        <v>0</v>
-      </c>
-      <c r="AT61">
-        <f t="shared" ref="AT61:AT94" si="8">AS61+IF(AQ60=0,NOT(Z61),0)</f>
+        <f>AR61+IF(AQ60=0,NOT(_xlfn.XOR(Z61,AP61)),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>9</v>
       </c>
@@ -8860,42 +8950,42 @@
         <v>4</v>
       </c>
       <c r="S62" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="T62" s="23">
-        <f t="shared" ref="T62:T94" si="9">IF(S61=C62,1,0)</f>
+        <f t="shared" ref="T62:T94" si="10">IF(S61=C62,1,0)</f>
         <v>1</v>
       </c>
       <c r="U62" s="23" t="s">
         <v>18</v>
       </c>
       <c r="V62" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W62" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="X62" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Y62" s="23">
-        <f t="shared" ref="Y62:Y94" si="10">IF(V62=1,Y61,IF(V62=2,IF(Y61=Y60,Y61+P62,Y61),IF(V62=3,Y61+P62,Y61)))</f>
+        <f t="shared" ref="Y62:Y94" si="11">IF(V62=1,Y61,IF(V62=2,IF(Y61=Y60,Y61+P62,Y61),IF(V62=3,Y61+P62,Y61)))</f>
         <v>1</v>
       </c>
       <c r="Z62" s="23">
-        <f t="shared" ref="Z62:Z94" si="11">1*NOT(Z61)</f>
+        <f t="shared" ref="Z62:Z94" si="12">1*NOT(Z61)</f>
         <v>1</v>
       </c>
       <c r="AA62" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB62" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD62" s="20"/>
@@ -8909,22 +8999,28 @@
       <c r="AL62" s="11"/>
       <c r="AM62" s="11"/>
       <c r="AN62" s="11"/>
-      <c r="AO62" s="10"/>
-      <c r="AP62" s="10"/>
+      <c r="AO62" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP62" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR62">
+        <f>AR61+AQ61</f>
         <v>0</v>
       </c>
       <c r="AS62">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT62">
-        <f t="shared" si="8"/>
+        <f>AR62+IF(AQ61=0,NOT(_xlfn.XOR(Z62,AP62)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
         <v>9</v>
       </c>
@@ -8959,44 +9055,44 @@
         <v>1</v>
       </c>
       <c r="R63" s="23">
-        <f t="shared" ref="R63:R94" si="12">IF(OR(C63&lt;2,C63=$AO$55-1),1,IF(T63=1,IF(R62&gt;1,1,X63),R62))</f>
+        <f t="shared" ref="R63:R94" si="13">IF(OR(C63&lt;2,C63=$AO$55-1),1,IF(T63=1,IF(R62&gt;1,1,X63),R62))</f>
         <v>4</v>
       </c>
       <c r="S63" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="T63" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U63" s="43"/>
       <c r="V63" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W63" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="X63" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y63" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z63" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA63" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB63" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD63" s="15"/>
@@ -9010,22 +9106,28 @@
       <c r="AL63" s="13"/>
       <c r="AM63" s="13"/>
       <c r="AN63" s="13"/>
-      <c r="AO63" s="10"/>
-      <c r="AP63" s="10"/>
+      <c r="AO63" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP63" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR63">
+        <f>AR62+AQ62</f>
         <v>0</v>
       </c>
       <c r="AS63">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT63">
-        <f t="shared" si="8"/>
+        <f>AR63+IF(AQ62=0,NOT(_xlfn.XOR(Z63,AP63)),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>9</v>
       </c>
@@ -9060,44 +9162,44 @@
         <v>2</v>
       </c>
       <c r="R64" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S64" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="T64" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U64" s="43"/>
       <c r="V64" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W64" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="X64" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y64" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="Z64" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA64" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB64" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD64" s="14"/>
@@ -9111,22 +9213,28 @@
       <c r="AL64" s="13"/>
       <c r="AM64" s="13"/>
       <c r="AN64" s="13"/>
-      <c r="AO64" s="10"/>
-      <c r="AP64" s="10"/>
+      <c r="AO64" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP64" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR64">
+        <f>AR63+AQ63</f>
         <v>0</v>
       </c>
       <c r="AS64">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT64">
-        <f t="shared" si="8"/>
+        <f>AR64+IF(AQ63=0,NOT(_xlfn.XOR(Z64,AP64)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>9</v>
       </c>
@@ -9162,43 +9270,43 @@
         <v>2</v>
       </c>
       <c r="R65" s="23">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="S65" s="23">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="T65" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="W65" s="23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="X65" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y65" s="23">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Z65" s="23">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="S65" s="23">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="T65" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V65" s="23">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="W65" s="23">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="X65" s="23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Y65" s="23">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="Z65" s="23">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA65" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB65" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD65" s="16"/>
@@ -9212,22 +9320,28 @@
       <c r="AL65" s="11"/>
       <c r="AM65" s="11"/>
       <c r="AN65" s="11"/>
-      <c r="AO65" s="10"/>
-      <c r="AP65" s="10"/>
+      <c r="AO65" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP65" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR65">
+        <f>AR64+AQ64</f>
         <v>0</v>
       </c>
       <c r="AS65">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT65">
-        <f t="shared" si="8"/>
+        <f>AR65+IF(AQ64=0,NOT(_xlfn.XOR(Z65,AP65)),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -9258,66 +9372,72 @@
         <v>3</v>
       </c>
       <c r="R66" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S66" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="T66" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U66" s="23" t="s">
         <v>19</v>
       </c>
       <c r="V66" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="W66" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="X66" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y66" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="Z66" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA66" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AB66" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD66" s="9"/>
       <c r="AE66" s="10"/>
-      <c r="AO66" s="10"/>
-      <c r="AP66" s="10"/>
+      <c r="AO66" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP66" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <f>AR65+AQ65</f>
         <v>0</v>
       </c>
       <c r="AS66">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT66">
-        <f t="shared" si="8"/>
+        <f>AR66+IF(AQ65=0,NOT(_xlfn.XOR(Z66,AP66)),0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -9348,66 +9468,72 @@
         <v>2</v>
       </c>
       <c r="R67" s="23">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="S67" s="23">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="T67" s="23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="U67" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V67" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="W67" s="23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="X67" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y67" s="23">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Z67" s="23">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="S67" s="23">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="T67" s="23">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="U67" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V67" s="23">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="W67" s="23">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="X67" s="23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Y67" s="23">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="Z67" s="23">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA67" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB67" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD67" s="26"/>
       <c r="AE67" s="27"/>
-      <c r="AO67" s="10"/>
-      <c r="AP67" s="10"/>
+      <c r="AO67" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AP67" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ67">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <f>AR66+AQ66</f>
+        <v>0</v>
       </c>
       <c r="AS67">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT67">
-        <f t="shared" si="8"/>
+        <f>AR67+IF(AQ66=0,NOT(_xlfn.XOR(Z67,AP67)),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -9438,61 +9564,69 @@
         <v>3</v>
       </c>
       <c r="R68" s="23">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="S68" s="23">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="T68" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="W68" s="23">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="X68" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y68" s="23">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Z68" s="23">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="S68" s="23">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="T68" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V68" s="23">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="W68" s="23">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="X68" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Y68" s="23">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="Z68" s="23">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA68" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AB68" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD68" s="10"/>
       <c r="AE68" s="9"/>
+      <c r="AO68" s="10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AP68" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ68">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <f>AR67+AQ67</f>
+        <v>1</v>
       </c>
       <c r="AS68">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AT68">
-        <f t="shared" si="8"/>
+        <f>AR68+IF(AQ67=0,NOT(_xlfn.XOR(Z68,AP68)),0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:46" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -9523,61 +9657,69 @@
         <v>2</v>
       </c>
       <c r="R69" s="23">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="S69" s="23">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="T69" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="W69" s="23">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="X69" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y69" s="23">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Z69" s="23">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="S69" s="23">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="T69" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="23">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="W69" s="23">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="X69" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Y69" s="23">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="Z69" s="23">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA69" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB69" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AE69" s="28"/>
       <c r="AF69" s="29"/>
+      <c r="AO69" s="10">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AP69" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ69">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR69">
+        <f>AR68+AQ68</f>
+        <v>1</v>
       </c>
       <c r="AS69">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AT69">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f>AR69+IF(AQ68=0,NOT(_xlfn.XOR(Z69,AP69)),0)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -9608,64 +9750,72 @@
         <v>3</v>
       </c>
       <c r="R70" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S70" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="T70" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U70" s="23" t="s">
         <v>17</v>
       </c>
       <c r="V70" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W70" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="X70" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Y70" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="Z70" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA70" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AB70" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AE70" s="30"/>
       <c r="AF70" s="31"/>
+      <c r="AO70" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP70" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ70">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR70">
+        <f>AR69+AQ69</f>
+        <v>1</v>
       </c>
       <c r="AS70">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AT70">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>AR70+IF(AQ69=0,NOT(_xlfn.XOR(Z70,AP70)),0)</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
         <v>9</v>
       </c>
@@ -9701,46 +9851,46 @@
         <v>2</v>
       </c>
       <c r="R71" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S71" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="T71" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U71" s="23" t="s">
         <v>18</v>
       </c>
       <c r="V71" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W71" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="X71" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Y71" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="Z71" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA71" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB71" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD71" s="11"/>
@@ -9754,20 +9904,28 @@
       <c r="AL71" s="11"/>
       <c r="AM71" s="11"/>
       <c r="AN71" s="11"/>
+      <c r="AO71" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP71" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ71">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <f>AR70+AQ70</f>
+        <v>1</v>
       </c>
       <c r="AS71">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AT71">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f>AR71+IF(AQ70=0,NOT(_xlfn.XOR(Z71,AP71)),0)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A72" s="13" t="s">
         <v>9</v>
       </c>
@@ -9802,44 +9960,44 @@
         <v>2</v>
       </c>
       <c r="R72" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S72" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="T72" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U72" s="43"/>
       <c r="V72" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W72" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="X72" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y72" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="Z72" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA72" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB72" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD72" s="13"/>
@@ -9853,20 +10011,28 @@
       <c r="AL72" s="13"/>
       <c r="AM72" s="13"/>
       <c r="AN72" s="13"/>
+      <c r="AO72" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP72" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ72">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR72">
+        <f>AR71+AQ71</f>
+        <v>1</v>
       </c>
       <c r="AS72">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AT72">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>AR72+IF(AQ71=0,NOT(_xlfn.XOR(Z72,AP72)),0)</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
         <v>9</v>
       </c>
@@ -9901,15 +10067,15 @@
         <v>1</v>
       </c>
       <c r="R73" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S73" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="T73" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U73" s="43"/>
@@ -9918,27 +10084,27 @@
         <v>2</v>
       </c>
       <c r="W73" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="X73" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y73" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z73" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA73" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB73" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD73" s="13"/>
@@ -9952,20 +10118,28 @@
       <c r="AL73" s="13"/>
       <c r="AM73" s="13"/>
       <c r="AN73" s="13"/>
+      <c r="AO73" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP73" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ73">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR73">
+        <f>AR72+AQ72</f>
+        <v>1</v>
       </c>
       <c r="AS73">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AT73">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f>AR73+IF(AQ72=0,NOT(_xlfn.XOR(Z73,AP73)),0)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>9</v>
       </c>
@@ -10001,43 +10175,43 @@
         <v>1</v>
       </c>
       <c r="R74" s="23">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="S74" s="23">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="T74" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="W74" s="23">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="X74" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y74" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z74" s="23">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="S74" s="23">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="T74" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="23">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="W74" s="23">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="X74" s="23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Y74" s="23">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Z74" s="23">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA74" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB74" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD74" s="11"/>
@@ -10051,20 +10225,28 @@
       <c r="AL74" s="11"/>
       <c r="AM74" s="11"/>
       <c r="AN74" s="11"/>
+      <c r="AO74" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP74" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ74">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR74">
+        <f>AR73+AQ73</f>
+        <v>1</v>
       </c>
       <c r="AS74">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AT74">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>AR74+IF(AQ73=0,NOT(_xlfn.XOR(Z74,AP74)),0)</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -10095,15 +10277,15 @@
         <v>0</v>
       </c>
       <c r="R75" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S75" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="T75" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U75" s="23" t="s">
@@ -10114,46 +10296,54 @@
         <v>3</v>
       </c>
       <c r="W75" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="X75" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y75" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z75" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA75" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB75" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AE75" s="9"/>
       <c r="AF75" s="10"/>
       <c r="AG75" s="10"/>
+      <c r="AO75" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP75" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ75">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <f>AR74+AQ74</f>
+        <v>1</v>
       </c>
       <c r="AS75">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AT75">
-        <f t="shared" si="8"/>
-        <v>2</v>
+        <f>AR75+IF(AQ74=0,NOT(_xlfn.XOR(Z75,AP75)),0)</f>
+        <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -10180,64 +10370,72 @@
         <v>1</v>
       </c>
       <c r="R76" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="S76" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="T76" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U76" s="23" t="s">
         <v>1</v>
       </c>
       <c r="V76" s="23">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="W76" s="23">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
+      <c r="W76" s="23">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
       <c r="X76" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y76" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z76" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA76" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB76" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AE76" s="26"/>
       <c r="AF76" s="27"/>
+      <c r="AO76" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AP76" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AR76">
+        <f>AR75+AQ75</f>
         <v>1</v>
       </c>
       <c r="AS76">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AT76">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f>AR76+IF(AQ75=0,NOT(_xlfn.XOR(Z76,AP76)),0)</f>
+        <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -10267,60 +10465,68 @@
         <v>0</v>
       </c>
       <c r="R77" s="23">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="S77" s="23">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="T77" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="W77" s="23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="X77" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y77" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="23">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="S77" s="23">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="T77" s="23">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>OK</v>
+      </c>
+      <c r="AF77" s="9"/>
+      <c r="AO77" s="10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AP77" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="AQ77">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V77" s="23">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="W77" s="23">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="X77" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Y77" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z77" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA77" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB77" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AF77" s="9"/>
-      <c r="AQ77">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="AR77">
+        <f>AR76+AQ76</f>
+        <v>2</v>
       </c>
       <c r="AS77">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AT77">
-        <f t="shared" si="8"/>
+        <f>AR77+IF(AQ76=0,NOT(_xlfn.XOR(Z77,AP77)),0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -10350,61 +10556,69 @@
         <v>1</v>
       </c>
       <c r="R78" s="23">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="S78" s="23">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="T78" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="W78" s="23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="X78" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y78" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="23">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="S78" s="23">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="T78" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V78" s="23">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="W78" s="23">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="X78" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Y78" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z78" s="23">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA78" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB78" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AF78" s="28"/>
       <c r="AG78" s="29"/>
+      <c r="AO78" s="10">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AP78" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ78">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <f>AR77+AQ77</f>
+        <v>2</v>
       </c>
       <c r="AS78">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AT78">
-        <f t="shared" si="8"/>
+        <f>AR78+IF(AQ77=0,NOT(_xlfn.XOR(Z78,AP78)),0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -10435,64 +10649,72 @@
         <v>0</v>
       </c>
       <c r="R79" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S79" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="T79" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U79" s="23" t="s">
         <v>17</v>
       </c>
       <c r="V79" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W79" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="X79" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Y79" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z79" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA79" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB79" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AF79" s="30"/>
       <c r="AG79" s="31"/>
+      <c r="AO79" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP79" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ79">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <f>AR78+AQ78</f>
+        <v>2</v>
       </c>
       <c r="AS79">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AT79">
-        <f t="shared" si="8"/>
+        <f>AR79+IF(AQ78=0,NOT(_xlfn.XOR(Z79,AP79)),0)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
         <v>9</v>
       </c>
@@ -10528,46 +10750,46 @@
         <v>1</v>
       </c>
       <c r="R80" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S80" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="T80" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U80" s="23" t="s">
         <v>18</v>
       </c>
       <c r="V80" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W80" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="X80" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Y80" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z80" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA80" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB80" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD80" s="11"/>
@@ -10581,16 +10803,24 @@
       <c r="AL80" s="11"/>
       <c r="AM80" s="11"/>
       <c r="AN80" s="11"/>
+      <c r="AO80" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP80" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ80">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <f>AR79+AQ79</f>
+        <v>2</v>
       </c>
       <c r="AS80">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AT80">
-        <f t="shared" si="8"/>
+        <f>AR80+IF(AQ79=0,NOT(_xlfn.XOR(Z80,AP80)),0)</f>
         <v>2</v>
       </c>
     </row>
@@ -10629,44 +10859,44 @@
         <v>1</v>
       </c>
       <c r="R81" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S81" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="T81" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U81" s="43"/>
       <c r="V81" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W81" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="X81" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y81" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z81" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA81" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB81" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD81" s="13"/>
@@ -10680,16 +10910,24 @@
       <c r="AL81" s="13"/>
       <c r="AM81" s="13"/>
       <c r="AN81" s="13"/>
+      <c r="AO81" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP81" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ81">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <f>AR80+AQ80</f>
+        <v>2</v>
       </c>
       <c r="AS81">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AT81">
-        <f t="shared" si="8"/>
+        <f>AR81+IF(AQ80=0,NOT(_xlfn.XOR(Z81,AP81)),0)</f>
         <v>3</v>
       </c>
     </row>
@@ -10728,44 +10966,44 @@
         <v>2</v>
       </c>
       <c r="R82" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S82" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="T82" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U82" s="43"/>
       <c r="V82" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W82" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="X82" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y82" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="Z82" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA82" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB82" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD82" s="13"/>
@@ -10779,16 +11017,24 @@
       <c r="AL82" s="13"/>
       <c r="AM82" s="13"/>
       <c r="AN82" s="13"/>
+      <c r="AO82" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP82" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ82">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <f>AR81+AQ81</f>
+        <v>2</v>
       </c>
       <c r="AS82">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AT82">
-        <f t="shared" si="8"/>
+        <f>AR82+IF(AQ81=0,NOT(_xlfn.XOR(Z82,AP82)),0)</f>
         <v>2</v>
       </c>
     </row>
@@ -10828,43 +11074,43 @@
         <v>2</v>
       </c>
       <c r="R83" s="23">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="S83" s="23">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="T83" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="W83" s="23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="X83" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y83" s="23">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Z83" s="23">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="S83" s="23">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="T83" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V83" s="23">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="W83" s="23">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="X83" s="23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Y83" s="23">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="Z83" s="23">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA83" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB83" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD83" s="11"/>
@@ -10878,16 +11124,24 @@
       <c r="AL83" s="11"/>
       <c r="AM83" s="11"/>
       <c r="AN83" s="11"/>
+      <c r="AO83" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP83" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ83">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR83">
+        <f>AR82+AQ82</f>
+        <v>2</v>
       </c>
       <c r="AS83">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AT83">
-        <f t="shared" si="8"/>
+        <f>AR83+IF(AQ82=0,NOT(_xlfn.XOR(Z83,AP83)),0)</f>
         <v>3</v>
       </c>
     </row>
@@ -10922,60 +11176,68 @@
         <v>3</v>
       </c>
       <c r="R84" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S84" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="T84" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U84" s="23" t="s">
         <v>19</v>
       </c>
       <c r="V84" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="W84" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="X84" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y84" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="Z84" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA84" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AB84" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AF84" s="9"/>
       <c r="AG84" s="10"/>
+      <c r="AO84" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP84" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ84">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR84">
+        <f>AR83+AQ83</f>
+        <v>2</v>
       </c>
       <c r="AS84">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AT84">
-        <f t="shared" si="8"/>
+        <f>AR84+IF(AQ83=0,NOT(_xlfn.XOR(Z84,AP84)),0)</f>
         <v>2</v>
       </c>
     </row>
@@ -11010,60 +11272,68 @@
         <v>2</v>
       </c>
       <c r="R85" s="23">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="S85" s="23">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="T85" s="23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="U85" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V85" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="W85" s="23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="X85" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y85" s="23">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Z85" s="23">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="S85" s="23">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="T85" s="23">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="U85" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V85" s="23">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="W85" s="23">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="X85" s="23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Y85" s="23">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="Z85" s="23">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA85" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB85" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AF85" s="26"/>
       <c r="AG85" s="27"/>
+      <c r="AO85" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AP85" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="AQ85">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="AR85">
+        <f>AR84+AQ84</f>
+        <v>2</v>
       </c>
       <c r="AS85">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AT85">
-        <f t="shared" si="8"/>
+        <f>AR85+IF(AQ84=0,NOT(_xlfn.XOR(Z85,AP85)),0)</f>
         <v>3</v>
       </c>
     </row>
@@ -11098,56 +11368,64 @@
         <v>3</v>
       </c>
       <c r="R86" s="23">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="S86" s="23">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="T86" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="W86" s="23">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="X86" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y86" s="23">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Z86" s="23">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="S86" s="23">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="T86" s="23">
+        <v>1</v>
+      </c>
+      <c r="AA86" s="23">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="AB86" s="23" t="str">
+        <f t="shared" si="6"/>
+        <v>OK</v>
+      </c>
+      <c r="AG86" s="9"/>
+      <c r="AO86" s="10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AP86" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AQ86">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V86" s="23">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="W86" s="23">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="X86" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Y86" s="23">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="Z86" s="23">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AA86" s="23">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="AB86" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AG86" s="9"/>
-      <c r="AQ86">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="AR86">
+        <f>AR85+AQ85</f>
+        <v>3</v>
       </c>
       <c r="AS86">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AT86">
-        <f t="shared" si="8"/>
+        <f>AR86+IF(AQ85=0,NOT(_xlfn.XOR(Z86,AP86)),0)</f>
         <v>3</v>
       </c>
     </row>
@@ -11182,58 +11460,66 @@
         <v>2</v>
       </c>
       <c r="R87" s="23">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="S87" s="23">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="T87" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V87" s="23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="W87" s="23">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="X87" s="23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Y87" s="23">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Z87" s="23">
         <f t="shared" si="12"/>
-        <v>3</v>
-      </c>
-      <c r="S87" s="23">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="T87" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V87" s="23">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="W87" s="23">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="X87" s="23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Y87" s="23">
-        <f t="shared" si="10"/>
-        <v>3</v>
-      </c>
-      <c r="Z87" s="23">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA87" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB87" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AG87" s="28"/>
       <c r="AH87" s="29"/>
+      <c r="AO87" s="10">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AP87" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ87">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR87">
+        <f>AR86+AQ86</f>
+        <v>3</v>
       </c>
       <c r="AS87">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AT87">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f>AR87+IF(AQ86=0,NOT(_xlfn.XOR(Z87,AP87)),0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:46" x14ac:dyDescent="0.25">
@@ -11267,61 +11553,69 @@
         <v>3</v>
       </c>
       <c r="R88" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S88" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="T88" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U88" s="23" t="s">
         <v>17</v>
       </c>
       <c r="V88" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="W88" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="X88" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Y88" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="Z88" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA88" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="AB88" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AG88" s="30"/>
       <c r="AH88" s="31"/>
+      <c r="AO88" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP88" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ88">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR88">
+        <f>AR87+AQ87</f>
+        <v>3</v>
       </c>
       <c r="AS88">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AT88">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f>AR88+IF(AQ87=0,NOT(_xlfn.XOR(Z88,AP88)),0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11360,46 +11654,46 @@
         <v>2</v>
       </c>
       <c r="R89" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S89" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="T89" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U89" s="23" t="s">
         <v>18</v>
       </c>
       <c r="V89" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W89" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="X89" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="Y89" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="Z89" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA89" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB89" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD89" s="11"/>
@@ -11413,17 +11707,25 @@
       <c r="AL89" s="11"/>
       <c r="AM89" s="11"/>
       <c r="AN89" s="11"/>
+      <c r="AO89" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP89" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ89">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR89">
+        <f>AR88+AQ88</f>
+        <v>3</v>
       </c>
       <c r="AS89">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AT89">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f>AR89+IF(AQ88=0,NOT(_xlfn.XOR(Z89,AP89)),0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:46" x14ac:dyDescent="0.25">
@@ -11461,44 +11763,44 @@
         <v>2</v>
       </c>
       <c r="R90" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S90" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="T90" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U90" s="43"/>
       <c r="V90" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W90" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="X90" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y90" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="Z90" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA90" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="AB90" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD90" s="13"/>
@@ -11512,17 +11814,25 @@
       <c r="AL90" s="13"/>
       <c r="AM90" s="13"/>
       <c r="AN90" s="13"/>
+      <c r="AO90" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP90" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ90">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR90">
+        <f>AR89+AQ89</f>
+        <v>3</v>
       </c>
       <c r="AS90">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AT90">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f>AR90+IF(AQ89=0,NOT(_xlfn.XOR(Z90,AP90)),0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11560,44 +11870,44 @@
         <v>1</v>
       </c>
       <c r="R91" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="S91" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="T91" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U91" s="43"/>
       <c r="V91" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="W91" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="X91" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y91" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Z91" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA91" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB91" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD91" s="13"/>
@@ -11611,17 +11921,25 @@
       <c r="AL91" s="13"/>
       <c r="AM91" s="13"/>
       <c r="AN91" s="13"/>
+      <c r="AO91" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP91" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ91">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR91">
+        <f>AR90+AQ90</f>
+        <v>3</v>
       </c>
       <c r="AS91">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AT91">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f>AR91+IF(AQ90=0,NOT(_xlfn.XOR(Z91,AP91)),0)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:46" x14ac:dyDescent="0.25">
@@ -11660,43 +11978,43 @@
         <v>1</v>
       </c>
       <c r="R92" s="23">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="S92" s="23">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="T92" s="23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="23">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="W92" s="23">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="X92" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y92" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="Z92" s="23">
         <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="S92" s="23">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="T92" s="23">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V92" s="23">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="W92" s="23">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="X92" s="23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Y92" s="23">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Z92" s="23">
-        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA92" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AB92" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AD92" s="11"/>
@@ -11710,17 +12028,25 @@
       <c r="AL92" s="11"/>
       <c r="AM92" s="11"/>
       <c r="AN92" s="11"/>
+      <c r="AO92" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP92" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ92">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR92">
+        <f>AR91+AQ91</f>
+        <v>3</v>
       </c>
       <c r="AS92">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AT92">
-        <f t="shared" si="8"/>
-        <v>3</v>
+        <f>AR92+IF(AQ91=0,NOT(_xlfn.XOR(Z92,AP92)),0)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11754,139 +12080,186 @@
         <v>0</v>
       </c>
       <c r="R93" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S93" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="T93" s="23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="U93" s="23" t="s">
         <v>19</v>
       </c>
       <c r="V93" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="W93" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="X93" s="23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="Y93" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z93" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA93" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB93" s="23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>OK</v>
       </c>
       <c r="AG93" s="20"/>
       <c r="AH93" s="22"/>
+      <c r="AO93" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AP93" s="10">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
       <c r="AQ93">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR93">
+        <f>AR92+AQ92</f>
+        <v>3</v>
+      </c>
+      <c r="AS93">
+        <f>AR93+IF(AQ92=0,NOT(_xlfn.XOR(Z93,AP93)),0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A94" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="56">
+        <v>34</v>
+      </c>
+      <c r="D94" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="56"/>
+      <c r="F94" s="63">
+        <v>0</v>
+      </c>
+      <c r="G94" s="63">
+        <v>4</v>
+      </c>
+      <c r="H94" s="56"/>
+      <c r="I94" s="56"/>
+      <c r="J94" s="64"/>
+      <c r="K94" s="56"/>
+      <c r="L94" s="56"/>
+      <c r="M94" s="56"/>
+      <c r="N94" s="56"/>
+      <c r="O94" s="56"/>
+      <c r="P94" s="65"/>
+      <c r="Q94" s="66">
+        <f>Q93</f>
+        <v>0</v>
+      </c>
+      <c r="R94" s="67">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="S94" s="67"/>
+      <c r="T94" s="67">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="U94" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="67">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="W94" s="67">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="X94" s="67">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Y94" s="67">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="67">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA94" s="67">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB94" s="67" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AS93">
+        <v>OK</v>
+      </c>
+      <c r="AC94" s="67"/>
+      <c r="AD94" s="56"/>
+      <c r="AE94" s="56"/>
+      <c r="AF94" s="56"/>
+      <c r="AG94" s="68"/>
+      <c r="AH94" s="69"/>
+      <c r="AI94" s="56"/>
+      <c r="AJ94" s="56"/>
+      <c r="AK94" s="56"/>
+      <c r="AL94" s="56"/>
+      <c r="AM94" s="56"/>
+      <c r="AN94" s="56"/>
+      <c r="AO94" s="56">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AT93">
+        <v>0</v>
+      </c>
+      <c r="AP94" s="56">
         <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AQ94" s="56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AR94" s="56">
+        <f>AR93+AQ93</f>
+        <v>3</v>
+      </c>
+      <c r="AS94" s="56">
+        <f>AR94+IF(AQ93=0,NOT(_xlfn.XOR(Z94,AP94)),0)</f>
+        <v>4</v>
+      </c>
+      <c r="AT94" s="56"/>
     </row>
-    <row r="94" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>9</v>
-      </c>
-      <c r="B94" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94">
-        <v>34</v>
-      </c>
-      <c r="D94" t="s">
-        <v>11</v>
-      </c>
-      <c r="F94" s="4">
-        <v>0</v>
-      </c>
-      <c r="G94" s="4">
-        <v>4</v>
-      </c>
-      <c r="J94" s="9"/>
-      <c r="Q94" s="42">
-        <f>Q93</f>
-        <v>0</v>
-      </c>
-      <c r="R94" s="23">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="T94" s="23">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="U94" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="23">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="W94" s="23">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="X94" s="23">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="Y94" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="Z94" s="23">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AA94" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB94" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>OK</v>
-      </c>
-      <c r="AG94" s="32"/>
-      <c r="AH94" s="33"/>
-      <c r="AQ94">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AS94">
+    <row r="95" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AO95" s="10">
         <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="AT94">
+        <v>0</v>
+      </c>
+      <c r="AP95" s="10">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -13729,7 +14102,7 @@
   <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="W36" sqref="S32:W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GL_LINE_STRIP.xlsx
+++ b/GL_LINE_STRIP.xlsx
@@ -1,19 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NoName\Documents\RadarClient\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4755" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="GL_TRIANGLES" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="H">Лист1!$B$5</definedName>
@@ -22,11 +18,7 @@
     <definedName name="W">Лист1!$B$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -541,7 +533,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -574,9 +566,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -8030,7 +8019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8065,7 +8054,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8242,7 +8231,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8252,8 +8241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y60" sqref="Y60:Y61"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8395,7 +8384,7 @@
         <v>1</v>
       </c>
       <c r="AK41" t="b">
-        <f t="shared" ref="AK41:AK43" si="0">NOT(_xlfn.XOR(AG41:AH41))</f>
+        <f>NOT(_xlfn.XOR(AG41:AH41))</f>
         <v>1</v>
       </c>
     </row>
@@ -8419,7 +8408,7 @@
         <v>1</v>
       </c>
       <c r="AK42" t="b">
-        <f t="shared" si="0"/>
+        <f>NOT(_xlfn.XOR(AG42:AH42))</f>
         <v>1</v>
       </c>
     </row>
@@ -8443,7 +8432,7 @@
         <v>0</v>
       </c>
       <c r="AK43" t="b">
-        <f t="shared" si="0"/>
+        <f>NOT(_xlfn.XOR(AG43:AH43))</f>
         <v>0</v>
       </c>
     </row>
@@ -8765,7 +8754,7 @@
         <v>4</v>
       </c>
       <c r="X60" s="23">
-        <f t="shared" ref="X60:X94" si="1">IF(AND(R59=loop_length,X59=loop_length),3,IF(AND(R59=3,X59=3),loop_length,X59))</f>
+        <f t="shared" ref="X60:X94" si="0">IF(AND(R59=loop_length,X59=loop_length),3,IF(AND(R59=3,X59=3),loop_length,X59))</f>
         <v>4</v>
       </c>
       <c r="Y60" s="23">
@@ -8803,11 +8792,11 @@
         <v>0</v>
       </c>
       <c r="AR60">
-        <f>AR59+AQ59</f>
+        <f t="shared" ref="AR60:AR94" si="1">AR59+AQ59</f>
         <v>0</v>
       </c>
       <c r="AS60">
-        <f>AR60+IF(AQ59=0,NOT(_xlfn.XOR(Z60,AP60)),0)</f>
+        <f t="shared" ref="AS60:AS94" si="2">AR60+IF(AQ59=0,NOT(_xlfn.XOR(Z60,AP60)),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8849,7 +8838,7 @@
         <v>1</v>
       </c>
       <c r="S61" s="23">
-        <f t="shared" ref="S61:S93" si="2">S60+R61*T61</f>
+        <f t="shared" ref="S61:S93" si="3">S60+R61*T61</f>
         <v>2</v>
       </c>
       <c r="T61" s="23">
@@ -8860,15 +8849,15 @@
         <v>17</v>
       </c>
       <c r="V61" s="23">
-        <f t="shared" ref="V61:V94" si="3">IF(C61=0,0,IF(C61=$AO$55-1,6,IF(T61=1,IF(V60&lt;=2,V60+1,IF(V60=3,W61,1)),V60)))</f>
+        <f t="shared" ref="V61:V94" si="4">IF(C61=0,0,IF(C61=$AO$55-1,6,IF(T61=1,IF(V60&lt;=2,V60+1,IF(V60=3,W61,1)),V60)))</f>
         <v>1</v>
       </c>
       <c r="W61" s="23">
-        <f t="shared" ref="W61:W94" si="4">IF(AND(V60=4,W60=4),5,IF(AND(V60=5,W60=5),4,W60))</f>
+        <f t="shared" ref="W61:W94" si="5">IF(AND(V60=4,W60=4),5,IF(AND(V60=5,W60=5),4,W60))</f>
         <v>4</v>
       </c>
       <c r="X61" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Y61" s="23">
@@ -8880,33 +8869,33 @@
         <v>0</v>
       </c>
       <c r="AA61" s="23">
-        <f t="shared" ref="AA61:AA94" si="5">IF(V61=4,Y61+Z61-1,IF(V61=5,Y61+Z61,Y61))</f>
+        <f t="shared" ref="AA61:AA94" si="6">IF(V61=4,Y61+Z61-1,IF(V61=5,Y61+Z61,Y61))</f>
         <v>0</v>
       </c>
       <c r="AB61" s="23" t="str">
-        <f t="shared" ref="AB61:AB94" si="6">IF(AA61=Q61,"OK","!!!")</f>
+        <f t="shared" ref="AB61:AB94" si="7">IF(AA61=Q61,"OK","!!!")</f>
         <v>OK</v>
       </c>
       <c r="AD61" s="22"/>
       <c r="AE61" s="20"/>
       <c r="AO61" s="10">
-        <f t="shared" ref="AO61:AO95" si="7">IF(AND(OR(AO60=0,AO60=3),AQ61=0),0,AO60+1)</f>
+        <f t="shared" ref="AO61:AO95" si="8">IF(AND(OR(AO60=0,AO60=3),AQ61=0),0,AO60+1)</f>
         <v>0</v>
       </c>
       <c r="AP61" s="10">
-        <f t="shared" ref="AP61:AP95" si="8">IF(AO61=3,1*NOT(AP60),AP60)</f>
+        <f t="shared" ref="AP61:AP95" si="9">IF(AO61=3,1*NOT(AP60),AP60)</f>
         <v>0</v>
       </c>
       <c r="AQ61">
-        <f t="shared" ref="AQ61:AQ94" si="9">IF(V61=W61,1,0)</f>
+        <f t="shared" ref="AQ61:AQ94" si="10">IF(V61=W61,1,0)</f>
         <v>0</v>
       </c>
       <c r="AR61">
-        <f>AR60+AQ60</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS61">
-        <f>AR61+IF(AQ60=0,NOT(_xlfn.XOR(Z61,AP61)),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -8950,42 +8939,42 @@
         <v>4</v>
       </c>
       <c r="S62" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="T62" s="23">
-        <f t="shared" ref="T62:T94" si="10">IF(S61=C62,1,0)</f>
+        <f t="shared" ref="T62:T94" si="11">IF(S61=C62,1,0)</f>
         <v>1</v>
       </c>
       <c r="U62" s="23" t="s">
         <v>18</v>
       </c>
       <c r="V62" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W62" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="X62" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Y62" s="23">
-        <f t="shared" ref="Y62:Y94" si="11">IF(V62=1,Y61,IF(V62=2,IF(Y61=Y60,Y61+P62,Y61),IF(V62=3,Y61+P62,Y61)))</f>
+        <f t="shared" ref="Y62:Y94" si="12">IF(V62=1,Y61,IF(V62=2,IF(Y61=Y60,Y61+P62,Y61),IF(V62=3,Y61+P62,Y61)))</f>
         <v>1</v>
       </c>
       <c r="Z62" s="23">
-        <f t="shared" ref="Z62:Z94" si="12">1*NOT(Z61)</f>
+        <f t="shared" ref="Z62:Z94" si="13">1*NOT(Z61)</f>
         <v>1</v>
       </c>
       <c r="AA62" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AB62" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD62" s="20"/>
@@ -9000,23 +8989,23 @@
       <c r="AM62" s="11"/>
       <c r="AN62" s="11"/>
       <c r="AO62" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP62" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR62">
-        <f>AR61+AQ61</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS62">
-        <f>AR62+IF(AQ61=0,NOT(_xlfn.XOR(Z62,AP62)),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9055,44 +9044,44 @@
         <v>1</v>
       </c>
       <c r="R63" s="23">
-        <f t="shared" ref="R63:R94" si="13">IF(OR(C63&lt;2,C63=$AO$55-1),1,IF(T63=1,IF(R62&gt;1,1,X63),R62))</f>
+        <f t="shared" ref="R63:R94" si="14">IF(OR(C63&lt;2,C63=$AO$55-1),1,IF(T63=1,IF(R62&gt;1,1,X63),R62))</f>
         <v>4</v>
       </c>
       <c r="S63" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="T63" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U63" s="43"/>
       <c r="V63" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W63" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="X63" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y63" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z63" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA63" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AB63" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD63" s="15"/>
@@ -9107,23 +9096,23 @@
       <c r="AM63" s="13"/>
       <c r="AN63" s="13"/>
       <c r="AO63" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP63" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR63">
-        <f>AR62+AQ62</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS63">
-        <f>AR63+IF(AQ62=0,NOT(_xlfn.XOR(Z63,AP63)),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -9162,44 +9151,44 @@
         <v>2</v>
       </c>
       <c r="R64" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="S64" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="T64" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U64" s="43"/>
       <c r="V64" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W64" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="X64" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y64" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="Z64" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA64" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AB64" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD64" s="14"/>
@@ -9214,23 +9203,23 @@
       <c r="AM64" s="13"/>
       <c r="AN64" s="13"/>
       <c r="AO64" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP64" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR64">
-        <f>AR63+AQ63</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS64">
-        <f>AR64+IF(AQ63=0,NOT(_xlfn.XOR(Z64,AP64)),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9270,43 +9259,43 @@
         <v>2</v>
       </c>
       <c r="R65" s="23">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="S65" s="23">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="T65" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V65" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W65" s="23">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="X65" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y65" s="23">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z65" s="23">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="S65" s="23">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="T65" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V65" s="23">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="W65" s="23">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="X65" s="23">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Y65" s="23">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Z65" s="23">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA65" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AB65" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD65" s="16"/>
@@ -9321,23 +9310,23 @@
       <c r="AM65" s="11"/>
       <c r="AN65" s="11"/>
       <c r="AO65" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP65" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR65">
-        <f>AR64+AQ64</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS65">
-        <f>AR65+IF(AQ64=0,NOT(_xlfn.XOR(Z65,AP65)),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -9372,68 +9361,68 @@
         <v>3</v>
       </c>
       <c r="R66" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S66" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="T66" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U66" s="23" t="s">
         <v>19</v>
       </c>
       <c r="V66" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="W66" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="X66" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y66" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="Z66" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA66" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AB66" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD66" s="9"/>
       <c r="AE66" s="10"/>
       <c r="AO66" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP66" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR66">
-        <f>AR65+AQ65</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS66">
-        <f>AR66+IF(AQ65=0,NOT(_xlfn.XOR(Z66,AP66)),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -9468,68 +9457,68 @@
         <v>2</v>
       </c>
       <c r="R67" s="23">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S67" s="23">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="T67" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U67" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V67" s="23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="W67" s="23">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="X67" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y67" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Z67" s="23">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="S67" s="23">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="T67" s="23">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="U67" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V67" s="23">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="W67" s="23">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="X67" s="23">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Y67" s="23">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="Z67" s="23">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA67" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AB67" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD67" s="26"/>
       <c r="AE67" s="27"/>
       <c r="AO67" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AP67" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AR67">
-        <f>AR66+AQ66</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AS67">
-        <f>AR67+IF(AQ66=0,NOT(_xlfn.XOR(Z67,AP67)),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -9564,65 +9553,65 @@
         <v>3</v>
       </c>
       <c r="R68" s="23">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S68" s="23">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="T68" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V68" s="23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="W68" s="23">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="X68" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y68" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Z68" s="23">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="S68" s="23">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="T68" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V68" s="23">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="W68" s="23">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="X68" s="23">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Y68" s="23">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="Z68" s="23">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA68" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AB68" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD68" s="10"/>
       <c r="AE68" s="9"/>
       <c r="AO68" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AP68" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR68">
-        <f>AR67+AQ67</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AS68">
-        <f>AR68+IF(AQ67=0,NOT(_xlfn.XOR(Z68,AP68)),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -9657,65 +9646,65 @@
         <v>2</v>
       </c>
       <c r="R69" s="23">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S69" s="23">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="T69" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V69" s="23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="W69" s="23">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="X69" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y69" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Z69" s="23">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="S69" s="23">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="T69" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V69" s="23">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="W69" s="23">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="X69" s="23">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Y69" s="23">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="Z69" s="23">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA69" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AB69" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AE69" s="28"/>
       <c r="AF69" s="29"/>
       <c r="AO69" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AP69" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR69">
-        <f>AR68+AQ68</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AS69">
-        <f>AR69+IF(AQ68=0,NOT(_xlfn.XOR(Z69,AP69)),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -9750,68 +9739,68 @@
         <v>3</v>
       </c>
       <c r="R70" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S70" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="T70" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U70" s="23" t="s">
         <v>17</v>
       </c>
       <c r="V70" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W70" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="X70" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Y70" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="Z70" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA70" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AB70" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AE70" s="30"/>
       <c r="AF70" s="31"/>
       <c r="AO70" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP70" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR70">
-        <f>AR69+AQ69</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AS70">
-        <f>AR70+IF(AQ69=0,NOT(_xlfn.XOR(Z70,AP70)),0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -9851,46 +9840,46 @@
         <v>2</v>
       </c>
       <c r="R71" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="S71" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T71" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U71" s="23" t="s">
         <v>18</v>
       </c>
       <c r="V71" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W71" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="X71" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Y71" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="Z71" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA71" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AB71" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD71" s="11"/>
@@ -9905,23 +9894,23 @@
       <c r="AM71" s="11"/>
       <c r="AN71" s="11"/>
       <c r="AO71" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP71" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR71">
-        <f>AR70+AQ70</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AS71">
-        <f>AR71+IF(AQ70=0,NOT(_xlfn.XOR(Z71,AP71)),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -9960,44 +9949,44 @@
         <v>2</v>
       </c>
       <c r="R72" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="S72" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T72" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U72" s="43"/>
       <c r="V72" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W72" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="X72" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y72" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="Z72" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA72" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AB72" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD72" s="13"/>
@@ -10012,23 +10001,23 @@
       <c r="AM72" s="13"/>
       <c r="AN72" s="13"/>
       <c r="AO72" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP72" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR72">
-        <f>AR71+AQ71</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AS72">
-        <f>AR72+IF(AQ71=0,NOT(_xlfn.XOR(Z72,AP72)),0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -10067,15 +10056,15 @@
         <v>1</v>
       </c>
       <c r="R73" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="S73" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="T73" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U73" s="43"/>
@@ -10084,27 +10073,27 @@
         <v>2</v>
       </c>
       <c r="W73" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="X73" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y73" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z73" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA73" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AB73" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD73" s="13"/>
@@ -10119,23 +10108,23 @@
       <c r="AM73" s="13"/>
       <c r="AN73" s="13"/>
       <c r="AO73" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP73" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR73">
-        <f>AR72+AQ72</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AS73">
-        <f>AR73+IF(AQ72=0,NOT(_xlfn.XOR(Z73,AP73)),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10175,43 +10164,43 @@
         <v>1</v>
       </c>
       <c r="R74" s="23">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="S74" s="23">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="T74" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V74" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W74" s="23">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="X74" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y74" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z74" s="23">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="S74" s="23">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="T74" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V74" s="23">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="W74" s="23">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="X74" s="23">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Y74" s="23">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Z74" s="23">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA74" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AB74" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD74" s="11"/>
@@ -10226,23 +10215,23 @@
       <c r="AM74" s="11"/>
       <c r="AN74" s="11"/>
       <c r="AO74" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP74" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ74">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR74">
-        <f>AR73+AQ73</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AS74">
-        <f>AR74+IF(AQ73=0,NOT(_xlfn.XOR(Z74,AP74)),0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -10277,15 +10266,15 @@
         <v>0</v>
       </c>
       <c r="R75" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S75" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="T75" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U75" s="23" t="s">
@@ -10296,50 +10285,50 @@
         <v>3</v>
       </c>
       <c r="W75" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="X75" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y75" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z75" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA75" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB75" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AE75" s="9"/>
       <c r="AF75" s="10"/>
       <c r="AG75" s="10"/>
       <c r="AO75" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP75" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ75">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR75">
-        <f>AR74+AQ74</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AS75">
-        <f>AR75+IF(AQ74=0,NOT(_xlfn.XOR(Z75,AP75)),0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -10370,68 +10359,68 @@
         <v>1</v>
       </c>
       <c r="R76" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="S76" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="T76" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U76" s="23" t="s">
         <v>1</v>
       </c>
       <c r="V76" s="23">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="W76" s="23">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
+      <c r="W76" s="23">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
       <c r="X76" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y76" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z76" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA76" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AB76" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AE76" s="26"/>
       <c r="AF76" s="27"/>
       <c r="AO76" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AP76" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ76">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AR76">
-        <f>AR75+AQ75</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AS76">
-        <f>AR76+IF(AQ75=0,NOT(_xlfn.XOR(Z76,AP76)),0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -10465,64 +10454,64 @@
         <v>0</v>
       </c>
       <c r="R77" s="23">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S77" s="23">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="T77" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V77" s="23">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="W77" s="23">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="X77" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y77" s="23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="23">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="S77" s="23">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="T77" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V77" s="23">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="W77" s="23">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="X77" s="23">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Y77" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z77" s="23">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA77" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB77" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AF77" s="9"/>
       <c r="AO77" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AP77" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ77">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR77">
-        <f>AR76+AQ76</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AS77">
-        <f>AR77+IF(AQ76=0,NOT(_xlfn.XOR(Z77,AP77)),0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -10556,65 +10545,65 @@
         <v>1</v>
       </c>
       <c r="R78" s="23">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S78" s="23">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="T78" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V78" s="23">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="W78" s="23">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="X78" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y78" s="23">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="23">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="S78" s="23">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="T78" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V78" s="23">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="W78" s="23">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="X78" s="23">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Y78" s="23">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z78" s="23">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA78" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AB78" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AF78" s="28"/>
       <c r="AG78" s="29"/>
       <c r="AO78" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AP78" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ78">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR78">
-        <f>AR77+AQ77</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AS78">
-        <f>AR78+IF(AQ77=0,NOT(_xlfn.XOR(Z78,AP78)),0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -10649,68 +10638,68 @@
         <v>0</v>
       </c>
       <c r="R79" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S79" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="T79" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U79" s="23" t="s">
         <v>17</v>
       </c>
       <c r="V79" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W79" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="X79" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Y79" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z79" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA79" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB79" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AF79" s="30"/>
       <c r="AG79" s="31"/>
       <c r="AO79" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP79" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ79">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR79">
-        <f>AR78+AQ78</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AS79">
-        <f>AR79+IF(AQ78=0,NOT(_xlfn.XOR(Z79,AP79)),0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -10750,46 +10739,46 @@
         <v>1</v>
       </c>
       <c r="R80" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="S80" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T80" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U80" s="23" t="s">
         <v>18</v>
       </c>
       <c r="V80" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W80" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="X80" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Y80" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z80" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA80" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AB80" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD80" s="11"/>
@@ -10804,23 +10793,23 @@
       <c r="AM80" s="11"/>
       <c r="AN80" s="11"/>
       <c r="AO80" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP80" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ80">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR80">
-        <f>AR79+AQ79</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AS80">
-        <f>AR80+IF(AQ79=0,NOT(_xlfn.XOR(Z80,AP80)),0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -10859,44 +10848,44 @@
         <v>1</v>
       </c>
       <c r="R81" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="S81" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T81" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U81" s="43"/>
       <c r="V81" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W81" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="X81" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y81" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z81" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA81" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AB81" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD81" s="13"/>
@@ -10911,23 +10900,23 @@
       <c r="AM81" s="13"/>
       <c r="AN81" s="13"/>
       <c r="AO81" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP81" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ81">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR81">
-        <f>AR80+AQ80</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AS81">
-        <f>AR81+IF(AQ80=0,NOT(_xlfn.XOR(Z81,AP81)),0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -10966,44 +10955,44 @@
         <v>2</v>
       </c>
       <c r="R82" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="S82" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="T82" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U82" s="43"/>
       <c r="V82" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W82" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="X82" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y82" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="Z82" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA82" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AB82" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD82" s="13"/>
@@ -11018,23 +11007,23 @@
       <c r="AM82" s="13"/>
       <c r="AN82" s="13"/>
       <c r="AO82" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP82" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ82">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR82">
-        <f>AR81+AQ81</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AS82">
-        <f>AR82+IF(AQ81=0,NOT(_xlfn.XOR(Z82,AP82)),0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -11074,43 +11063,43 @@
         <v>2</v>
       </c>
       <c r="R83" s="23">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="S83" s="23">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="T83" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V83" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W83" s="23">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="X83" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y83" s="23">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="Z83" s="23">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="S83" s="23">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="T83" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V83" s="23">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="W83" s="23">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="X83" s="23">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Y83" s="23">
-        <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="Z83" s="23">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA83" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AB83" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD83" s="11"/>
@@ -11125,23 +11114,23 @@
       <c r="AM83" s="11"/>
       <c r="AN83" s="11"/>
       <c r="AO83" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP83" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR83">
-        <f>AR82+AQ82</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AS83">
-        <f>AR83+IF(AQ82=0,NOT(_xlfn.XOR(Z83,AP83)),0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -11176,68 +11165,68 @@
         <v>3</v>
       </c>
       <c r="R84" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S84" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="T84" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U84" s="23" t="s">
         <v>19</v>
       </c>
       <c r="V84" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="W84" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="X84" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y84" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="Z84" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA84" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AB84" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AF84" s="9"/>
       <c r="AG84" s="10"/>
       <c r="AO84" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP84" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ84">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR84">
-        <f>AR83+AQ83</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AS84">
-        <f>AR84+IF(AQ83=0,NOT(_xlfn.XOR(Z84,AP84)),0)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -11272,68 +11261,68 @@
         <v>2</v>
       </c>
       <c r="R85" s="23">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S85" s="23">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="T85" s="23">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="U85" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="V85" s="23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="W85" s="23">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="X85" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y85" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Z85" s="23">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="S85" s="23">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="T85" s="23">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="U85" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="V85" s="23">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="W85" s="23">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="X85" s="23">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Y85" s="23">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="Z85" s="23">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA85" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AB85" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AF85" s="26"/>
       <c r="AG85" s="27"/>
       <c r="AO85" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AP85" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ85">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AR85">
-        <f>AR84+AQ84</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="AS85">
-        <f>AR85+IF(AQ84=0,NOT(_xlfn.XOR(Z85,AP85)),0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -11368,64 +11357,64 @@
         <v>3</v>
       </c>
       <c r="R86" s="23">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S86" s="23">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="T86" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V86" s="23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="W86" s="23">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="X86" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y86" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Z86" s="23">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="S86" s="23">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="T86" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V86" s="23">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="W86" s="23">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="X86" s="23">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Y86" s="23">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="Z86" s="23">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA86" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AB86" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AG86" s="9"/>
       <c r="AO86" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AP86" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AQ86">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR86">
-        <f>AR85+AQ85</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AS86">
-        <f>AR86+IF(AQ85=0,NOT(_xlfn.XOR(Z86,AP86)),0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -11460,65 +11449,65 @@
         <v>2</v>
       </c>
       <c r="R87" s="23">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="S87" s="23">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="T87" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V87" s="23">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="W87" s="23">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="X87" s="23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y87" s="23">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="Z87" s="23">
         <f t="shared" si="13"/>
-        <v>3</v>
-      </c>
-      <c r="S87" s="23">
-        <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="T87" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V87" s="23">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="W87" s="23">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="X87" s="23">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="Y87" s="23">
-        <f t="shared" si="11"/>
-        <v>3</v>
-      </c>
-      <c r="Z87" s="23">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA87" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AB87" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AG87" s="28"/>
       <c r="AH87" s="29"/>
       <c r="AO87" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AP87" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ87">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR87">
-        <f>AR86+AQ86</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AS87">
-        <f>AR87+IF(AQ86=0,NOT(_xlfn.XOR(Z87,AP87)),0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -11553,68 +11542,68 @@
         <v>3</v>
       </c>
       <c r="R88" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S88" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="T88" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U88" s="23" t="s">
         <v>17</v>
       </c>
       <c r="V88" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W88" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="X88" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Y88" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="Z88" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA88" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="AB88" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AG88" s="30"/>
       <c r="AH88" s="31"/>
       <c r="AO88" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP88" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ88">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR88">
-        <f>AR87+AQ87</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AS88">
-        <f>AR88+IF(AQ87=0,NOT(_xlfn.XOR(Z88,AP88)),0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -11654,46 +11643,46 @@
         <v>2</v>
       </c>
       <c r="R89" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="S89" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="T89" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U89" s="23" t="s">
         <v>18</v>
       </c>
       <c r="V89" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W89" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="X89" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Y89" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="Z89" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA89" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AB89" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD89" s="11"/>
@@ -11708,23 +11697,23 @@
       <c r="AM89" s="11"/>
       <c r="AN89" s="11"/>
       <c r="AO89" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP89" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ89">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR89">
-        <f>AR88+AQ88</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AS89">
-        <f>AR89+IF(AQ88=0,NOT(_xlfn.XOR(Z89,AP89)),0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -11763,44 +11752,44 @@
         <v>2</v>
       </c>
       <c r="R90" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="S90" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="T90" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U90" s="43"/>
       <c r="V90" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W90" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="X90" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y90" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="Z90" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA90" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="AB90" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD90" s="13"/>
@@ -11815,23 +11804,23 @@
       <c r="AM90" s="13"/>
       <c r="AN90" s="13"/>
       <c r="AO90" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP90" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ90">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR90">
-        <f>AR89+AQ89</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AS90">
-        <f>AR90+IF(AQ89=0,NOT(_xlfn.XOR(Z90,AP90)),0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -11870,44 +11859,44 @@
         <v>1</v>
       </c>
       <c r="R91" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4</v>
       </c>
       <c r="S91" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="T91" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U91" s="43"/>
       <c r="V91" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="W91" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="X91" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y91" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Z91" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA91" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AB91" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD91" s="13"/>
@@ -11922,23 +11911,23 @@
       <c r="AM91" s="13"/>
       <c r="AN91" s="13"/>
       <c r="AO91" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP91" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ91">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR91">
-        <f>AR90+AQ90</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AS91">
-        <f>AR91+IF(AQ90=0,NOT(_xlfn.XOR(Z91,AP91)),0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -11978,43 +11967,43 @@
         <v>1</v>
       </c>
       <c r="R92" s="23">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="S92" s="23">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="T92" s="23">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V92" s="23">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="W92" s="23">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="X92" s="23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y92" s="23">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z92" s="23">
         <f t="shared" si="13"/>
-        <v>4</v>
-      </c>
-      <c r="S92" s="23">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="T92" s="23">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="V92" s="23">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="W92" s="23">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="X92" s="23">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="Y92" s="23">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="Z92" s="23">
-        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA92" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AB92" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AD92" s="11"/>
@@ -12029,23 +12018,23 @@
       <c r="AM92" s="11"/>
       <c r="AN92" s="11"/>
       <c r="AO92" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP92" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ92">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR92">
-        <f>AR91+AQ91</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AS92">
-        <f>AR92+IF(AQ91=0,NOT(_xlfn.XOR(Z92,AP92)),0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -12080,68 +12069,68 @@
         <v>0</v>
       </c>
       <c r="R93" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S93" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="T93" s="23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U93" s="23" t="s">
         <v>19</v>
       </c>
       <c r="V93" s="23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="W93" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="X93" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y93" s="23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z93" s="23">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA93" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB93" s="23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AG93" s="20"/>
       <c r="AH93" s="22"/>
       <c r="AO93" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP93" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ93">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR93">
-        <f>AR92+AQ92</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AS93">
-        <f>AR93+IF(AQ92=0,NOT(_xlfn.XOR(Z93,AP93)),0)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
@@ -12179,43 +12168,43 @@
         <v>0</v>
       </c>
       <c r="R94" s="67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S94" s="67"/>
       <c r="T94" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U94" s="66" t="s">
         <v>5</v>
       </c>
       <c r="V94" s="67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="W94" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="X94" s="67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="Y94" s="67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z94" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA94" s="67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB94" s="67" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>OK</v>
       </c>
       <c r="AC94" s="67"/>
@@ -12231,34 +12220,34 @@
       <c r="AM94" s="56"/>
       <c r="AN94" s="56"/>
       <c r="AO94" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP94" s="56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AQ94" s="56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AR94" s="56">
-        <f>AR93+AQ93</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="AS94" s="56">
-        <f>AR94+IF(AQ93=0,NOT(_xlfn.XOR(Z94,AP94)),0)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="AT94" s="56"/>
     </row>
     <row r="95" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AO95" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AP95" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14101,8 +14090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W36" sqref="S32:W36"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16954,4 +16943,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>